--- a/PythonResources/Data/Consumption/Sympheny/post_1691_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1691_coo.xlsx
@@ -415,7 +415,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.9942522907897738</v>
+        <v>0.9942522907897736</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -471,7 +471,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>29.52661407409188</v>
+        <v>29.52661407409187</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -591,7 +591,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.6706256656375966</v>
+        <v>0.6706256656375965</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.562256787671791</v>
+        <v>0.5622567876717909</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -727,7 +727,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.6541755882375353</v>
+        <v>0.6541755882375352</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -735,7 +735,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.5978766417106909</v>
+        <v>0.5978766417106908</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -751,7 +751,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.5277711185525105</v>
+        <v>0.5277711185525104</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -791,7 +791,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.4139716342403101</v>
+        <v>0.41397163424031</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>6.255865084161211</v>
+        <v>6.25586508416121</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>1.234755177246434</v>
+        <v>1.234755177246433</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>0.8515794477486577</v>
+        <v>0.8515794477486576</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>0.3047440581312267</v>
+        <v>0.3047440581312266</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>0.5346875950649183</v>
+        <v>0.5346875950649181</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>0.3378610854999587</v>
+        <v>0.3378610854999586</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>0.7216464027581503</v>
+        <v>0.7216464027581502</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>0.7594613588766236</v>
+        <v>0.7594613588766235</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>0.3352556839662594</v>
+        <v>0.3352556839662593</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>0.6057749062026141</v>
+        <v>0.605774906202614</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>7.430552421323615</v>
+        <v>7.430552421323614</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>6.854550601938607</v>
+        <v>6.854550601938606</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>0.6381387410019865</v>
+        <v>0.6381387410019864</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>0.474649062084755</v>
+        <v>0.4746490620847549</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>0.4689429689620186</v>
+        <v>0.4689429689620185</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>3.445020752360248</v>
+        <v>3.445020752360247</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>20.29801221637318</v>
+        <v>20.29801221637317</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>0.874693960567878</v>
+        <v>0.8746939605678778</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>0.6887609015099607</v>
+        <v>0.6887609015099606</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>0.5935890124150754</v>
+        <v>0.5935890124150753</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>0.7607391486051871</v>
+        <v>0.760739148605187</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>0.6590815974247263</v>
+        <v>0.6590815974247262</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>3.194650164031861</v>
+        <v>3.19465016403186</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>0.3293796096410994</v>
+        <v>0.3293796096410993</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>5.115935972184042</v>
+        <v>5.115935972184041</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>381</v>
       </c>
       <c r="B381">
-        <v>0.7375660215782345</v>
+        <v>0.7375660215782344</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>0.4346243503347751</v>
+        <v>0.434624350334775</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>0.3122613302728902</v>
+        <v>0.3122613302728901</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>0.2047895427564269</v>
+        <v>0.2047895427564268</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>468</v>
       </c>
       <c r="B468">
-        <v>0.7685787988893781</v>
+        <v>0.768578798889378</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>0.3451468315210798</v>
+        <v>0.3451468315210797</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>554</v>
       </c>
       <c r="B554">
-        <v>0.0633115503399331</v>
+        <v>0.06331155033993301</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>598</v>
       </c>
       <c r="B598">
-        <v>0.462404554089484</v>
+        <v>0.4624045540894839</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>630</v>
       </c>
       <c r="B630">
-        <v>0.0941558118038464</v>
+        <v>0.0941558118038463</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>659</v>
       </c>
       <c r="B659">
-        <v>0.828945571432842</v>
+        <v>0.8289455714328419</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>660</v>
       </c>
       <c r="B660">
-        <v>2.052848328117646</v>
+        <v>2.052848328117645</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>686</v>
       </c>
       <c r="B686">
-        <v>4.151908097611413</v>
+        <v>4.151908097611412</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>688</v>
       </c>
       <c r="B688">
-        <v>0.2123229338052168</v>
+        <v>0.2123229338052167</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>717</v>
       </c>
       <c r="B717">
-        <v>0.3807461705872734</v>
+        <v>0.3807461705872733</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>0.4555173846809424</v>
+        <v>0.4555173846809423</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6199,7 +6199,7 @@
         <v>732</v>
       </c>
       <c r="B732">
-        <v>1.64565835771196</v>
+        <v>1.645658357711959</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>766</v>
       </c>
       <c r="B766">
-        <v>0.4796429925835443</v>
+        <v>0.4796429925835442</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>788</v>
       </c>
       <c r="B788">
-        <v>0.1393667086539775</v>
+        <v>0.1393667086539774</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6991,7 +6991,7 @@
         <v>831</v>
       </c>
       <c r="B831">
-        <v>0.6872926156062673</v>
+        <v>0.6872926156062672</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>839</v>
       </c>
       <c r="B839">
-        <v>0.0758078063574142</v>
+        <v>0.0758078063574141</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7167,7 +7167,7 @@
         <v>853</v>
       </c>
       <c r="B853">
-        <v>0.7661404478477156</v>
+        <v>0.7661404478477155</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>0.2739862526237185</v>
+        <v>0.2739862526237184</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>911</v>
       </c>
       <c r="B911">
-        <v>0.5102601239924951</v>
+        <v>0.510260123992495</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7663,7 +7663,7 @@
         <v>915</v>
       </c>
       <c r="B915">
-        <v>0.2111629586341952</v>
+        <v>0.2111629586341951</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7847,7 +7847,7 @@
         <v>938</v>
       </c>
       <c r="B938">
-        <v>0.3671418129726137</v>
+        <v>0.3671418129726136</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7895,7 +7895,7 @@
         <v>944</v>
       </c>
       <c r="B944">
-        <v>0.2707170451874512</v>
+        <v>0.2707170451874511</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -8015,7 +8015,7 @@
         <v>959</v>
       </c>
       <c r="B959">
-        <v>0.6729878182092071</v>
+        <v>0.6729878182092069</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8023,7 +8023,7 @@
         <v>960</v>
       </c>
       <c r="B960">
-        <v>0.545258667429433</v>
+        <v>0.5452586674294329</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>967</v>
       </c>
       <c r="B967">
-        <v>0.3130233149734097</v>
+        <v>0.3130233149734096</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8263,7 +8263,7 @@
         <v>990</v>
       </c>
       <c r="B990">
-        <v>0.4648546279726929</v>
+        <v>0.4648546279726928</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8287,7 +8287,7 @@
         <v>993</v>
       </c>
       <c r="B993">
-        <v>0.3497128783034235</v>
+        <v>0.3497128783034234</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>0.3009399960494024</v>
+        <v>0.3009399960494023</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8471,7 +8471,7 @@
         <v>1016</v>
       </c>
       <c r="B1016">
-        <v>0.2499761147103491</v>
+        <v>0.249976114710349</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8607,7 +8607,7 @@
         <v>1033</v>
       </c>
       <c r="B1033">
-        <v>0.2166489554068969</v>
+        <v>0.2166489554068968</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>1053</v>
       </c>
       <c r="B1053">
-        <v>0.4712230616428039</v>
+        <v>0.4712230616428038</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>1055</v>
       </c>
       <c r="B1055">
-        <v>0.5263086940695904</v>
+        <v>0.5263086940695902</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8967,7 +8967,7 @@
         <v>1078</v>
       </c>
       <c r="B1078">
-        <v>0.9592361630905164</v>
+        <v>0.9592361630905162</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9007,7 +9007,7 @@
         <v>1083</v>
       </c>
       <c r="B1083">
-        <v>0.379793689711624</v>
+        <v>0.3797936897116239</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9207,7 +9207,7 @@
         <v>1108</v>
       </c>
       <c r="B1108">
-        <v>0.2769720603656003</v>
+        <v>0.2769720603656002</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>1110</v>
       </c>
       <c r="B1110">
-        <v>0.3019305761600778</v>
+        <v>0.3019305761600777</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>1125</v>
       </c>
       <c r="B1125">
-        <v>0.3854997828343604</v>
+        <v>0.3854997828343603</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9351,7 +9351,7 @@
         <v>1126</v>
       </c>
       <c r="B1126">
-        <v>0.4382496390830159</v>
+        <v>0.4382496390830158</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>1127</v>
       </c>
       <c r="B1127">
-        <v>0.4078142117180352</v>
+        <v>0.4078142117180351</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9583,7 +9583,7 @@
         <v>1155</v>
       </c>
       <c r="B1155">
-        <v>0.1079682498559556</v>
+        <v>0.1079682498559555</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
@@ -9687,7 +9687,7 @@
         <v>1168</v>
       </c>
       <c r="B1168">
-        <v>0.8442614639132838</v>
+        <v>0.8442614639132837</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -9999,7 +9999,7 @@
         <v>1207</v>
       </c>
       <c r="B1207">
-        <v>0.3915370462307841</v>
+        <v>0.391537046230784</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
@@ -10151,7 +10151,7 @@
         <v>1226</v>
       </c>
       <c r="B1226">
-        <v>0.758617314285279</v>
+        <v>0.7586173142852789</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10303,7 +10303,7 @@
         <v>1245</v>
       </c>
       <c r="B1245">
-        <v>5.517150224111424</v>
+        <v>5.517150224111423</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
@@ -10383,7 +10383,7 @@
         <v>1255</v>
       </c>
       <c r="B1255">
-        <v>0.778821631690592</v>
+        <v>0.7788216316905919</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
@@ -10479,7 +10479,7 @@
         <v>1267</v>
       </c>
       <c r="B1267">
-        <v>0.2597810993798031</v>
+        <v>0.259781099379803</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
@@ -10487,7 +10487,7 @@
         <v>1268</v>
       </c>
       <c r="B1268">
-        <v>0.9553588332490268</v>
+        <v>0.9553588332490266</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
@@ -10551,7 +10551,7 @@
         <v>1276</v>
       </c>
       <c r="B1276">
-        <v>0.691943652989823</v>
+        <v>0.6919436529898229</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10567,7 +10567,7 @@
         <v>1278</v>
       </c>
       <c r="B1278">
-        <v>0.7478674685871808</v>
+        <v>0.7478674685871807</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
@@ -10591,7 +10591,7 @@
         <v>1281</v>
       </c>
       <c r="B1281">
-        <v>0.2448420962550797</v>
+        <v>0.2448420962550796</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
@@ -10719,7 +10719,7 @@
         <v>1297</v>
       </c>
       <c r="B1297">
-        <v>0.8674257988090767</v>
+        <v>0.8674257988090766</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -10775,7 +10775,7 @@
         <v>1304</v>
       </c>
       <c r="B1304">
-        <v>0.4822454634068571</v>
+        <v>0.482245463406857</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
@@ -10783,7 +10783,7 @@
         <v>1305</v>
       </c>
       <c r="B1305">
-        <v>0.6560395200434215</v>
+        <v>0.6560395200434214</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -10815,7 +10815,7 @@
         <v>1309</v>
       </c>
       <c r="B1309">
-        <v>7.68511392550486</v>
+        <v>7.685113925504859</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
@@ -10943,7 +10943,7 @@
         <v>1325</v>
       </c>
       <c r="B1325">
-        <v>0.6546884625551926</v>
+        <v>0.6546884625551925</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
@@ -10951,7 +10951,7 @@
         <v>1326</v>
       </c>
       <c r="B1326">
-        <v>0.6307211130134679</v>
+        <v>0.6307211130134678</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>1364</v>
       </c>
       <c r="B1364">
-        <v>5.252214005161568</v>
+        <v>5.252214005161567</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
@@ -11263,7 +11263,7 @@
         <v>1365</v>
       </c>
       <c r="B1365">
-        <v>6.428894225386869</v>
+        <v>6.428894225386868</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
@@ -11319,7 +11319,7 @@
         <v>1372</v>
       </c>
       <c r="B1372">
-        <v>0.8126361681313381</v>
+        <v>0.812636168131338</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
@@ -11391,7 +11391,7 @@
         <v>1381</v>
       </c>
       <c r="B1381">
-        <v>0.4574399306945608</v>
+        <v>0.4574399306945607</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
@@ -11495,7 +11495,7 @@
         <v>1394</v>
       </c>
       <c r="B1394">
-        <v>2.979448100342835</v>
+        <v>2.979448100342834</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
@@ -11535,7 +11535,7 @@
         <v>1399</v>
       </c>
       <c r="B1399">
-        <v>1.977904202111167</v>
+        <v>1.977904202111166</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -11559,7 +11559,7 @@
         <v>1402</v>
       </c>
       <c r="B1402">
-        <v>0.995494911993698</v>
+        <v>0.9954949119936978</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
@@ -11687,7 +11687,7 @@
         <v>1418</v>
       </c>
       <c r="B1418">
-        <v>0.719366310077365</v>
+        <v>0.7193663100773648</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
@@ -11711,7 +11711,7 @@
         <v>1421</v>
       </c>
       <c r="B1421">
-        <v>0.375350732765518</v>
+        <v>0.3753507327655179</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
@@ -11839,7 +11839,7 @@
         <v>1437</v>
       </c>
       <c r="B1437">
-        <v>0.784706498146912</v>
+        <v>0.7847064981469118</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1442</v>
       </c>
       <c r="B1442">
-        <v>0.363287928814217</v>
+        <v>0.3632879288142169</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -11983,7 +11983,7 @@
         <v>1455</v>
       </c>
       <c r="B1455">
-        <v>0.8182807163359557</v>
+        <v>0.8182807163359556</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1465</v>
       </c>
       <c r="B1465">
-        <v>0.285636705623623</v>
+        <v>0.2856367056236229</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12223,7 +12223,7 @@
         <v>1485</v>
       </c>
       <c r="B1485">
-        <v>0.7306202379619606</v>
+        <v>0.7306202379619605</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
@@ -12239,7 +12239,7 @@
         <v>1487</v>
       </c>
       <c r="B1487">
-        <v>0.4428713693627054</v>
+        <v>0.4428713693627053</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
@@ -12407,7 +12407,7 @@
         <v>1508</v>
       </c>
       <c r="B1508">
-        <v>6.626072420198222</v>
+        <v>6.626072420198221</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
@@ -12551,7 +12551,7 @@
         <v>1526</v>
       </c>
       <c r="B1526">
-        <v>2.295590277309679</v>
+        <v>2.295590277309678</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
@@ -12559,7 +12559,7 @@
         <v>1527</v>
       </c>
       <c r="B1527">
-        <v>4.570706611858475</v>
+        <v>4.570706611858474</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
@@ -12591,7 +12591,7 @@
         <v>1531</v>
       </c>
       <c r="B1531">
-        <v>16.53624028542775</v>
+        <v>16.53624028542774</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
@@ -12647,7 +12647,7 @@
         <v>1538</v>
       </c>
       <c r="B1538">
-        <v>0.4510011599751711</v>
+        <v>0.451001159975171</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>4.746754384782346</v>
+        <v>4.746754384782345</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12815,7 +12815,7 @@
         <v>1559</v>
       </c>
       <c r="B1559">
-        <v>3.294470159799915</v>
+        <v>3.294470159799914</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>0.718463651278288</v>
+        <v>0.7184636512782879</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12871,7 +12871,7 @@
         <v>1566</v>
       </c>
       <c r="B1566">
-        <v>0.5879942862870303</v>
+        <v>0.5879942862870302</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
@@ -12999,7 +12999,7 @@
         <v>1582</v>
       </c>
       <c r="B1582">
-        <v>30.09370653390158</v>
+        <v>30.09370653390157</v>
       </c>
     </row>
     <row r="1583" spans="1:2">
@@ -13199,7 +13199,7 @@
         <v>1607</v>
       </c>
       <c r="B1607">
-        <v>0.5690736200310539</v>
+        <v>0.5690736200310538</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -13327,7 +13327,7 @@
         <v>1623</v>
       </c>
       <c r="B1623">
-        <v>0.2807778808736565</v>
+        <v>0.2807778808736564</v>
       </c>
     </row>
     <row r="1624" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>0.6344255309421473</v>
+        <v>0.6344255309421472</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13559,7 +13559,7 @@
         <v>1652</v>
       </c>
       <c r="B1652">
-        <v>4.889743744545216</v>
+        <v>4.889743744545215</v>
       </c>
     </row>
     <row r="1653" spans="1:2">
@@ -13815,7 +13815,7 @@
         <v>1684</v>
       </c>
       <c r="B1684">
-        <v>0.3244736004539085</v>
+        <v>0.3244736004539084</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
@@ -13831,7 +13831,7 @@
         <v>1686</v>
       </c>
       <c r="B1686">
-        <v>0.3387315064847829</v>
+        <v>0.3387315064847828</v>
       </c>
     </row>
     <row r="1687" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>3.685016625920024</v>
+        <v>3.685016625920023</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -13895,7 +13895,7 @@
         <v>1694</v>
       </c>
       <c r="B1694">
-        <v>4.070405041759693</v>
+        <v>4.070405041759692</v>
       </c>
     </row>
     <row r="1695" spans="1:2">
@@ -13927,7 +13927,7 @@
         <v>1698</v>
       </c>
       <c r="B1698">
-        <v>42.77371809262335</v>
+        <v>42.77371809262334</v>
       </c>
     </row>
     <row r="1699" spans="1:2">
@@ -13935,7 +13935,7 @@
         <v>1699</v>
       </c>
       <c r="B1699">
-        <v>21.30192705930762</v>
+        <v>21.30192705930761</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -14007,7 +14007,7 @@
         <v>1708</v>
       </c>
       <c r="B1708">
-        <v>0.407034642755196</v>
+        <v>0.4070346427551959</v>
       </c>
     </row>
     <row r="1709" spans="1:2">
@@ -14215,7 +14215,7 @@
         <v>1734</v>
       </c>
       <c r="B1734">
-        <v>0.4249852438732034</v>
+        <v>0.4249852438732033</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14303,7 +14303,7 @@
         <v>1745</v>
       </c>
       <c r="B1745">
-        <v>25.02996651370313</v>
+        <v>25.02996651370312</v>
       </c>
     </row>
     <row r="1746" spans="1:2">
@@ -14327,7 +14327,7 @@
         <v>1748</v>
       </c>
       <c r="B1748">
-        <v>9.601798518350058</v>
+        <v>9.601798518350057</v>
       </c>
     </row>
     <row r="1749" spans="1:2">
@@ -14335,7 +14335,7 @@
         <v>1749</v>
       </c>
       <c r="B1749">
-        <v>5.127248514276371</v>
+        <v>5.12724851427637</v>
       </c>
     </row>
     <row r="1750" spans="1:2">
@@ -14367,7 +14367,7 @@
         <v>1753</v>
       </c>
       <c r="B1753">
-        <v>0.423282501138581</v>
+        <v>0.4232825011385809</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -14567,7 +14567,7 @@
         <v>1778</v>
       </c>
       <c r="B1778">
-        <v>0.4166444421129016</v>
+        <v>0.4166444421129015</v>
       </c>
     </row>
     <row r="1779" spans="1:2">
@@ -14663,7 +14663,7 @@
         <v>1790</v>
       </c>
       <c r="B1790">
-        <v>0.7552176902368073</v>
+        <v>0.7552176902368072</v>
       </c>
     </row>
     <row r="1791" spans="1:2">
@@ -14743,7 +14743,7 @@
         <v>1800</v>
       </c>
       <c r="B1800">
-        <v>0.5304820256601279</v>
+        <v>0.5304820256601278</v>
       </c>
     </row>
     <row r="1801" spans="1:2">
@@ -14799,7 +14799,7 @@
         <v>1807</v>
       </c>
       <c r="B1807">
-        <v>0.2860344030230864</v>
+        <v>0.2860344030230863</v>
       </c>
     </row>
     <row r="1808" spans="1:2">
@@ -14999,7 +14999,7 @@
         <v>1832</v>
       </c>
       <c r="B1832">
-        <v>0.485058945378006</v>
+        <v>0.4850589453780059</v>
       </c>
     </row>
     <row r="1833" spans="1:2">
@@ -15023,7 +15023,7 @@
         <v>1835</v>
       </c>
       <c r="B1835">
-        <v>8.603071032799926</v>
+        <v>8.603071032799924</v>
       </c>
     </row>
     <row r="1836" spans="1:2">
@@ -15127,7 +15127,7 @@
         <v>1848</v>
       </c>
       <c r="B1848">
-        <v>0.8742953839552985</v>
+        <v>0.8742953839552984</v>
       </c>
     </row>
     <row r="1849" spans="1:2">
@@ -15159,7 +15159,7 @@
         <v>1852</v>
       </c>
       <c r="B1852">
-        <v>0.4108387048370203</v>
+        <v>0.4108387048370202</v>
       </c>
     </row>
     <row r="1853" spans="1:2">
@@ -15199,7 +15199,7 @@
         <v>1857</v>
       </c>
       <c r="B1857">
-        <v>4.507960102481081</v>
+        <v>4.50796010248108</v>
       </c>
     </row>
     <row r="1858" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>8.522857489518316</v>
+        <v>8.522857489518314</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>23.09420299624108</v>
+        <v>23.09420299624107</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15343,7 +15343,7 @@
         <v>1875</v>
       </c>
       <c r="B1875">
-        <v>0.8007521375136206</v>
+        <v>0.8007521375136205</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -15351,7 +15351,7 @@
         <v>1876</v>
       </c>
       <c r="B1876">
-        <v>0.7431431634439599</v>
+        <v>0.7431431634439598</v>
       </c>
     </row>
     <row r="1877" spans="1:2">
@@ -15359,7 +15359,7 @@
         <v>1877</v>
       </c>
       <c r="B1877">
-        <v>0.7837540172712626</v>
+        <v>0.7837540172712625</v>
       </c>
     </row>
     <row r="1878" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>4.001269583739481</v>
+        <v>4.00126958373948</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15527,7 +15527,7 @@
         <v>1898</v>
       </c>
       <c r="B1898">
-        <v>0.5120742337218088</v>
+        <v>0.5120742337218087</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15535,7 +15535,7 @@
         <v>1899</v>
       </c>
       <c r="B1899">
-        <v>0.4944079115113029</v>
+        <v>0.4944079115113028</v>
       </c>
     </row>
     <row r="1900" spans="1:2">
@@ -15615,7 +15615,7 @@
         <v>1909</v>
       </c>
       <c r="B1909">
-        <v>2.034167980113372</v>
+        <v>2.034167980113371</v>
       </c>
     </row>
     <row r="1910" spans="1:2">
@@ -15679,7 +15679,7 @@
         <v>1917</v>
       </c>
       <c r="B1917">
-        <v>8.498122293855298</v>
+        <v>8.498122293855296</v>
       </c>
     </row>
     <row r="1918" spans="1:2">
@@ -15743,7 +15743,7 @@
         <v>1925</v>
       </c>
       <c r="B1925">
-        <v>0.3804267231551325</v>
+        <v>0.3804267231551324</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -15799,7 +15799,7 @@
         <v>1932</v>
       </c>
       <c r="B1932">
-        <v>5.539511544361284</v>
+        <v>5.539511544361283</v>
       </c>
     </row>
     <row r="1933" spans="1:2">
@@ -15855,7 +15855,7 @@
         <v>1939</v>
       </c>
       <c r="B1939">
-        <v>40.40716945543299</v>
+        <v>40.40716945543298</v>
       </c>
     </row>
     <row r="1940" spans="1:2">
@@ -16287,7 +16287,7 @@
         <v>1993</v>
       </c>
       <c r="B1993">
-        <v>0.3916659974877951</v>
+        <v>0.391665997487795</v>
       </c>
     </row>
     <row r="1994" spans="1:2">
@@ -16671,7 +16671,7 @@
         <v>2041</v>
       </c>
       <c r="B2041">
-        <v>0.4878313974037423</v>
+        <v>0.4878313974037422</v>
       </c>
     </row>
     <row r="2042" spans="1:2">
@@ -16679,7 +16679,7 @@
         <v>2042</v>
       </c>
       <c r="B2042">
-        <v>0.4044614790357494</v>
+        <v>0.4044614790357493</v>
       </c>
     </row>
     <row r="2043" spans="1:2">
@@ -16823,7 +16823,7 @@
         <v>2060</v>
       </c>
       <c r="B2060">
-        <v>0.7710640412972263</v>
+        <v>0.7710640412972262</v>
       </c>
     </row>
     <row r="2061" spans="1:2">
@@ -16831,7 +16831,7 @@
         <v>2061</v>
       </c>
       <c r="B2061">
-        <v>0.8779763562008851</v>
+        <v>0.877976356200885</v>
       </c>
     </row>
     <row r="2062" spans="1:2">
@@ -16839,7 +16839,7 @@
         <v>2062</v>
       </c>
       <c r="B2062">
-        <v>0.8053093921648045</v>
+        <v>0.8053093921648043</v>
       </c>
     </row>
     <row r="2063" spans="1:2">
@@ -16847,7 +16847,7 @@
         <v>2063</v>
       </c>
       <c r="B2063">
-        <v>0.6170962404261019</v>
+        <v>0.6170962404261018</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -16887,7 +16887,7 @@
         <v>2068</v>
       </c>
       <c r="B2068">
-        <v>0.3914784320230518</v>
+        <v>0.3914784320230517</v>
       </c>
     </row>
     <row r="2069" spans="1:2">
@@ -16903,7 +16903,7 @@
         <v>2070</v>
       </c>
       <c r="B2070">
-        <v>0.4422735044438362</v>
+        <v>0.4422735044438361</v>
       </c>
     </row>
     <row r="2071" spans="1:2">
@@ -17447,7 +17447,7 @@
         <v>2138</v>
       </c>
       <c r="B2138">
-        <v>0.9205830238014714</v>
+        <v>0.9205830238014712</v>
       </c>
     </row>
     <row r="2139" spans="1:2">
@@ -17615,7 +17615,7 @@
         <v>2159</v>
       </c>
       <c r="B2159">
-        <v>0.8819621223266794</v>
+        <v>0.8819621223266793</v>
       </c>
     </row>
     <row r="2160" spans="1:2">
@@ -17631,7 +17631,7 @@
         <v>2161</v>
       </c>
       <c r="B2161">
-        <v>0.5869743990724888</v>
+        <v>0.5869743990724887</v>
       </c>
     </row>
     <row r="2162" spans="1:2">
@@ -17703,7 +17703,7 @@
         <v>2170</v>
       </c>
       <c r="B2170">
-        <v>5.660080969666562</v>
+        <v>5.660080969666561</v>
       </c>
     </row>
     <row r="2171" spans="1:2">
@@ -17711,7 +17711,7 @@
         <v>2171</v>
       </c>
       <c r="B2171">
-        <v>5.164468536186361</v>
+        <v>5.16446853618636</v>
       </c>
     </row>
     <row r="2172" spans="1:2">
@@ -17759,7 +17759,7 @@
         <v>2177</v>
       </c>
       <c r="B2177">
-        <v>42.63626777549118</v>
+        <v>42.63626777549117</v>
       </c>
     </row>
     <row r="2178" spans="1:2">
@@ -17791,7 +17791,7 @@
         <v>2181</v>
       </c>
       <c r="B2181">
-        <v>12.08560487810883</v>
+        <v>12.08560487810882</v>
       </c>
     </row>
     <row r="2182" spans="1:2">
@@ -17839,7 +17839,7 @@
         <v>2187</v>
       </c>
       <c r="B2187">
-        <v>0.5872557472696037</v>
+        <v>0.5872557472696036</v>
       </c>
     </row>
     <row r="2188" spans="1:2">
@@ -17871,7 +17871,7 @@
         <v>2191</v>
       </c>
       <c r="B2191">
-        <v>0.511511537327579</v>
+        <v>0.5115115373275789</v>
       </c>
     </row>
     <row r="2192" spans="1:2">
@@ -17951,7 +17951,7 @@
         <v>2201</v>
       </c>
       <c r="B2201">
-        <v>56.74265607937771</v>
+        <v>56.7426560793777</v>
       </c>
     </row>
     <row r="2202" spans="1:2">
@@ -18135,7 +18135,7 @@
         <v>2224</v>
       </c>
       <c r="B2224">
-        <v>52.64874674031738</v>
+        <v>52.64874674031737</v>
       </c>
     </row>
     <row r="2225" spans="1:2">
@@ -18207,7 +18207,7 @@
         <v>2233</v>
       </c>
       <c r="B2233">
-        <v>8.581383775938987</v>
+        <v>8.581383775938985</v>
       </c>
     </row>
     <row r="2234" spans="1:2">
@@ -18215,7 +18215,7 @@
         <v>2234</v>
       </c>
       <c r="B2234">
-        <v>4.833415490914505</v>
+        <v>4.833415490914504</v>
       </c>
     </row>
     <row r="2235" spans="1:2">
@@ -18263,7 +18263,7 @@
         <v>2240</v>
       </c>
       <c r="B2240">
-        <v>8.474530075243059</v>
+        <v>8.474530075243058</v>
       </c>
     </row>
     <row r="2241" spans="1:2">
@@ -18567,7 +18567,7 @@
         <v>2278</v>
       </c>
       <c r="B2278">
-        <v>18.45488845423198</v>
+        <v>18.45488845423197</v>
       </c>
     </row>
     <row r="2279" spans="1:2">
@@ -18583,7 +18583,7 @@
         <v>2280</v>
       </c>
       <c r="B2280">
-        <v>6.382442465759046</v>
+        <v>6.382442465759045</v>
       </c>
     </row>
     <row r="2281" spans="1:2">
@@ -18751,7 +18751,7 @@
         <v>2301</v>
       </c>
       <c r="B2301">
-        <v>32.83040389292123</v>
+        <v>32.83040389292122</v>
       </c>
     </row>
     <row r="2302" spans="1:2">
@@ -18823,7 +18823,7 @@
         <v>2310</v>
       </c>
       <c r="B2310">
-        <v>5.190170866276961</v>
+        <v>5.19017086627696</v>
       </c>
     </row>
     <row r="2311" spans="1:2">
@@ -18847,7 +18847,7 @@
         <v>2313</v>
       </c>
       <c r="B2313">
-        <v>18.9145703783723</v>
+        <v>18.91457037837229</v>
       </c>
     </row>
     <row r="2314" spans="1:2">
@@ -18903,7 +18903,7 @@
         <v>2320</v>
       </c>
       <c r="B2320">
-        <v>64.62157788274932</v>
+        <v>64.62157788274931</v>
       </c>
     </row>
     <row r="2321" spans="1:2">
@@ -18927,7 +18927,7 @@
         <v>2323</v>
       </c>
       <c r="B2323">
-        <v>73.93859927283215</v>
+        <v>73.93859927283214</v>
       </c>
     </row>
     <row r="2324" spans="1:2">
@@ -18983,7 +18983,7 @@
         <v>2330</v>
       </c>
       <c r="B2330">
-        <v>2.603399858505303</v>
+        <v>2.603399858505302</v>
       </c>
     </row>
     <row r="2331" spans="1:2">
@@ -19015,7 +19015,7 @@
         <v>2334</v>
       </c>
       <c r="B2334">
-        <v>0.9898093338436678</v>
+        <v>0.9898093338436676</v>
       </c>
     </row>
     <row r="2335" spans="1:2">
@@ -19223,7 +19223,7 @@
         <v>2360</v>
       </c>
       <c r="B2360">
-        <v>0.8731025848279469</v>
+        <v>0.8731025848279468</v>
       </c>
     </row>
     <row r="2361" spans="1:2">
@@ -19271,7 +19271,7 @@
         <v>2366</v>
       </c>
       <c r="B2366">
-        <v>2.398487518983677</v>
+        <v>2.398487518983676</v>
       </c>
     </row>
     <row r="2367" spans="1:2">
@@ -19295,7 +19295,7 @@
         <v>2369</v>
       </c>
       <c r="B2369">
-        <v>15.16789160591793</v>
+        <v>15.16789160591792</v>
       </c>
     </row>
     <row r="2370" spans="1:2">
@@ -19343,7 +19343,7 @@
         <v>2375</v>
       </c>
       <c r="B2375">
-        <v>0.91644779144596</v>
+        <v>0.9164477914459598</v>
       </c>
     </row>
     <row r="2376" spans="1:2">
@@ -19375,7 +19375,7 @@
         <v>2379</v>
       </c>
       <c r="B2379">
-        <v>0.3553867336119072</v>
+        <v>0.3553867336119071</v>
       </c>
     </row>
     <row r="2380" spans="1:2">
@@ -19503,7 +19503,7 @@
         <v>2395</v>
       </c>
       <c r="B2395">
-        <v>30.58284209742737</v>
+        <v>30.58284209742736</v>
       </c>
     </row>
     <row r="2396" spans="1:2">
@@ -19567,7 +19567,7 @@
         <v>2403</v>
       </c>
       <c r="B2403">
-        <v>0.457598189055438</v>
+        <v>0.4575981890554379</v>
       </c>
     </row>
     <row r="2404" spans="1:2">
@@ -19575,7 +19575,7 @@
         <v>2404</v>
       </c>
       <c r="B2404">
-        <v>0.4823158004561358</v>
+        <v>0.4823158004561357</v>
       </c>
     </row>
     <row r="2405" spans="1:2">
@@ -19599,7 +19599,7 @@
         <v>2407</v>
       </c>
       <c r="B2407">
-        <v>0.4575893969242781</v>
+        <v>0.457589396924278</v>
       </c>
     </row>
     <row r="2408" spans="1:2">
@@ -19687,7 +19687,7 @@
         <v>2418</v>
       </c>
       <c r="B2418">
-        <v>56.85753992653296</v>
+        <v>56.85753992653295</v>
       </c>
     </row>
     <row r="2419" spans="1:2">
@@ -19695,7 +19695,7 @@
         <v>2419</v>
       </c>
       <c r="B2419">
-        <v>33.10295995887628</v>
+        <v>33.10295995887627</v>
       </c>
     </row>
     <row r="2420" spans="1:2">
@@ -19743,7 +19743,7 @@
         <v>2425</v>
       </c>
       <c r="B2425">
-        <v>0.9896774518762702</v>
+        <v>0.98967745187627</v>
       </c>
     </row>
     <row r="2426" spans="1:2">
@@ -19799,7 +19799,7 @@
         <v>2432</v>
       </c>
       <c r="B2432">
-        <v>0.7364142523962954</v>
+        <v>0.7364142523962953</v>
       </c>
     </row>
     <row r="2433" spans="1:2">
@@ -19855,7 +19855,7 @@
         <v>2439</v>
       </c>
       <c r="B2439">
-        <v>21.9640624569552</v>
+        <v>21.96406245695519</v>
       </c>
     </row>
     <row r="2440" spans="1:2">
@@ -19975,7 +19975,7 @@
         <v>2454</v>
       </c>
       <c r="B2454">
-        <v>5.356605909132739</v>
+        <v>5.356605909132738</v>
       </c>
     </row>
     <row r="2455" spans="1:2">
@@ -20183,7 +20183,7 @@
         <v>2480</v>
       </c>
       <c r="B2480">
-        <v>7.052754545385275</v>
+        <v>7.052754545385274</v>
       </c>
     </row>
     <row r="2481" spans="1:2">
@@ -20279,7 +20279,7 @@
         <v>2492</v>
       </c>
       <c r="B2492">
-        <v>26.82341473479123</v>
+        <v>26.82341473479122</v>
       </c>
     </row>
     <row r="2493" spans="1:2">
@@ -20327,7 +20327,7 @@
         <v>2498</v>
       </c>
       <c r="B2498">
-        <v>0.8093215346840783</v>
+        <v>0.8093215346840782</v>
       </c>
     </row>
     <row r="2499" spans="1:2">
@@ -20375,7 +20375,7 @@
         <v>2504</v>
       </c>
       <c r="B2504">
-        <v>7.597280535218054</v>
+        <v>7.597280535218053</v>
       </c>
     </row>
     <row r="2505" spans="1:2">
@@ -20383,7 +20383,7 @@
         <v>2505</v>
       </c>
       <c r="B2505">
-        <v>15.25469924756942</v>
+        <v>15.25469924756941</v>
       </c>
     </row>
     <row r="2506" spans="1:2">
@@ -20439,7 +20439,7 @@
         <v>2512</v>
       </c>
       <c r="B2512">
-        <v>46.94470511485162</v>
+        <v>46.94470511485161</v>
       </c>
     </row>
     <row r="2513" spans="1:2">
@@ -20463,7 +20463,7 @@
         <v>2515</v>
       </c>
       <c r="B2515">
-        <v>58.45975929489453</v>
+        <v>58.45975929489452</v>
       </c>
     </row>
     <row r="2516" spans="1:2">
@@ -20551,7 +20551,7 @@
         <v>2526</v>
       </c>
       <c r="B2526">
-        <v>0.7646252705778366</v>
+        <v>0.7646252705778365</v>
       </c>
     </row>
     <row r="2527" spans="1:2">
@@ -20655,7 +20655,7 @@
         <v>2539</v>
       </c>
       <c r="B2539">
-        <v>63.76170745531693</v>
+        <v>63.76170745531692</v>
       </c>
     </row>
     <row r="2540" spans="1:2">
@@ -20855,7 +20855,7 @@
         <v>2564</v>
       </c>
       <c r="B2564">
-        <v>6.366733858086798</v>
+        <v>6.366733858086797</v>
       </c>
     </row>
     <row r="2565" spans="1:2">
@@ -20903,7 +20903,7 @@
         <v>2570</v>
       </c>
       <c r="B2570">
-        <v>0.5879239492377516</v>
+        <v>0.5879239492377515</v>
       </c>
     </row>
     <row r="2571" spans="1:2">
@@ -20927,7 +20927,7 @@
         <v>2573</v>
       </c>
       <c r="B2573">
-        <v>0.5184983508892655</v>
+        <v>0.5184983508892654</v>
       </c>
     </row>
     <row r="2574" spans="1:2">
@@ -20959,7 +20959,7 @@
         <v>2577</v>
       </c>
       <c r="B2577">
-        <v>0.3968328398993946</v>
+        <v>0.3968328398993945</v>
       </c>
     </row>
     <row r="2578" spans="1:2">
@@ -21023,7 +21023,7 @@
         <v>2585</v>
       </c>
       <c r="B2585">
-        <v>8.241948898961416</v>
+        <v>8.241948898961414</v>
       </c>
     </row>
     <row r="2586" spans="1:2">
@@ -21079,7 +21079,7 @@
         <v>2592</v>
       </c>
       <c r="B2592">
-        <v>0.8312666940590399</v>
+        <v>0.8312666940590397</v>
       </c>
     </row>
     <row r="2593" spans="1:2">
@@ -21135,7 +21135,7 @@
         <v>2599</v>
       </c>
       <c r="B2599">
-        <v>0.4865213698609261</v>
+        <v>0.486521369860926</v>
       </c>
     </row>
     <row r="2600" spans="1:2">
@@ -21271,7 +21271,7 @@
         <v>2616</v>
       </c>
       <c r="B2616">
-        <v>3.462868778614724</v>
+        <v>3.462868778614723</v>
       </c>
     </row>
     <row r="2617" spans="1:2">
@@ -21287,7 +21287,7 @@
         <v>2618</v>
       </c>
       <c r="B2618">
-        <v>0.856793181526443</v>
+        <v>0.8567931815264429</v>
       </c>
     </row>
     <row r="2619" spans="1:2">
@@ -21303,7 +21303,7 @@
         <v>2620</v>
       </c>
       <c r="B2620">
-        <v>0.6723254776618325</v>
+        <v>0.6723254776618324</v>
       </c>
     </row>
     <row r="2621" spans="1:2">
@@ -21335,7 +21335,7 @@
         <v>2624</v>
       </c>
       <c r="B2624">
-        <v>4.558954463208155</v>
+        <v>4.558954463208154</v>
       </c>
     </row>
     <row r="2625" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>7.834990454676271</v>
+        <v>7.83499045467627</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -21495,7 +21495,7 @@
         <v>2644</v>
       </c>
       <c r="B2644">
-        <v>0.7032972250275634</v>
+        <v>0.7032972250275633</v>
       </c>
     </row>
     <row r="2645" spans="1:2">
@@ -21663,7 +21663,7 @@
         <v>2665</v>
       </c>
       <c r="B2665">
-        <v>0.8773228077846703</v>
+        <v>0.8773228077846702</v>
       </c>
     </row>
     <row r="2666" spans="1:2">
@@ -21719,7 +21719,7 @@
         <v>2672</v>
       </c>
       <c r="B2672">
-        <v>0.8632641900600855</v>
+        <v>0.8632641900600854</v>
       </c>
     </row>
     <row r="2673" spans="1:2">
@@ -21903,7 +21903,7 @@
         <v>2695</v>
       </c>
       <c r="B2695">
-        <v>0.8193152571024301</v>
+        <v>0.81931525710243</v>
       </c>
     </row>
     <row r="2696" spans="1:2">
@@ -21959,7 +21959,7 @@
         <v>2702</v>
       </c>
       <c r="B2702">
-        <v>0.4212896180756839</v>
+        <v>0.4212896180756838</v>
       </c>
     </row>
     <row r="2703" spans="1:2">
@@ -21967,7 +21967,7 @@
         <v>2703</v>
       </c>
       <c r="B2703">
-        <v>0.4720143534471895</v>
+        <v>0.4720143534471894</v>
       </c>
     </row>
     <row r="2704" spans="1:2">
@@ -22047,7 +22047,7 @@
         <v>2713</v>
       </c>
       <c r="B2713">
-        <v>0.7296179350097388</v>
+        <v>0.7296179350097387</v>
       </c>
     </row>
     <row r="2714" spans="1:2">
@@ -22055,7 +22055,7 @@
         <v>2714</v>
       </c>
       <c r="B2714">
-        <v>0.6430945722657498</v>
+        <v>0.6430945722657497</v>
       </c>
     </row>
     <row r="2715" spans="1:2">
@@ -22135,7 +22135,7 @@
         <v>2724</v>
       </c>
       <c r="B2724">
-        <v>0.8411695644554067</v>
+        <v>0.8411695644554066</v>
       </c>
     </row>
     <row r="2725" spans="1:2">
@@ -22223,7 +22223,7 @@
         <v>2735</v>
       </c>
       <c r="B2735">
-        <v>4.975760094392321</v>
+        <v>4.97576009439232</v>
       </c>
     </row>
     <row r="2736" spans="1:2">
@@ -22247,7 +22247,7 @@
         <v>2738</v>
       </c>
       <c r="B2738">
-        <v>0.9925026566889656</v>
+        <v>0.9925026566889654</v>
       </c>
     </row>
     <row r="2739" spans="1:2">
@@ -22351,7 +22351,7 @@
         <v>2751</v>
       </c>
       <c r="B2751">
-        <v>19.44189309823566</v>
+        <v>19.44189309823565</v>
       </c>
     </row>
     <row r="2752" spans="1:2">
@@ -22359,7 +22359,7 @@
         <v>2752</v>
       </c>
       <c r="B2752">
-        <v>38.61123013051626</v>
+        <v>38.61123013051625</v>
       </c>
     </row>
     <row r="2753" spans="1:2">
@@ -22439,7 +22439,7 @@
         <v>2762</v>
       </c>
       <c r="B2762">
-        <v>2.260515535402689</v>
+        <v>2.260515535402688</v>
       </c>
     </row>
     <row r="2763" spans="1:2">
@@ -22575,7 +22575,7 @@
         <v>2779</v>
       </c>
       <c r="B2779">
-        <v>70.96480744353548</v>
+        <v>70.96480744353546</v>
       </c>
     </row>
     <row r="2780" spans="1:2">
@@ -22583,7 +22583,7 @@
         <v>2780</v>
       </c>
       <c r="B2780">
-        <v>47.50241930142416</v>
+        <v>47.50241930142415</v>
       </c>
     </row>
     <row r="2781" spans="1:2">
@@ -22735,7 +22735,7 @@
         <v>2799</v>
       </c>
       <c r="B2799">
-        <v>7.573483166878753</v>
+        <v>7.573483166878752</v>
       </c>
     </row>
     <row r="2800" spans="1:2">
@@ -22751,7 +22751,7 @@
         <v>2801</v>
       </c>
       <c r="B2801">
-        <v>5.957167081557568</v>
+        <v>5.957167081557567</v>
       </c>
     </row>
     <row r="2802" spans="1:2">
@@ -22759,7 +22759,7 @@
         <v>2802</v>
       </c>
       <c r="B2802">
-        <v>50.22827303201333</v>
+        <v>50.22827303201332</v>
       </c>
     </row>
     <row r="2803" spans="1:2">
@@ -22815,7 +22815,7 @@
         <v>2809</v>
       </c>
       <c r="B2809">
-        <v>4.254395039831286</v>
+        <v>4.254395039831285</v>
       </c>
     </row>
     <row r="2810" spans="1:2">
@@ -22903,7 +22903,7 @@
         <v>2820</v>
       </c>
       <c r="B2820">
-        <v>2.034285208528837</v>
+        <v>2.034285208528836</v>
       </c>
     </row>
     <row r="2821" spans="1:2">
@@ -22991,7 +22991,7 @@
         <v>2831</v>
       </c>
       <c r="B2831">
-        <v>4.666159849150476</v>
+        <v>4.666159849150475</v>
       </c>
     </row>
     <row r="2832" spans="1:2">
@@ -23039,7 +23039,7 @@
         <v>2837</v>
       </c>
       <c r="B2837">
-        <v>0.7637958795384249</v>
+        <v>0.7637958795384248</v>
       </c>
     </row>
     <row r="2838" spans="1:2">
@@ -23071,7 +23071,7 @@
         <v>2841</v>
       </c>
       <c r="B2841">
-        <v>3.898313727857751</v>
+        <v>3.89831372785775</v>
       </c>
     </row>
     <row r="2842" spans="1:2">
@@ -23207,7 +23207,7 @@
         <v>2858</v>
       </c>
       <c r="B2858">
-        <v>3.473184879175604</v>
+        <v>3.473184879175603</v>
       </c>
     </row>
     <row r="2859" spans="1:2">
@@ -23311,7 +23311,7 @@
         <v>2871</v>
       </c>
       <c r="B2871">
-        <v>59.43304821428886</v>
+        <v>59.43304821428885</v>
       </c>
     </row>
     <row r="2872" spans="1:2">
@@ -23391,7 +23391,7 @@
         <v>2881</v>
       </c>
       <c r="B2881">
-        <v>12.0524878507401</v>
+        <v>12.05248785074009</v>
       </c>
     </row>
     <row r="2882" spans="1:2">
@@ -23471,7 +23471,7 @@
         <v>2891</v>
       </c>
       <c r="B2891">
-        <v>21.65076951662622</v>
+        <v>21.65076951662621</v>
       </c>
     </row>
     <row r="2892" spans="1:2">
@@ -23607,7 +23607,7 @@
         <v>2908</v>
       </c>
       <c r="B2908">
-        <v>11.84238522312378</v>
+        <v>11.84238522312377</v>
       </c>
     </row>
     <row r="2909" spans="1:2">
@@ -23639,7 +23639,7 @@
         <v>2912</v>
       </c>
       <c r="B2912">
-        <v>2.825623904280655</v>
+        <v>2.825623904280654</v>
       </c>
     </row>
     <row r="2913" spans="1:2">
@@ -23655,7 +23655,7 @@
         <v>2914</v>
       </c>
       <c r="B2914">
-        <v>5.04741596334502</v>
+        <v>5.047415963345019</v>
       </c>
     </row>
     <row r="2915" spans="1:2">
@@ -23679,7 +23679,7 @@
         <v>2917</v>
       </c>
       <c r="B2917">
-        <v>47.62697449285523</v>
+        <v>47.62697449285522</v>
       </c>
     </row>
     <row r="2918" spans="1:2">
@@ -23695,7 +23695,7 @@
         <v>2919</v>
       </c>
       <c r="B2919">
-        <v>38.86092665545573</v>
+        <v>38.86092665545572</v>
       </c>
     </row>
     <row r="2920" spans="1:2">
@@ -23727,7 +23727,7 @@
         <v>2923</v>
       </c>
       <c r="B2923">
-        <v>85.36661135439265</v>
+        <v>85.36661135439263</v>
       </c>
     </row>
     <row r="2924" spans="1:2">
@@ -23735,7 +23735,7 @@
         <v>2924</v>
       </c>
       <c r="B2924">
-        <v>69.51293351800717</v>
+        <v>69.51293351800716</v>
       </c>
     </row>
     <row r="2925" spans="1:2">
@@ -23759,7 +23759,7 @@
         <v>2927</v>
       </c>
       <c r="B2927">
-        <v>44.61596264164857</v>
+        <v>44.61596264164856</v>
       </c>
     </row>
     <row r="2928" spans="1:2">
@@ -23807,7 +23807,7 @@
         <v>2933</v>
       </c>
       <c r="B2933">
-        <v>7.50754218317995</v>
+        <v>7.507542183179949</v>
       </c>
     </row>
     <row r="2934" spans="1:2">
@@ -23815,7 +23815,7 @@
         <v>2934</v>
       </c>
       <c r="B2934">
-        <v>6.64860958307128</v>
+        <v>6.648609583071279</v>
       </c>
     </row>
     <row r="2935" spans="1:2">
@@ -23879,7 +23879,7 @@
         <v>2942</v>
       </c>
       <c r="B2942">
-        <v>33.24568555470435</v>
+        <v>33.24568555470434</v>
       </c>
     </row>
     <row r="2943" spans="1:2">
@@ -23895,7 +23895,7 @@
         <v>2944</v>
       </c>
       <c r="B2944">
-        <v>52.95441983364116</v>
+        <v>52.95441983364115</v>
       </c>
     </row>
     <row r="2945" spans="1:2">
@@ -24055,7 +24055,7 @@
         <v>2964</v>
       </c>
       <c r="B2964">
-        <v>15.84661482435374</v>
+        <v>15.84661482435373</v>
       </c>
     </row>
     <row r="2965" spans="1:2">
@@ -24103,7 +24103,7 @@
         <v>2970</v>
       </c>
       <c r="B2970">
-        <v>44.40465842277374</v>
+        <v>44.40465842277373</v>
       </c>
     </row>
     <row r="2971" spans="1:2">
@@ -24263,7 +24263,7 @@
         <v>2990</v>
       </c>
       <c r="B2990">
-        <v>38.52975638176841</v>
+        <v>38.5297563817684</v>
       </c>
     </row>
     <row r="2991" spans="1:2">
@@ -24343,7 +24343,7 @@
         <v>3000</v>
       </c>
       <c r="B3000">
-        <v>16.86248696566556</v>
+        <v>16.86248696566555</v>
       </c>
     </row>
     <row r="3001" spans="1:2">
@@ -24399,7 +24399,7 @@
         <v>3007</v>
       </c>
       <c r="B3007">
-        <v>4.042328836255936</v>
+        <v>4.042328836255935</v>
       </c>
     </row>
     <row r="3008" spans="1:2">
@@ -24447,7 +24447,7 @@
         <v>3013</v>
       </c>
       <c r="B3013">
-        <v>37.78066680695001</v>
+        <v>37.78066680695</v>
       </c>
     </row>
     <row r="3014" spans="1:2">
@@ -24519,7 +24519,7 @@
         <v>3022</v>
       </c>
       <c r="B3022">
-        <v>35.40884289106374</v>
+        <v>35.40884289106373</v>
       </c>
     </row>
     <row r="3023" spans="1:2">
@@ -24607,7 +24607,7 @@
         <v>3033</v>
       </c>
       <c r="B3033">
-        <v>36.12217779916546</v>
+        <v>36.12217779916545</v>
       </c>
     </row>
     <row r="3034" spans="1:2">
@@ -24703,7 +24703,7 @@
         <v>3045</v>
       </c>
       <c r="B3045">
-        <v>61.29317009667242</v>
+        <v>61.29317009667241</v>
       </c>
     </row>
     <row r="3046" spans="1:2">
@@ -25063,7 +25063,7 @@
         <v>3090</v>
       </c>
       <c r="B3090">
-        <v>52.12121887072696</v>
+        <v>52.12121887072695</v>
       </c>
     </row>
     <row r="3091" spans="1:2">
@@ -25079,7 +25079,7 @@
         <v>3092</v>
       </c>
       <c r="B3092">
-        <v>42.41705063857249</v>
+        <v>42.41705063857248</v>
       </c>
     </row>
     <row r="3093" spans="1:2">
@@ -25087,7 +25087,7 @@
         <v>3093</v>
       </c>
       <c r="B3093">
-        <v>41.65037680143441</v>
+        <v>41.6503768014344</v>
       </c>
     </row>
     <row r="3094" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>56.19256173981037</v>
+        <v>56.19256173981036</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25239,7 +25239,7 @@
         <v>3112</v>
       </c>
       <c r="B3112">
-        <v>66.49928402745256</v>
+        <v>66.49928402745255</v>
       </c>
     </row>
     <row r="3113" spans="1:2">
@@ -25247,7 +25247,7 @@
         <v>3113</v>
       </c>
       <c r="B3113">
-        <v>55.89450849349178</v>
+        <v>55.89450849349177</v>
       </c>
     </row>
     <row r="3114" spans="1:2">
@@ -25287,7 +25287,7 @@
         <v>3118</v>
       </c>
       <c r="B3118">
-        <v>43.67842838897092</v>
+        <v>43.67842838897091</v>
       </c>
     </row>
     <row r="3119" spans="1:2">
@@ -25335,7 +25335,7 @@
         <v>3124</v>
       </c>
       <c r="B3124">
-        <v>4.653733637111235</v>
+        <v>4.653733637111234</v>
       </c>
     </row>
     <row r="3125" spans="1:2">
@@ -25383,7 +25383,7 @@
         <v>3130</v>
       </c>
       <c r="B3130">
-        <v>30.84895060053187</v>
+        <v>30.84895060053186</v>
       </c>
     </row>
     <row r="3131" spans="1:2">
@@ -25495,7 +25495,7 @@
         <v>3144</v>
       </c>
       <c r="B3144">
-        <v>24.53236119716003</v>
+        <v>24.53236119716002</v>
       </c>
     </row>
     <row r="3145" spans="1:2">
@@ -25591,7 +25591,7 @@
         <v>3156</v>
       </c>
       <c r="B3156">
-        <v>48.36580658132048</v>
+        <v>48.36580658132047</v>
       </c>
     </row>
     <row r="3157" spans="1:2">
@@ -25599,7 +25599,7 @@
         <v>3157</v>
       </c>
       <c r="B3157">
-        <v>57.01521214533276</v>
+        <v>57.01521214533275</v>
       </c>
     </row>
     <row r="3158" spans="1:2">
@@ -25655,7 +25655,7 @@
         <v>3164</v>
       </c>
       <c r="B3164">
-        <v>93.0503478460158</v>
+        <v>93.05034784601578</v>
       </c>
     </row>
     <row r="3165" spans="1:2">
@@ -25663,7 +25663,7 @@
         <v>3165</v>
       </c>
       <c r="B3165">
-        <v>79.54270367411439</v>
+        <v>79.54270367411438</v>
       </c>
     </row>
     <row r="3166" spans="1:2">
@@ -25679,7 +25679,7 @@
         <v>3167</v>
       </c>
       <c r="B3167">
-        <v>55.03581035021404</v>
+        <v>55.03581035021403</v>
       </c>
     </row>
     <row r="3168" spans="1:2">
@@ -25711,7 +25711,7 @@
         <v>3171</v>
       </c>
       <c r="B3171">
-        <v>38.32577893886011</v>
+        <v>38.3257789388601</v>
       </c>
     </row>
     <row r="3172" spans="1:2">
@@ -25751,7 +25751,7 @@
         <v>3176</v>
       </c>
       <c r="B3176">
-        <v>7.381550943659438</v>
+        <v>7.381550943659437</v>
       </c>
     </row>
     <row r="3177" spans="1:2">
@@ -25839,7 +25839,7 @@
         <v>3187</v>
       </c>
       <c r="B3187">
-        <v>79.75459403506655</v>
+        <v>79.75459403506653</v>
       </c>
     </row>
     <row r="3188" spans="1:2">
@@ -25991,7 +25991,7 @@
         <v>3206</v>
       </c>
       <c r="B3206">
-        <v>7.577586161420012</v>
+        <v>7.577586161420011</v>
       </c>
     </row>
     <row r="3207" spans="1:2">
@@ -26047,7 +26047,7 @@
         <v>3213</v>
       </c>
       <c r="B3213">
-        <v>32.92477276737018</v>
+        <v>32.92477276737017</v>
       </c>
     </row>
     <row r="3214" spans="1:2">
@@ -26079,7 +26079,7 @@
         <v>3217</v>
       </c>
       <c r="B3217">
-        <v>7.305792080165481</v>
+        <v>7.30579208016548</v>
       </c>
     </row>
     <row r="3218" spans="1:2">
@@ -26191,7 +26191,7 @@
         <v>3231</v>
       </c>
       <c r="B3231">
-        <v>51.311170519867</v>
+        <v>51.31117051986699</v>
       </c>
     </row>
     <row r="3232" spans="1:2">
@@ -26247,7 +26247,7 @@
         <v>3238</v>
       </c>
       <c r="B3238">
-        <v>34.85083563345254</v>
+        <v>34.85083563345253</v>
       </c>
     </row>
     <row r="3239" spans="1:2">
@@ -26287,7 +26287,7 @@
         <v>3243</v>
       </c>
       <c r="B3243">
-        <v>5.04741596334502</v>
+        <v>5.047415963345019</v>
       </c>
     </row>
     <row r="3244" spans="1:2">
@@ -26295,7 +26295,7 @@
         <v>3244</v>
       </c>
       <c r="B3244">
-        <v>4.512385475164868</v>
+        <v>4.512385475164867</v>
       </c>
     </row>
     <row r="3245" spans="1:2">
@@ -26391,7 +26391,7 @@
         <v>3256</v>
       </c>
       <c r="B3256">
-        <v>92.34287435868733</v>
+        <v>92.3428743586873</v>
       </c>
     </row>
     <row r="3257" spans="1:2">
@@ -26463,7 +26463,7 @@
         <v>3265</v>
       </c>
       <c r="B3265">
-        <v>37.33988796480335</v>
+        <v>37.33988796480334</v>
       </c>
     </row>
     <row r="3266" spans="1:2">
@@ -26503,7 +26503,7 @@
         <v>3270</v>
       </c>
       <c r="B3270">
-        <v>27.97108092218906</v>
+        <v>27.97108092218905</v>
       </c>
     </row>
     <row r="3271" spans="1:2">
@@ -26575,7 +26575,7 @@
         <v>3279</v>
       </c>
       <c r="B3279">
-        <v>65.54357937037791</v>
+        <v>65.5435793703779</v>
       </c>
     </row>
     <row r="3280" spans="1:2">
@@ -26655,7 +26655,7 @@
         <v>3289</v>
       </c>
       <c r="B3289">
-        <v>32.15780585919344</v>
+        <v>32.15780585919343</v>
       </c>
     </row>
     <row r="3290" spans="1:2">
@@ -26751,7 +26751,7 @@
         <v>3301</v>
       </c>
       <c r="B3301">
-        <v>1.772549325321162</v>
+        <v>1.772549325321161</v>
       </c>
     </row>
     <row r="3302" spans="1:2">
@@ -26759,7 +26759,7 @@
         <v>3302</v>
       </c>
       <c r="B3302">
-        <v>1.928826525976938</v>
+        <v>1.928826525976937</v>
       </c>
     </row>
     <row r="3303" spans="1:2">
@@ -26879,7 +26879,7 @@
         <v>3317</v>
       </c>
       <c r="B3317">
-        <v>0.8259943460735222</v>
+        <v>0.8259943460735221</v>
       </c>
     </row>
     <row r="3318" spans="1:2">
@@ -26951,7 +26951,7 @@
         <v>3326</v>
       </c>
       <c r="B3326">
-        <v>21.72239607847505</v>
+        <v>21.72239607847504</v>
       </c>
     </row>
     <row r="3327" spans="1:2">
@@ -26959,7 +26959,7 @@
         <v>3327</v>
       </c>
       <c r="B3327">
-        <v>33.49039987198658</v>
+        <v>33.49039987198657</v>
       </c>
     </row>
     <row r="3328" spans="1:2">
@@ -27175,7 +27175,7 @@
         <v>3354</v>
       </c>
       <c r="B3354">
-        <v>65.72176656188401</v>
+        <v>65.721766561884</v>
       </c>
     </row>
     <row r="3355" spans="1:2">
@@ -27255,7 +27255,7 @@
         <v>3364</v>
       </c>
       <c r="B3364">
-        <v>0.7886014122507212</v>
+        <v>0.7886014122507211</v>
       </c>
     </row>
     <row r="3365" spans="1:2">
@@ -27439,7 +27439,7 @@
         <v>3387</v>
       </c>
       <c r="B3387">
-        <v>0.8537423120139784</v>
+        <v>0.8537423120139783</v>
       </c>
     </row>
     <row r="3388" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>0.8286642232357271</v>
+        <v>0.828664223235727</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -27711,7 +27711,7 @@
         <v>3421</v>
       </c>
       <c r="B3421">
-        <v>30.88353298309391</v>
+        <v>30.8835329830939</v>
       </c>
     </row>
     <row r="3422" spans="1:2">
@@ -27791,7 +27791,7 @@
         <v>3431</v>
       </c>
       <c r="B3431">
-        <v>30.36479724466333</v>
+        <v>30.36479724466332</v>
       </c>
     </row>
     <row r="3432" spans="1:2">
@@ -27823,7 +27823,7 @@
         <v>3435</v>
       </c>
       <c r="B3435">
-        <v>8.57710493877453</v>
+        <v>8.577104938774529</v>
       </c>
     </row>
     <row r="3436" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>7.052490781450479</v>
+        <v>7.052490781450478</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -27871,7 +27871,7 @@
         <v>3441</v>
       </c>
       <c r="B3441">
-        <v>40.03760687568103</v>
+        <v>40.03760687568102</v>
       </c>
     </row>
     <row r="3442" spans="1:2">
@@ -27887,7 +27887,7 @@
         <v>3443</v>
       </c>
       <c r="B3443">
-        <v>45.40549601980223</v>
+        <v>45.40549601980222</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -27935,7 +27935,7 @@
         <v>3449</v>
       </c>
       <c r="B3449">
-        <v>88.87232711885966</v>
+        <v>88.87232711885964</v>
       </c>
     </row>
     <row r="3450" spans="1:2">
@@ -27991,7 +27991,7 @@
         <v>3456</v>
       </c>
       <c r="B3456">
-        <v>53.57631657768054</v>
+        <v>53.57631657768053</v>
       </c>
     </row>
     <row r="3457" spans="1:2">
@@ -28111,7 +28111,7 @@
         <v>3471</v>
       </c>
       <c r="B3471">
-        <v>69.98653631648391</v>
+        <v>69.98653631648389</v>
       </c>
     </row>
     <row r="3472" spans="1:2">
@@ -28119,7 +28119,7 @@
         <v>3472</v>
       </c>
       <c r="B3472">
-        <v>87.35421913859389</v>
+        <v>87.35421913859388</v>
       </c>
     </row>
     <row r="3473" spans="1:2">
@@ -28135,7 +28135,7 @@
         <v>3474</v>
       </c>
       <c r="B3474">
-        <v>147.7614354853931</v>
+        <v>147.761435485393</v>
       </c>
     </row>
     <row r="3475" spans="1:2">
@@ -28167,7 +28167,7 @@
         <v>3478</v>
       </c>
       <c r="B3478">
-        <v>59.87910233513143</v>
+        <v>59.87910233513142</v>
       </c>
     </row>
     <row r="3479" spans="1:2">
@@ -28255,7 +28255,7 @@
         <v>3489</v>
       </c>
       <c r="B3489">
-        <v>5.903505774378675</v>
+        <v>5.903505774378674</v>
       </c>
     </row>
     <row r="3490" spans="1:2">
@@ -28343,7 +28343,7 @@
         <v>3500</v>
       </c>
       <c r="B3500">
-        <v>85.95070193444471</v>
+        <v>85.95070193444469</v>
       </c>
     </row>
     <row r="3501" spans="1:2">
@@ -28423,7 +28423,7 @@
         <v>3510</v>
       </c>
       <c r="B3510">
-        <v>27.65515034251213</v>
+        <v>27.65515034251212</v>
       </c>
     </row>
     <row r="3511" spans="1:2">
@@ -28535,7 +28535,7 @@
         <v>3524</v>
       </c>
       <c r="B3524">
-        <v>85.5837769940407</v>
+        <v>85.58377699404069</v>
       </c>
     </row>
     <row r="3525" spans="1:2">
@@ -28543,7 +28543,7 @@
         <v>3525</v>
       </c>
       <c r="B3525">
-        <v>76.62635376839535</v>
+        <v>76.62635376839533</v>
       </c>
     </row>
     <row r="3526" spans="1:2">
@@ -28551,7 +28551,7 @@
         <v>3526</v>
       </c>
       <c r="B3526">
-        <v>66.09396678098392</v>
+        <v>66.09396678098391</v>
       </c>
     </row>
     <row r="3527" spans="1:2">
@@ -28639,7 +28639,7 @@
         <v>3537</v>
       </c>
       <c r="B3537">
-        <v>37.48232048959276</v>
+        <v>37.48232048959275</v>
       </c>
     </row>
     <row r="3538" spans="1:2">
@@ -28663,7 +28663,7 @@
         <v>3540</v>
       </c>
       <c r="B3540">
-        <v>68.74860424917838</v>
+        <v>68.74860424917837</v>
       </c>
     </row>
     <row r="3541" spans="1:2">
@@ -28767,7 +28767,7 @@
         <v>3553</v>
       </c>
       <c r="B3553">
-        <v>37.51045530930425</v>
+        <v>37.51045530930424</v>
       </c>
     </row>
     <row r="3554" spans="1:2">
@@ -28783,7 +28783,7 @@
         <v>3555</v>
       </c>
       <c r="B3555">
-        <v>27.21299406648376</v>
+        <v>27.21299406648375</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -28911,7 +28911,7 @@
         <v>3571</v>
       </c>
       <c r="B3571">
-        <v>145.7955149580528</v>
+        <v>145.7955149580527</v>
       </c>
     </row>
     <row r="3572" spans="1:2">
@@ -28951,7 +28951,7 @@
         <v>3576</v>
       </c>
       <c r="B3576">
-        <v>47.82831429641557</v>
+        <v>47.82831429641556</v>
       </c>
     </row>
     <row r="3577" spans="1:2">
@@ -29063,7 +29063,7 @@
         <v>3590</v>
       </c>
       <c r="B3590">
-        <v>80.20563036356636</v>
+        <v>80.20563036356634</v>
       </c>
     </row>
     <row r="3591" spans="1:2">
@@ -29071,7 +29071,7 @@
         <v>3591</v>
       </c>
       <c r="B3591">
-        <v>93.85365556298656</v>
+        <v>93.85365556298652</v>
       </c>
     </row>
     <row r="3592" spans="1:2">
@@ -29215,7 +29215,7 @@
         <v>3609</v>
       </c>
       <c r="B3609">
-        <v>68.27705294797228</v>
+        <v>68.27705294797227</v>
       </c>
     </row>
     <row r="3610" spans="1:2">
@@ -29343,7 +29343,7 @@
         <v>3625</v>
       </c>
       <c r="B3625">
-        <v>56.64828720492876</v>
+        <v>56.64828720492875</v>
       </c>
     </row>
     <row r="3626" spans="1:2">
@@ -29407,7 +29407,7 @@
         <v>3633</v>
       </c>
       <c r="B3633">
-        <v>60.59741945089039</v>
+        <v>60.59741945089038</v>
       </c>
     </row>
     <row r="3634" spans="1:2">
@@ -29599,7 +29599,7 @@
         <v>3657</v>
       </c>
       <c r="B3657">
-        <v>7.083966611002708</v>
+        <v>7.083966611002707</v>
       </c>
     </row>
     <row r="3658" spans="1:2">
@@ -29631,7 +29631,7 @@
         <v>3661</v>
       </c>
       <c r="B3661">
-        <v>36.99582256541493</v>
+        <v>36.99582256541492</v>
       </c>
     </row>
     <row r="3662" spans="1:2">
@@ -29639,7 +29639,7 @@
         <v>3662</v>
       </c>
       <c r="B3662">
-        <v>48.89069681156295</v>
+        <v>48.89069681156294</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -29663,7 +29663,7 @@
         <v>3665</v>
       </c>
       <c r="B3665">
-        <v>53.12234953879411</v>
+        <v>53.1223495387941</v>
       </c>
     </row>
     <row r="3666" spans="1:2">
@@ -29703,7 +29703,7 @@
         <v>3670</v>
       </c>
       <c r="B3670">
-        <v>37.61508167010635</v>
+        <v>37.61508167010634</v>
       </c>
     </row>
     <row r="3671" spans="1:2">
@@ -29759,7 +29759,7 @@
         <v>3677</v>
       </c>
       <c r="B3677">
-        <v>3.730178872977737</v>
+        <v>3.730178872977736</v>
       </c>
     </row>
     <row r="3678" spans="1:2">
@@ -29887,7 +29887,7 @@
         <v>3693</v>
       </c>
       <c r="B3693">
-        <v>48.54194227555595</v>
+        <v>48.54194227555594</v>
       </c>
     </row>
     <row r="3694" spans="1:2">
@@ -29951,7 +29951,7 @@
         <v>3701</v>
       </c>
       <c r="B3701">
-        <v>7.43673622023937</v>
+        <v>7.436736220239369</v>
       </c>
     </row>
     <row r="3702" spans="1:2">
@@ -29967,7 +29967,7 @@
         <v>3703</v>
       </c>
       <c r="B3703">
-        <v>4.066595118257095</v>
+        <v>4.066595118257094</v>
       </c>
     </row>
     <row r="3704" spans="1:2">
@@ -29983,7 +29983,7 @@
         <v>3705</v>
       </c>
       <c r="B3705">
-        <v>32.19092288656217</v>
+        <v>32.19092288656216</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -30031,7 +30031,7 @@
         <v>3711</v>
       </c>
       <c r="B3711">
-        <v>77.30657164912833</v>
+        <v>77.30657164912832</v>
       </c>
     </row>
     <row r="3712" spans="1:2">
@@ -30039,7 +30039,7 @@
         <v>3712</v>
       </c>
       <c r="B3712">
-        <v>90.84469520905051</v>
+        <v>90.8446952090505</v>
       </c>
     </row>
     <row r="3713" spans="1:2">
@@ -30071,7 +30071,7 @@
         <v>3716</v>
       </c>
       <c r="B3716">
-        <v>83.36229852098771</v>
+        <v>83.36229852098769</v>
       </c>
     </row>
     <row r="3717" spans="1:2">
@@ -30087,7 +30087,7 @@
         <v>3718</v>
       </c>
       <c r="B3718">
-        <v>57.1324405607973</v>
+        <v>57.13244056079729</v>
       </c>
     </row>
     <row r="3719" spans="1:2">
@@ -30111,7 +30111,7 @@
         <v>3721</v>
       </c>
       <c r="B3721">
-        <v>33.21520616668357</v>
+        <v>33.21520616668356</v>
       </c>
     </row>
     <row r="3722" spans="1:2">
@@ -30119,7 +30119,7 @@
         <v>3722</v>
       </c>
       <c r="B3722">
-        <v>27.11496180405154</v>
+        <v>27.11496180405153</v>
       </c>
     </row>
     <row r="3723" spans="1:2">
@@ -30191,7 +30191,7 @@
         <v>3731</v>
       </c>
       <c r="B3731">
-        <v>31.77388279854708</v>
+        <v>31.77388279854707</v>
       </c>
     </row>
     <row r="3732" spans="1:2">
@@ -30223,7 +30223,7 @@
         <v>3735</v>
       </c>
       <c r="B3735">
-        <v>58.35571907616976</v>
+        <v>58.35571907616975</v>
       </c>
     </row>
     <row r="3736" spans="1:2">
@@ -30231,7 +30231,7 @@
         <v>3736</v>
       </c>
       <c r="B3736">
-        <v>46.27708928878107</v>
+        <v>46.27708928878106</v>
       </c>
     </row>
     <row r="3737" spans="1:2">
@@ -30279,7 +30279,7 @@
         <v>3742</v>
       </c>
       <c r="B3742">
-        <v>57.49672786185335</v>
+        <v>57.49672786185334</v>
       </c>
     </row>
     <row r="3743" spans="1:2">
@@ -30287,7 +30287,7 @@
         <v>3743</v>
       </c>
       <c r="B3743">
-        <v>47.12552994570567</v>
+        <v>47.12552994570566</v>
       </c>
     </row>
     <row r="3744" spans="1:2">
@@ -30311,7 +30311,7 @@
         <v>3746</v>
       </c>
       <c r="B3746">
-        <v>34.28257088948819</v>
+        <v>34.28257088948818</v>
       </c>
     </row>
     <row r="3747" spans="1:2">
@@ -30327,7 +30327,7 @@
         <v>3748</v>
       </c>
       <c r="B3748">
-        <v>28.54813779731325</v>
+        <v>28.54813779731324</v>
       </c>
     </row>
     <row r="3749" spans="1:2">
@@ -30375,7 +30375,7 @@
         <v>3754</v>
       </c>
       <c r="B3754">
-        <v>47.80809239474794</v>
+        <v>47.80809239474793</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -30391,7 +30391,7 @@
         <v>3756</v>
       </c>
       <c r="B3756">
-        <v>63.17322080968495</v>
+        <v>63.17322080968494</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -30431,7 +30431,7 @@
         <v>3761</v>
       </c>
       <c r="B3761">
-        <v>78.38683149763405</v>
+        <v>78.38683149763403</v>
       </c>
     </row>
     <row r="3762" spans="1:2">
@@ -30535,7 +30535,7 @@
         <v>3774</v>
       </c>
       <c r="B3774">
-        <v>54.0959315292271</v>
+        <v>54.09593152922709</v>
       </c>
     </row>
     <row r="3775" spans="1:2">
@@ -30543,7 +30543,7 @@
         <v>3775</v>
       </c>
       <c r="B3775">
-        <v>8.425528597578882</v>
+        <v>8.425528597578881</v>
       </c>
     </row>
     <row r="3776" spans="1:2">
@@ -30575,7 +30575,7 @@
         <v>3779</v>
       </c>
       <c r="B3779">
-        <v>78.39679591294853</v>
+        <v>78.39679591294852</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -30583,7 +30583,7 @@
         <v>3780</v>
       </c>
       <c r="B3780">
-        <v>80.22087005757675</v>
+        <v>80.22087005757673</v>
       </c>
     </row>
     <row r="3781" spans="1:2">
@@ -30607,7 +30607,7 @@
         <v>3783</v>
       </c>
       <c r="B3783">
-        <v>114.4509812311446</v>
+        <v>114.4509812311445</v>
       </c>
     </row>
     <row r="3784" spans="1:2">
@@ -30775,7 +30775,7 @@
         <v>3804</v>
       </c>
       <c r="B3804">
-        <v>61.08655501441617</v>
+        <v>61.08655501441616</v>
       </c>
     </row>
     <row r="3805" spans="1:2">
@@ -30807,7 +30807,7 @@
         <v>3808</v>
       </c>
       <c r="B3808">
-        <v>91.08120353725022</v>
+        <v>91.0812035372502</v>
       </c>
     </row>
     <row r="3809" spans="1:2">
@@ -30815,7 +30815,7 @@
         <v>3809</v>
       </c>
       <c r="B3809">
-        <v>80.17251333619762</v>
+        <v>80.17251333619761</v>
       </c>
     </row>
     <row r="3810" spans="1:2">
@@ -30839,7 +30839,7 @@
         <v>3812</v>
       </c>
       <c r="B3812">
-        <v>78.59754957443155</v>
+        <v>78.59754957443154</v>
       </c>
     </row>
     <row r="3813" spans="1:2">
@@ -30855,7 +30855,7 @@
         <v>3814</v>
       </c>
       <c r="B3814">
-        <v>52.46762883842467</v>
+        <v>52.46762883842466</v>
       </c>
     </row>
     <row r="3815" spans="1:2">
@@ -30943,7 +30943,7 @@
         <v>3825</v>
       </c>
       <c r="B3825">
-        <v>24.05911008392969</v>
+        <v>24.05911008392968</v>
       </c>
     </row>
     <row r="3826" spans="1:2">
@@ -30959,7 +30959,7 @@
         <v>3827</v>
       </c>
       <c r="B3827">
-        <v>33.10061539056699</v>
+        <v>33.10061539056698</v>
       </c>
     </row>
     <row r="3828" spans="1:2">
@@ -31047,7 +31047,7 @@
         <v>3838</v>
       </c>
       <c r="B3838">
-        <v>43.24028718617221</v>
+        <v>43.2402871861722</v>
       </c>
     </row>
     <row r="3839" spans="1:2">
@@ -31167,7 +31167,7 @@
         <v>3853</v>
       </c>
       <c r="B3853">
-        <v>38.70003065523065</v>
+        <v>38.70003065523064</v>
       </c>
     </row>
     <row r="3854" spans="1:2">
@@ -31503,7 +31503,7 @@
         <v>3895</v>
       </c>
       <c r="B3895">
-        <v>3.39352817086745</v>
+        <v>3.393528170867449</v>
       </c>
     </row>
     <row r="3896" spans="1:2">
@@ -31511,7 +31511,7 @@
         <v>3896</v>
       </c>
       <c r="B3896">
-        <v>4.802760260270529</v>
+        <v>4.802760260270528</v>
       </c>
     </row>
     <row r="3897" spans="1:2">
@@ -31583,7 +31583,7 @@
         <v>3905</v>
       </c>
       <c r="B3905">
-        <v>68.40219428148067</v>
+        <v>68.40219428148066</v>
       </c>
     </row>
     <row r="3906" spans="1:2">
@@ -31615,7 +31615,7 @@
         <v>3909</v>
       </c>
       <c r="B3909">
-        <v>83.5352104337979</v>
+        <v>83.53521043379789</v>
       </c>
     </row>
     <row r="3910" spans="1:2">
@@ -31679,7 +31679,7 @@
         <v>3917</v>
       </c>
       <c r="B3917">
-        <v>31.86180411014548</v>
+        <v>31.86180411014547</v>
       </c>
     </row>
     <row r="3918" spans="1:2">
@@ -31687,7 +31687,7 @@
         <v>3918</v>
       </c>
       <c r="B3918">
-        <v>40.29521631866435</v>
+        <v>40.29521631866434</v>
       </c>
     </row>
     <row r="3919" spans="1:2">
@@ -31719,7 +31719,7 @@
         <v>3922</v>
       </c>
       <c r="B3922">
-        <v>72.02777610076018</v>
+        <v>72.02777610076016</v>
       </c>
     </row>
     <row r="3923" spans="1:2">
@@ -31735,7 +31735,7 @@
         <v>3924</v>
       </c>
       <c r="B3924">
-        <v>76.86286209659505</v>
+        <v>76.86286209659504</v>
       </c>
     </row>
     <row r="3925" spans="1:2">
@@ -31743,7 +31743,7 @@
         <v>3925</v>
       </c>
       <c r="B3925">
-        <v>92.60194915686394</v>
+        <v>92.60194915686392</v>
       </c>
     </row>
     <row r="3926" spans="1:2">
@@ -31759,7 +31759,7 @@
         <v>3927</v>
       </c>
       <c r="B3927">
-        <v>117.9613861322302</v>
+        <v>117.9613861322301</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -31823,7 +31823,7 @@
         <v>3935</v>
       </c>
       <c r="B3935">
-        <v>78.3584036068839</v>
+        <v>78.35840360688388</v>
       </c>
     </row>
     <row r="3936" spans="1:2">
@@ -31847,7 +31847,7 @@
         <v>3938</v>
       </c>
       <c r="B3938">
-        <v>57.26021953365365</v>
+        <v>57.26021953365364</v>
       </c>
     </row>
     <row r="3939" spans="1:2">
@@ -31895,7 +31895,7 @@
         <v>3944</v>
       </c>
       <c r="B3944">
-        <v>61.8816567423044</v>
+        <v>61.88165674230439</v>
       </c>
     </row>
     <row r="3945" spans="1:2">
@@ -32055,7 +32055,7 @@
         <v>3964</v>
       </c>
       <c r="B3964">
-        <v>57.25201354457113</v>
+        <v>57.25201354457112</v>
       </c>
     </row>
     <row r="3965" spans="1:2">
@@ -32119,7 +32119,7 @@
         <v>3972</v>
       </c>
       <c r="B3972">
-        <v>83.69024501324975</v>
+        <v>83.69024501324974</v>
       </c>
     </row>
     <row r="3973" spans="1:2">
@@ -32223,7 +32223,7 @@
         <v>3985</v>
       </c>
       <c r="B3985">
-        <v>76.11377252177665</v>
+        <v>76.11377252177664</v>
       </c>
     </row>
     <row r="3986" spans="1:2">
@@ -32231,7 +32231,7 @@
         <v>3986</v>
       </c>
       <c r="B3986">
-        <v>67.37556643304998</v>
+        <v>67.37556643304997</v>
       </c>
     </row>
     <row r="3987" spans="1:2">
@@ -32239,7 +32239,7 @@
         <v>3987</v>
       </c>
       <c r="B3987">
-        <v>61.82245639249481</v>
+        <v>61.8224563924948</v>
       </c>
     </row>
     <row r="3988" spans="1:2">
@@ -32255,7 +32255,7 @@
         <v>3989</v>
       </c>
       <c r="B3989">
-        <v>53.82542696054268</v>
+        <v>53.82542696054267</v>
       </c>
     </row>
     <row r="3990" spans="1:2">
@@ -32263,7 +32263,7 @@
         <v>3990</v>
       </c>
       <c r="B3990">
-        <v>60.70673494831107</v>
+        <v>60.70673494831106</v>
       </c>
     </row>
     <row r="3991" spans="1:2">
@@ -32327,7 +32327,7 @@
         <v>3998</v>
       </c>
       <c r="B3998">
-        <v>78.24117519141936</v>
+        <v>78.24117519141934</v>
       </c>
     </row>
     <row r="3999" spans="1:2">
@@ -32503,7 +32503,7 @@
         <v>4020</v>
       </c>
       <c r="B4020">
-        <v>62.33005543145626</v>
+        <v>62.33005543145625</v>
       </c>
     </row>
     <row r="4021" spans="1:2">
@@ -32511,7 +32511,7 @@
         <v>4021</v>
       </c>
       <c r="B4021">
-        <v>62.2638213767188</v>
+        <v>62.26382137671879</v>
       </c>
     </row>
     <row r="4022" spans="1:2">
@@ -32599,7 +32599,7 @@
         <v>4032</v>
       </c>
       <c r="B4032">
-        <v>57.33876257201489</v>
+        <v>57.33876257201488</v>
       </c>
     </row>
     <row r="4033" spans="1:2">
@@ -32615,7 +32615,7 @@
         <v>4034</v>
       </c>
       <c r="B4034">
-        <v>42.25937841977269</v>
+        <v>42.25937841977268</v>
       </c>
     </row>
     <row r="4035" spans="1:2">
@@ -32631,7 +32631,7 @@
         <v>4036</v>
       </c>
       <c r="B4036">
-        <v>39.31928975992207</v>
+        <v>39.31928975992206</v>
       </c>
     </row>
     <row r="4037" spans="1:2">
@@ -32639,7 +32639,7 @@
         <v>4037</v>
       </c>
       <c r="B4037">
-        <v>46.0479077365479</v>
+        <v>46.04790773654789</v>
       </c>
     </row>
     <row r="4038" spans="1:2">
@@ -32687,7 +32687,7 @@
         <v>4043</v>
       </c>
       <c r="B4043">
-        <v>70.9138130828084</v>
+        <v>70.91381308280839</v>
       </c>
     </row>
     <row r="4044" spans="1:2">
@@ -32695,7 +32695,7 @@
         <v>4044</v>
       </c>
       <c r="B4044">
-        <v>72.19541273487447</v>
+        <v>72.19541273487445</v>
       </c>
     </row>
     <row r="4045" spans="1:2">
@@ -32783,7 +32783,7 @@
         <v>4055</v>
       </c>
       <c r="B4055">
-        <v>83.72394818269581</v>
+        <v>83.72394818269579</v>
       </c>
     </row>
     <row r="4056" spans="1:2">
@@ -32911,7 +32911,7 @@
         <v>4071</v>
       </c>
       <c r="B4071">
-        <v>121.8750567825138</v>
+        <v>121.8750567825137</v>
       </c>
     </row>
     <row r="4072" spans="1:2">
@@ -33055,7 +33055,7 @@
         <v>4089</v>
       </c>
       <c r="B4089">
-        <v>54.03702425045617</v>
+        <v>54.03702425045616</v>
       </c>
     </row>
     <row r="4090" spans="1:2">
@@ -33095,7 +33095,7 @@
         <v>4094</v>
       </c>
       <c r="B4094">
-        <v>93.29007995564078</v>
+        <v>93.29007995564076</v>
       </c>
     </row>
     <row r="4095" spans="1:2">
@@ -33167,7 +33167,7 @@
         <v>4103</v>
       </c>
       <c r="B4103">
-        <v>70.41236853565884</v>
+        <v>70.41236853565883</v>
       </c>
     </row>
     <row r="4104" spans="1:2">
@@ -33175,7 +33175,7 @@
         <v>4104</v>
       </c>
       <c r="B4104">
-        <v>57.08642840772747</v>
+        <v>57.08642840772746</v>
       </c>
     </row>
     <row r="4105" spans="1:2">
@@ -33247,7 +33247,7 @@
         <v>4113</v>
       </c>
       <c r="B4113">
-        <v>15.97049595239589</v>
+        <v>15.97049595239588</v>
       </c>
     </row>
     <row r="4114" spans="1:2">
@@ -33263,7 +33263,7 @@
         <v>4115</v>
       </c>
       <c r="B4115">
-        <v>35.15914636612428</v>
+        <v>35.15914636612427</v>
       </c>
     </row>
     <row r="4116" spans="1:2">
@@ -33471,7 +33471,7 @@
         <v>4141</v>
       </c>
       <c r="B4141">
-        <v>71.24762099584368</v>
+        <v>71.24762099584366</v>
       </c>
     </row>
     <row r="4142" spans="1:2">
@@ -33631,7 +33631,7 @@
         <v>4161</v>
       </c>
       <c r="B4161">
-        <v>59.2674630774452</v>
+        <v>59.26746307744519</v>
       </c>
     </row>
     <row r="4162" spans="1:2">
@@ -33647,7 +33647,7 @@
         <v>4163</v>
       </c>
       <c r="B4163">
-        <v>72.33051848369735</v>
+        <v>72.33051848369733</v>
       </c>
     </row>
     <row r="4164" spans="1:2">
@@ -33727,7 +33727,7 @@
         <v>4173</v>
       </c>
       <c r="B4173">
-        <v>83.38222735161668</v>
+        <v>83.38222735161666</v>
       </c>
     </row>
     <row r="4174" spans="1:2">
@@ -33735,7 +33735,7 @@
         <v>4174</v>
       </c>
       <c r="B4174">
-        <v>74.23870401642137</v>
+        <v>74.23870401642135</v>
       </c>
     </row>
     <row r="4175" spans="1:2">
@@ -33967,7 +33967,7 @@
         <v>4203</v>
       </c>
       <c r="B4203">
-        <v>60.82894557143285</v>
+        <v>60.82894557143284</v>
       </c>
     </row>
     <row r="4204" spans="1:2">
@@ -34087,7 +34087,7 @@
         <v>4218</v>
       </c>
       <c r="B4218">
-        <v>167.9273605846416</v>
+        <v>167.9273605846415</v>
       </c>
     </row>
     <row r="4219" spans="1:2">
@@ -34135,7 +34135,7 @@
         <v>4224</v>
       </c>
       <c r="B4224">
-        <v>47.41830791332835</v>
+        <v>47.41830791332834</v>
       </c>
     </row>
     <row r="4225" spans="1:2">
@@ -34191,7 +34191,7 @@
         <v>4231</v>
       </c>
       <c r="B4231">
-        <v>8.116543801518226</v>
+        <v>8.116543801518224</v>
       </c>
     </row>
     <row r="4232" spans="1:2">
@@ -34239,7 +34239,7 @@
         <v>4237</v>
       </c>
       <c r="B4237">
-        <v>76.33035201934739</v>
+        <v>76.33035201934737</v>
       </c>
     </row>
     <row r="4238" spans="1:2">
@@ -34255,7 +34255,7 @@
         <v>4239</v>
       </c>
       <c r="B4239">
-        <v>101.6566719673449</v>
+        <v>101.6566719673448</v>
       </c>
     </row>
     <row r="4240" spans="1:2">
@@ -34359,7 +34359,7 @@
         <v>4252</v>
       </c>
       <c r="B4252">
-        <v>41.52289089961673</v>
+        <v>41.52289089961672</v>
       </c>
     </row>
     <row r="4253" spans="1:2">
@@ -34383,7 +34383,7 @@
         <v>4255</v>
       </c>
       <c r="B4255">
-        <v>5.886947260694309</v>
+        <v>5.886947260694308</v>
       </c>
     </row>
     <row r="4256" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>45.4899004789367</v>
+        <v>45.48990047893669</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34487,7 +34487,7 @@
         <v>4268</v>
       </c>
       <c r="B4268">
-        <v>87.73638377300828</v>
+        <v>87.73638377300827</v>
       </c>
     </row>
     <row r="4269" spans="1:2">
@@ -34743,7 +34743,7 @@
         <v>4300</v>
       </c>
       <c r="B4300">
-        <v>50.29743779713741</v>
+        <v>50.2974377971374</v>
       </c>
     </row>
     <row r="4301" spans="1:2">
@@ -34823,7 +34823,7 @@
         <v>4310</v>
       </c>
       <c r="B4310">
-        <v>93.82786531158436</v>
+        <v>93.82786531158432</v>
       </c>
     </row>
     <row r="4311" spans="1:2">
@@ -34887,7 +34887,7 @@
         <v>4318</v>
       </c>
       <c r="B4318">
-        <v>66.9781621046252</v>
+        <v>66.97816210462518</v>
       </c>
     </row>
     <row r="4319" spans="1:2">
@@ -34951,7 +34951,7 @@
         <v>4326</v>
       </c>
       <c r="B4326">
-        <v>30.69362295004136</v>
+        <v>30.69362295004135</v>
       </c>
     </row>
     <row r="4327" spans="1:2">
@@ -34983,7 +34983,7 @@
         <v>4330</v>
       </c>
       <c r="B4330">
-        <v>47.45933785874094</v>
+        <v>47.45933785874093</v>
       </c>
     </row>
     <row r="4331" spans="1:2">
@@ -35039,7 +35039,7 @@
         <v>4337</v>
       </c>
       <c r="B4337">
-        <v>52.19507277246962</v>
+        <v>52.19507277246961</v>
       </c>
     </row>
     <row r="4338" spans="1:2">
@@ -35143,7 +35143,7 @@
         <v>4350</v>
       </c>
       <c r="B4350">
-        <v>38.37941093893514</v>
+        <v>38.37941093893513</v>
       </c>
     </row>
     <row r="4351" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>68.70816044584312</v>
+        <v>68.70816044584311</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35311,7 +35311,7 @@
         <v>4371</v>
       </c>
       <c r="B4371">
-        <v>50.76078310926099</v>
+        <v>50.76078310926098</v>
       </c>
     </row>
     <row r="4372" spans="1:2">
@@ -35327,7 +35327,7 @@
         <v>4373</v>
       </c>
       <c r="B4373">
-        <v>48.12636754273416</v>
+        <v>48.12636754273415</v>
       </c>
     </row>
     <row r="4374" spans="1:2">
@@ -35343,7 +35343,7 @@
         <v>4375</v>
       </c>
       <c r="B4375">
-        <v>5.01488507805361</v>
+        <v>5.014885078053609</v>
       </c>
     </row>
     <row r="4376" spans="1:2">
@@ -35399,7 +35399,7 @@
         <v>4382</v>
       </c>
       <c r="B4382">
-        <v>97.43498365542818</v>
+        <v>97.43498365542816</v>
       </c>
     </row>
     <row r="4383" spans="1:2">
@@ -35423,7 +35423,7 @@
         <v>4385</v>
       </c>
       <c r="B4385">
-        <v>82.16158647559217</v>
+        <v>82.16158647559216</v>
       </c>
     </row>
     <row r="4386" spans="1:2">
@@ -35511,7 +35511,7 @@
         <v>4396</v>
       </c>
       <c r="B4396">
-        <v>45.56375438067936</v>
+        <v>45.56375438067935</v>
       </c>
     </row>
     <row r="4397" spans="1:2">
@@ -35519,7 +35519,7 @@
         <v>4397</v>
       </c>
       <c r="B4397">
-        <v>46.36383831622483</v>
+        <v>46.36383831622482</v>
       </c>
     </row>
     <row r="4398" spans="1:2">
@@ -35679,7 +35679,7 @@
         <v>4417</v>
       </c>
       <c r="B4417">
-        <v>57.06855107436913</v>
+        <v>57.06855107436912</v>
       </c>
     </row>
     <row r="4418" spans="1:2">
@@ -35735,7 +35735,7 @@
         <v>4424</v>
       </c>
       <c r="B4424">
-        <v>7.866026677670508</v>
+        <v>7.866026677670507</v>
       </c>
     </row>
     <row r="4425" spans="1:2">
@@ -35903,7 +35903,7 @@
         <v>4445</v>
       </c>
       <c r="B4445">
-        <v>32.90162015531593</v>
+        <v>32.90162015531592</v>
       </c>
     </row>
     <row r="4446" spans="1:2">
@@ -35919,7 +35919,7 @@
         <v>4447</v>
       </c>
       <c r="B4447">
-        <v>8.768685476747452</v>
+        <v>8.76868547674745</v>
       </c>
     </row>
     <row r="4448" spans="1:2">
@@ -35951,7 +35951,7 @@
         <v>4451</v>
       </c>
       <c r="B4451">
-        <v>55.99649721494593</v>
+        <v>55.99649721494592</v>
       </c>
     </row>
     <row r="4452" spans="1:2">
@@ -36055,7 +36055,7 @@
         <v>4464</v>
       </c>
       <c r="B4464">
-        <v>67.01127913199393</v>
+        <v>67.01127913199392</v>
       </c>
     </row>
     <row r="4465" spans="1:2">
@@ -36135,7 +36135,7 @@
         <v>4474</v>
       </c>
       <c r="B4474">
-        <v>85.38976396644689</v>
+        <v>85.38976396644688</v>
       </c>
     </row>
     <row r="4475" spans="1:2">
@@ -36159,7 +36159,7 @@
         <v>4477</v>
       </c>
       <c r="B4477">
-        <v>87.49928930273126</v>
+        <v>87.49928930273124</v>
       </c>
     </row>
     <row r="4478" spans="1:2">
@@ -36327,7 +36327,7 @@
         <v>4498</v>
       </c>
       <c r="B4498">
-        <v>89.79227710921762</v>
+        <v>89.79227710921761</v>
       </c>
     </row>
     <row r="4499" spans="1:2">
@@ -36463,7 +36463,7 @@
         <v>4515</v>
       </c>
       <c r="B4515">
-        <v>59.82283269570845</v>
+        <v>59.82283269570844</v>
       </c>
     </row>
     <row r="4516" spans="1:2">
@@ -36527,7 +36527,7 @@
         <v>4523</v>
       </c>
       <c r="B4523">
-        <v>99.04247830248566</v>
+        <v>99.04247830248563</v>
       </c>
     </row>
     <row r="4524" spans="1:2">
@@ -36559,7 +36559,7 @@
         <v>4527</v>
       </c>
       <c r="B4527">
-        <v>82.93646630181277</v>
+        <v>82.93646630181276</v>
       </c>
     </row>
     <row r="4528" spans="1:2">
@@ -36911,7 +36911,7 @@
         <v>4571</v>
       </c>
       <c r="B4571">
-        <v>33.28378478973033</v>
+        <v>33.28378478973032</v>
       </c>
     </row>
     <row r="4572" spans="1:2">
@@ -37007,7 +37007,7 @@
         <v>4583</v>
       </c>
       <c r="B4583">
-        <v>55.80043269008149</v>
+        <v>55.80043269008148</v>
       </c>
     </row>
     <row r="4584" spans="1:2">
@@ -37047,7 +37047,7 @@
         <v>4588</v>
       </c>
       <c r="B4588">
-        <v>29.5916758446747</v>
+        <v>29.59167584467469</v>
       </c>
     </row>
     <row r="4589" spans="1:2">
@@ -37207,7 +37207,7 @@
         <v>4608</v>
       </c>
       <c r="B4608">
-        <v>62.84673967261621</v>
+        <v>62.8467396726162</v>
       </c>
     </row>
     <row r="4609" spans="1:2">
@@ -37231,7 +37231,7 @@
         <v>4611</v>
       </c>
       <c r="B4611">
-        <v>44.19804334051749</v>
+        <v>44.19804334051748</v>
       </c>
     </row>
     <row r="4612" spans="1:2">
@@ -37279,7 +37279,7 @@
         <v>4617</v>
       </c>
       <c r="B4617">
-        <v>37.82404132067189</v>
+        <v>37.82404132067188</v>
       </c>
     </row>
     <row r="4618" spans="1:2">
@@ -37375,7 +37375,7 @@
         <v>4629</v>
       </c>
       <c r="B4629">
-        <v>79.87387394780171</v>
+        <v>79.8738739478017</v>
       </c>
     </row>
     <row r="4630" spans="1:2">
@@ -37527,7 +37527,7 @@
         <v>4648</v>
       </c>
       <c r="B4648">
-        <v>74.1929849343902</v>
+        <v>74.19298493439018</v>
       </c>
     </row>
     <row r="4649" spans="1:2">
@@ -37607,7 +37607,7 @@
         <v>4658</v>
       </c>
       <c r="B4658">
-        <v>52.60273458724755</v>
+        <v>52.60273458724754</v>
       </c>
     </row>
     <row r="4659" spans="1:2">
@@ -37623,7 +37623,7 @@
         <v>4660</v>
       </c>
       <c r="B4660">
-        <v>46.54437007604022</v>
+        <v>46.54437007604021</v>
       </c>
     </row>
     <row r="4661" spans="1:2">
@@ -37631,7 +37631,7 @@
         <v>4661</v>
       </c>
       <c r="B4661">
-        <v>44.63120233565896</v>
+        <v>44.63120233565895</v>
       </c>
     </row>
     <row r="4662" spans="1:2">
@@ -37647,7 +37647,7 @@
         <v>4663</v>
       </c>
       <c r="B4663">
-        <v>4.918757777372689</v>
+        <v>4.918757777372688</v>
       </c>
     </row>
     <row r="4664" spans="1:2">
@@ -37903,7 +37903,7 @@
         <v>4695</v>
       </c>
       <c r="B4695">
-        <v>96.7275101680997</v>
+        <v>96.72751016809968</v>
       </c>
     </row>
     <row r="4696" spans="1:2">
@@ -37975,7 +37975,7 @@
         <v>4704</v>
       </c>
       <c r="B4704">
-        <v>51.13005261797429</v>
+        <v>51.13005261797428</v>
       </c>
     </row>
     <row r="4705" spans="1:2">
@@ -37983,7 +37983,7 @@
         <v>4705</v>
       </c>
       <c r="B4705">
-        <v>46.81428850264732</v>
+        <v>46.81428850264731</v>
       </c>
     </row>
     <row r="4706" spans="1:2">
@@ -38007,7 +38007,7 @@
         <v>4708</v>
       </c>
       <c r="B4708">
-        <v>31.78267492970692</v>
+        <v>31.78267492970691</v>
       </c>
     </row>
     <row r="4709" spans="1:2">
@@ -38167,7 +38167,7 @@
         <v>4728</v>
       </c>
       <c r="B4728">
-        <v>66.11653325096084</v>
+        <v>66.11653325096083</v>
       </c>
     </row>
     <row r="4729" spans="1:2">
@@ -38263,7 +38263,7 @@
         <v>4740</v>
       </c>
       <c r="B4740">
-        <v>76.50648771358286</v>
+        <v>76.50648771358284</v>
       </c>
     </row>
     <row r="4741" spans="1:2">
@@ -38463,7 +38463,7 @@
         <v>4765</v>
       </c>
       <c r="B4765">
-        <v>107.4726667295793</v>
+        <v>107.4726667295792</v>
       </c>
     </row>
     <row r="4766" spans="1:2">
@@ -38471,7 +38471,7 @@
         <v>4766</v>
       </c>
       <c r="B4766">
-        <v>107.0427315158631</v>
+        <v>107.042731515863</v>
       </c>
     </row>
     <row r="4767" spans="1:2">
@@ -38751,7 +38751,7 @@
         <v>4801</v>
       </c>
       <c r="B4801">
-        <v>81.17598857257407</v>
+        <v>81.17598857257406</v>
       </c>
     </row>
     <row r="4802" spans="1:2">
@@ -38767,7 +38767,7 @@
         <v>4803</v>
       </c>
       <c r="B4803">
-        <v>63.91732817684611</v>
+        <v>63.9173281768461</v>
       </c>
     </row>
     <row r="4804" spans="1:2">
@@ -39023,7 +39023,7 @@
         <v>4835</v>
       </c>
       <c r="B4835">
-        <v>87.66487443957492</v>
+        <v>87.6648744395749</v>
       </c>
     </row>
     <row r="4836" spans="1:2">
@@ -39351,7 +39351,7 @@
         <v>4876</v>
       </c>
       <c r="B4876">
-        <v>59.0968957329443</v>
+        <v>59.09689573294429</v>
       </c>
     </row>
     <row r="4877" spans="1:2">
@@ -39359,7 +39359,7 @@
         <v>4877</v>
       </c>
       <c r="B4877">
-        <v>59.42015308858776</v>
+        <v>59.42015308858775</v>
       </c>
     </row>
     <row r="4878" spans="1:2">
@@ -39583,7 +39583,7 @@
         <v>4905</v>
       </c>
       <c r="B4905">
-        <v>56.37602421001237</v>
+        <v>56.37602421001236</v>
       </c>
     </row>
     <row r="4906" spans="1:2">
@@ -39591,7 +39591,7 @@
         <v>4906</v>
       </c>
       <c r="B4906">
-        <v>80.12093283339323</v>
+        <v>80.12093283339321</v>
       </c>
     </row>
     <row r="4907" spans="1:2">
@@ -39711,7 +39711,7 @@
         <v>4921</v>
       </c>
       <c r="B4921">
-        <v>79.16112518177732</v>
+        <v>79.16112518177731</v>
       </c>
     </row>
     <row r="4922" spans="1:2">
@@ -39767,7 +39767,7 @@
         <v>4928</v>
       </c>
       <c r="B4928">
-        <v>21.82245053107404</v>
+        <v>21.82245053107403</v>
       </c>
     </row>
     <row r="4929" spans="1:2">
@@ -39791,7 +39791,7 @@
         <v>4931</v>
       </c>
       <c r="B4931">
-        <v>43.92314270625315</v>
+        <v>43.92314270625314</v>
       </c>
     </row>
     <row r="4932" spans="1:2">
@@ -39799,7 +39799,7 @@
         <v>4932</v>
       </c>
       <c r="B4932">
-        <v>49.25263954430971</v>
+        <v>49.2526395443097</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -39903,7 +39903,7 @@
         <v>4945</v>
       </c>
       <c r="B4945">
-        <v>65.10309359926991</v>
+        <v>65.1030935992699</v>
       </c>
     </row>
     <row r="4946" spans="1:2">
@@ -39919,7 +39919,7 @@
         <v>4947</v>
       </c>
       <c r="B4947">
-        <v>55.78988213268968</v>
+        <v>55.78988213268967</v>
       </c>
     </row>
     <row r="4948" spans="1:2">
@@ -39927,7 +39927,7 @@
         <v>4948</v>
       </c>
       <c r="B4948">
-        <v>50.95420999477748</v>
+        <v>50.95420999477747</v>
       </c>
     </row>
     <row r="4949" spans="1:2">
@@ -39943,7 +39943,7 @@
         <v>4950</v>
       </c>
       <c r="B4950">
-        <v>59.6677981162566</v>
+        <v>59.66779811625659</v>
       </c>
     </row>
     <row r="4951" spans="1:2">
@@ -39975,7 +39975,7 @@
         <v>4954</v>
       </c>
       <c r="B4954">
-        <v>71.40324171737285</v>
+        <v>71.40324171737284</v>
       </c>
     </row>
     <row r="4955" spans="1:2">
@@ -40095,7 +40095,7 @@
         <v>4969</v>
       </c>
       <c r="B4969">
-        <v>55.19612020836179</v>
+        <v>55.19612020836178</v>
       </c>
     </row>
     <row r="4970" spans="1:2">
@@ -40199,7 +40199,7 @@
         <v>4982</v>
       </c>
       <c r="B4982">
-        <v>64.46595716122015</v>
+        <v>64.46595716122013</v>
       </c>
     </row>
     <row r="4983" spans="1:2">
@@ -40279,7 +40279,7 @@
         <v>4992</v>
       </c>
       <c r="B4992">
-        <v>45.62500622775958</v>
+        <v>45.62500622775957</v>
       </c>
     </row>
     <row r="4993" spans="1:2">
@@ -40335,7 +40335,7 @@
         <v>4999</v>
       </c>
       <c r="B4999">
-        <v>5.879620484727775</v>
+        <v>5.879620484727774</v>
       </c>
     </row>
     <row r="5000" spans="1:2">
@@ -40367,7 +40367,7 @@
         <v>5003</v>
       </c>
       <c r="B5003">
-        <v>62.28638784669572</v>
+        <v>62.28638784669571</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40391,7 +40391,7 @@
         <v>5006</v>
       </c>
       <c r="B5006">
-        <v>65.53097731571548</v>
+        <v>65.53097731571546</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40415,7 +40415,7 @@
         <v>5009</v>
       </c>
       <c r="B5009">
-        <v>79.69304911694766</v>
+        <v>79.69304911694765</v>
       </c>
     </row>
     <row r="5010" spans="1:2">
@@ -40439,7 +40439,7 @@
         <v>5012</v>
       </c>
       <c r="B5012">
-        <v>87.28065830788989</v>
+        <v>87.28065830788988</v>
       </c>
     </row>
     <row r="5013" spans="1:2">
@@ -40591,7 +40591,7 @@
         <v>5031</v>
       </c>
       <c r="B5031">
-        <v>50.51606879197877</v>
+        <v>50.51606879197876</v>
       </c>
     </row>
     <row r="5032" spans="1:2">
@@ -40623,7 +40623,7 @@
         <v>5035</v>
       </c>
       <c r="B5035">
-        <v>94.19420410991104</v>
+        <v>94.194204109911</v>
       </c>
     </row>
     <row r="5036" spans="1:2">
@@ -40703,7 +40703,7 @@
         <v>5045</v>
       </c>
       <c r="B5045">
-        <v>29.65029005240697</v>
+        <v>29.65029005240696</v>
       </c>
     </row>
     <row r="5046" spans="1:2">
@@ -40711,7 +40711,7 @@
         <v>5046</v>
       </c>
       <c r="B5046">
-        <v>33.39075571884172</v>
+        <v>33.39075571884171</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40775,7 +40775,7 @@
         <v>5054</v>
       </c>
       <c r="B5054">
-        <v>37.87210497101235</v>
+        <v>37.87210497101234</v>
       </c>
     </row>
     <row r="5055" spans="1:2">
@@ -40783,7 +40783,7 @@
         <v>5055</v>
       </c>
       <c r="B5055">
-        <v>58.10338491188234</v>
+        <v>58.10338491188233</v>
       </c>
     </row>
     <row r="5056" spans="1:2">
@@ -40823,7 +40823,7 @@
         <v>5060</v>
       </c>
       <c r="B5060">
-        <v>83.18880046610019</v>
+        <v>83.18880046610018</v>
       </c>
     </row>
     <row r="5061" spans="1:2">
@@ -40831,7 +40831,7 @@
         <v>5061</v>
       </c>
       <c r="B5061">
-        <v>75.06135442194376</v>
+        <v>75.06135442194375</v>
       </c>
     </row>
     <row r="5062" spans="1:2">
@@ -40895,7 +40895,7 @@
         <v>5069</v>
       </c>
       <c r="B5069">
-        <v>29.92401840251667</v>
+        <v>29.92401840251666</v>
       </c>
     </row>
     <row r="5070" spans="1:2">
@@ -40903,7 +40903,7 @@
         <v>5070</v>
       </c>
       <c r="B5070">
-        <v>34.4455183869839</v>
+        <v>34.44551838698389</v>
       </c>
     </row>
     <row r="5071" spans="1:2">
@@ -41039,7 +41039,7 @@
         <v>5087</v>
       </c>
       <c r="B5087">
-        <v>68.86319502529497</v>
+        <v>68.86319502529496</v>
       </c>
     </row>
     <row r="5088" spans="1:2">
@@ -41183,7 +41183,7 @@
         <v>5105</v>
       </c>
       <c r="B5105">
-        <v>79.89497506258533</v>
+        <v>79.89497506258532</v>
       </c>
     </row>
     <row r="5106" spans="1:2">
@@ -41247,7 +41247,7 @@
         <v>5113</v>
       </c>
       <c r="B5113">
-        <v>63.22157753106407</v>
+        <v>63.22157753106406</v>
       </c>
     </row>
     <row r="5114" spans="1:2">
@@ -41263,7 +41263,7 @@
         <v>5115</v>
       </c>
       <c r="B5115">
-        <v>56.18728646111446</v>
+        <v>56.18728646111445</v>
       </c>
     </row>
     <row r="5116" spans="1:2">
@@ -41279,7 +41279,7 @@
         <v>5117</v>
       </c>
       <c r="B5117">
-        <v>52.35831334100399</v>
+        <v>52.35831334100398</v>
       </c>
     </row>
     <row r="5118" spans="1:2">
@@ -41391,7 +41391,7 @@
         <v>5131</v>
       </c>
       <c r="B5131">
-        <v>143.3542332060038</v>
+        <v>143.3542332060037</v>
       </c>
     </row>
     <row r="5132" spans="1:2">
@@ -41695,7 +41695,7 @@
         <v>5169</v>
       </c>
       <c r="B5169">
-        <v>76.98477964867817</v>
+        <v>76.98477964867816</v>
       </c>
     </row>
     <row r="5170" spans="1:2">
@@ -41967,7 +41967,7 @@
         <v>5203</v>
       </c>
       <c r="B5203">
-        <v>84.42731867548304</v>
+        <v>84.42731867548302</v>
       </c>
     </row>
     <row r="5204" spans="1:2">
@@ -41983,7 +41983,7 @@
         <v>5205</v>
       </c>
       <c r="B5205">
-        <v>55.79515741138558</v>
+        <v>55.79515741138557</v>
       </c>
     </row>
     <row r="5206" spans="1:2">
@@ -42135,7 +42135,7 @@
         <v>5224</v>
       </c>
       <c r="B5224">
-        <v>72.92926261568248</v>
+        <v>72.92926261568246</v>
       </c>
     </row>
     <row r="5225" spans="1:2">
@@ -42143,7 +42143,7 @@
         <v>5225</v>
       </c>
       <c r="B5225">
-        <v>82.24569786368798</v>
+        <v>82.24569786368797</v>
       </c>
     </row>
     <row r="5226" spans="1:2">
@@ -42183,7 +42183,7 @@
         <v>5230</v>
       </c>
       <c r="B5230">
-        <v>46.35094319052373</v>
+        <v>46.35094319052372</v>
       </c>
     </row>
     <row r="5231" spans="1:2">
@@ -42399,7 +42399,7 @@
         <v>5257</v>
       </c>
       <c r="B5257">
-        <v>29.0410246701339</v>
+        <v>29.04102467013389</v>
       </c>
     </row>
     <row r="5258" spans="1:2">
@@ -42487,7 +42487,7 @@
         <v>5268</v>
       </c>
       <c r="B5268">
-        <v>51.63735858589708</v>
+        <v>51.63735858589707</v>
       </c>
     </row>
     <row r="5269" spans="1:2">
@@ -42583,7 +42583,7 @@
         <v>5280</v>
       </c>
       <c r="B5280">
-        <v>42.39682873690486</v>
+        <v>42.39682873690485</v>
       </c>
     </row>
     <row r="5281" spans="1:2">
@@ -42687,7 +42687,7 @@
         <v>5293</v>
       </c>
       <c r="B5293">
-        <v>61.50447431554725</v>
+        <v>61.50447431554724</v>
       </c>
     </row>
     <row r="5294" spans="1:2">
@@ -42695,7 +42695,7 @@
         <v>5294</v>
       </c>
       <c r="B5294">
-        <v>73.58691402643854</v>
+        <v>73.58691402643852</v>
       </c>
     </row>
     <row r="5295" spans="1:2">
@@ -42783,7 +42783,7 @@
         <v>5305</v>
       </c>
       <c r="B5305">
-        <v>52.57489283857472</v>
+        <v>52.57489283857471</v>
       </c>
     </row>
     <row r="5306" spans="1:2">
@@ -42839,7 +42839,7 @@
         <v>5312</v>
       </c>
       <c r="B5312">
-        <v>11.83880975645211</v>
+        <v>11.8388097564521</v>
       </c>
     </row>
     <row r="5313" spans="1:2">
@@ -42863,7 +42863,7 @@
         <v>5315</v>
       </c>
       <c r="B5315">
-        <v>37.87210497101235</v>
+        <v>37.87210497101234</v>
       </c>
     </row>
     <row r="5316" spans="1:2">
@@ -42887,7 +42887,7 @@
         <v>5318</v>
       </c>
       <c r="B5318">
-        <v>67.18155340545617</v>
+        <v>67.18155340545616</v>
       </c>
     </row>
     <row r="5319" spans="1:2">
@@ -42951,7 +42951,7 @@
         <v>5326</v>
       </c>
       <c r="B5326">
-        <v>82.41392063987959</v>
+        <v>82.41392063987958</v>
       </c>
     </row>
     <row r="5327" spans="1:2">
@@ -42959,7 +42959,7 @@
         <v>5327</v>
       </c>
       <c r="B5327">
-        <v>63.87893587078147</v>
+        <v>63.87893587078146</v>
       </c>
     </row>
     <row r="5328" spans="1:2">
@@ -42967,7 +42967,7 @@
         <v>5328</v>
       </c>
       <c r="B5328">
-        <v>55.33122595718467</v>
+        <v>55.33122595718466</v>
       </c>
     </row>
     <row r="5329" spans="1:2">
@@ -42975,7 +42975,7 @@
         <v>5329</v>
       </c>
       <c r="B5329">
-        <v>51.36714708825132</v>
+        <v>51.36714708825131</v>
       </c>
     </row>
     <row r="5330" spans="1:2">
@@ -43079,7 +43079,7 @@
         <v>5342</v>
       </c>
       <c r="B5342">
-        <v>69.79838470966332</v>
+        <v>69.79838470966331</v>
       </c>
     </row>
     <row r="5343" spans="1:2">
@@ -43143,7 +43143,7 @@
         <v>5350</v>
       </c>
       <c r="B5350">
-        <v>73.22526436473044</v>
+        <v>73.22526436473042</v>
       </c>
     </row>
     <row r="5351" spans="1:2">
@@ -43151,7 +43151,7 @@
         <v>5351</v>
       </c>
       <c r="B5351">
-        <v>60.15429604043443</v>
+        <v>60.15429604043442</v>
       </c>
     </row>
     <row r="5352" spans="1:2">
@@ -43231,7 +43231,7 @@
         <v>5361</v>
       </c>
       <c r="B5361">
-        <v>43.7036324982958</v>
+        <v>43.70363249829579</v>
       </c>
     </row>
     <row r="5362" spans="1:2">
@@ -43303,7 +43303,7 @@
         <v>5370</v>
       </c>
       <c r="B5370">
-        <v>170.347541221907</v>
+        <v>170.3475412219069</v>
       </c>
     </row>
     <row r="5371" spans="1:2">
@@ -43359,7 +43359,7 @@
         <v>5377</v>
       </c>
       <c r="B5377">
-        <v>65.90522903208601</v>
+        <v>65.905229032086</v>
       </c>
     </row>
     <row r="5378" spans="1:2">
@@ -43367,7 +43367,7 @@
         <v>5378</v>
       </c>
       <c r="B5378">
-        <v>61.67474858900949</v>
+        <v>61.67474858900948</v>
       </c>
     </row>
     <row r="5379" spans="1:2">
@@ -43375,7 +43375,7 @@
         <v>5379</v>
       </c>
       <c r="B5379">
-        <v>57.71565192773338</v>
+        <v>57.71565192773337</v>
       </c>
     </row>
     <row r="5380" spans="1:2">
@@ -43383,7 +43383,7 @@
         <v>5380</v>
       </c>
       <c r="B5380">
-        <v>55.17589830669416</v>
+        <v>55.17589830669415</v>
       </c>
     </row>
     <row r="5381" spans="1:2">
@@ -43423,7 +43423,7 @@
         <v>5385</v>
       </c>
       <c r="B5385">
-        <v>67.17422662948964</v>
+        <v>67.17422662948962</v>
       </c>
     </row>
     <row r="5386" spans="1:2">
@@ -43447,7 +43447,7 @@
         <v>5388</v>
       </c>
       <c r="B5388">
-        <v>75.78523988743729</v>
+        <v>75.78523988743727</v>
       </c>
     </row>
     <row r="5389" spans="1:2">
@@ -43455,7 +43455,7 @@
         <v>5389</v>
       </c>
       <c r="B5389">
-        <v>89.61145227836357</v>
+        <v>89.61145227836356</v>
       </c>
     </row>
     <row r="5390" spans="1:2">
@@ -43487,7 +43487,7 @@
         <v>5393</v>
       </c>
       <c r="B5393">
-        <v>79.64733003491649</v>
+        <v>79.64733003491648</v>
       </c>
     </row>
     <row r="5394" spans="1:2">
@@ -43575,7 +43575,7 @@
         <v>5404</v>
       </c>
       <c r="B5404">
-        <v>56.40884816634244</v>
+        <v>56.40884816634243</v>
       </c>
     </row>
     <row r="5405" spans="1:2">
@@ -43583,7 +43583,7 @@
         <v>5405</v>
       </c>
       <c r="B5405">
-        <v>57.5858214576064</v>
+        <v>57.58582145760639</v>
       </c>
     </row>
     <row r="5406" spans="1:2">
@@ -43599,7 +43599,7 @@
         <v>5407</v>
       </c>
       <c r="B5407">
-        <v>18.7845054514144</v>
+        <v>18.78450545141439</v>
       </c>
     </row>
     <row r="5408" spans="1:2">
@@ -43631,7 +43631,7 @@
         <v>5411</v>
       </c>
       <c r="B5411">
-        <v>89.76912449716338</v>
+        <v>89.76912449716336</v>
       </c>
     </row>
     <row r="5412" spans="1:2">
@@ -43639,7 +43639,7 @@
         <v>5412</v>
       </c>
       <c r="B5412">
-        <v>88.60797704198713</v>
+        <v>88.60797704198711</v>
       </c>
     </row>
     <row r="5413" spans="1:2">
@@ -43783,7 +43783,7 @@
         <v>5430</v>
       </c>
       <c r="B5430">
-        <v>27.11044851005615</v>
+        <v>27.11044851005614</v>
       </c>
     </row>
     <row r="5431" spans="1:2">
@@ -44047,7 +44047,7 @@
         <v>5463</v>
       </c>
       <c r="B5463">
-        <v>21.96502959138278</v>
+        <v>21.96502959138277</v>
       </c>
     </row>
     <row r="5464" spans="1:2">
@@ -44095,7 +44095,7 @@
         <v>5469</v>
       </c>
       <c r="B5469">
-        <v>58.77862058495808</v>
+        <v>58.77862058495807</v>
       </c>
     </row>
     <row r="5470" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>36.66465229172761</v>
+        <v>36.6646522917276</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44255,7 +44255,7 @@
         <v>5489</v>
       </c>
       <c r="B5489">
-        <v>75.41626344976265</v>
+        <v>75.41626344976264</v>
       </c>
     </row>
     <row r="5490" spans="1:2">
@@ -44263,7 +44263,7 @@
         <v>5490</v>
       </c>
       <c r="B5490">
-        <v>135.0969566917204</v>
+        <v>135.0969566917203</v>
       </c>
     </row>
     <row r="5491" spans="1:2">
@@ -44287,7 +44287,7 @@
         <v>5493</v>
       </c>
       <c r="B5493">
-        <v>94.16958614266348</v>
+        <v>94.16958614266346</v>
       </c>
     </row>
     <row r="5494" spans="1:2">
@@ -44407,7 +44407,7 @@
         <v>5508</v>
       </c>
       <c r="B5508">
-        <v>54.84971024066408</v>
+        <v>54.84971024066407</v>
       </c>
     </row>
     <row r="5509" spans="1:2">
@@ -44487,7 +44487,7 @@
         <v>5518</v>
       </c>
       <c r="B5518">
-        <v>65.41902417894684</v>
+        <v>65.41902417894683</v>
       </c>
     </row>
     <row r="5519" spans="1:2">
@@ -44503,7 +44503,7 @@
         <v>5520</v>
       </c>
       <c r="B5520">
-        <v>47.28085759619618</v>
+        <v>47.28085759619617</v>
       </c>
     </row>
     <row r="5521" spans="1:2">
@@ -44623,7 +44623,7 @@
         <v>5535</v>
       </c>
       <c r="B5535">
-        <v>58.31732677010512</v>
+        <v>58.31732677010511</v>
       </c>
     </row>
     <row r="5536" spans="1:2">
@@ -44631,7 +44631,7 @@
         <v>5536</v>
       </c>
       <c r="B5536">
-        <v>55.06101445953891</v>
+        <v>55.0610144595389</v>
       </c>
     </row>
     <row r="5537" spans="1:2">
@@ -44711,7 +44711,7 @@
         <v>5546</v>
       </c>
       <c r="B5546">
-        <v>43.64501829056353</v>
+        <v>43.64501829056352</v>
       </c>
     </row>
     <row r="5547" spans="1:2">
@@ -44807,7 +44807,7 @@
         <v>5558</v>
       </c>
       <c r="B5558">
-        <v>86.26399487477369</v>
+        <v>86.26399487477367</v>
       </c>
     </row>
     <row r="5559" spans="1:2">
@@ -44911,7 +44911,7 @@
         <v>5571</v>
       </c>
       <c r="B5571">
-        <v>54.84736567235479</v>
+        <v>54.84736567235478</v>
       </c>
     </row>
     <row r="5572" spans="1:2">
@@ -45207,7 +45207,7 @@
         <v>5608</v>
       </c>
       <c r="B5608">
-        <v>46.17246292797897</v>
+        <v>46.17246292797896</v>
       </c>
     </row>
     <row r="5609" spans="1:2">
@@ -45279,7 +45279,7 @@
         <v>5617</v>
       </c>
       <c r="B5617">
-        <v>27.74184075574816</v>
+        <v>27.74184075574815</v>
       </c>
     </row>
     <row r="5618" spans="1:2">
@@ -45351,7 +45351,7 @@
         <v>5626</v>
       </c>
       <c r="B5626">
-        <v>40.48600556483289</v>
+        <v>40.48600556483288</v>
       </c>
     </row>
     <row r="5627" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>73.27303494403223</v>
+        <v>73.27303494403222</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45719,7 +45719,7 @@
         <v>5672</v>
       </c>
       <c r="B5672">
-        <v>25.35398585404711</v>
+        <v>25.3539858540471</v>
       </c>
     </row>
     <row r="5673" spans="1:2">
@@ -45823,7 +45823,7 @@
         <v>5685</v>
       </c>
       <c r="B5685">
-        <v>80.42220986113709</v>
+        <v>80.42220986113708</v>
       </c>
     </row>
     <row r="5686" spans="1:2">
@@ -45951,7 +45951,7 @@
         <v>5701</v>
       </c>
       <c r="B5701">
-        <v>79.22735923651479</v>
+        <v>79.22735923651477</v>
       </c>
     </row>
     <row r="5702" spans="1:2">
@@ -46023,7 +46023,7 @@
         <v>5710</v>
       </c>
       <c r="B5710">
-        <v>83.56832746116663</v>
+        <v>83.56832746116662</v>
       </c>
     </row>
     <row r="5711" spans="1:2">
@@ -46087,7 +46087,7 @@
         <v>5718</v>
       </c>
       <c r="B5718">
-        <v>39.46699756340739</v>
+        <v>39.46699756340738</v>
       </c>
     </row>
     <row r="5719" spans="1:2">
@@ -46167,7 +46167,7 @@
         <v>5728</v>
       </c>
       <c r="B5728">
-        <v>82.93441480454214</v>
+        <v>82.93441480454213</v>
       </c>
     </row>
     <row r="5729" spans="1:2">
@@ -46175,7 +46175,7 @@
         <v>5729</v>
       </c>
       <c r="B5729">
-        <v>81.58863259500924</v>
+        <v>81.58863259500923</v>
       </c>
     </row>
     <row r="5730" spans="1:2">
@@ -46191,7 +46191,7 @@
         <v>5731</v>
       </c>
       <c r="B5731">
-        <v>117.3016832242035</v>
+        <v>117.3016832242034</v>
       </c>
     </row>
     <row r="5732" spans="1:2">
@@ -46231,7 +46231,7 @@
         <v>5736</v>
       </c>
       <c r="B5736">
-        <v>61.64690684033666</v>
+        <v>61.64690684033665</v>
       </c>
     </row>
     <row r="5737" spans="1:2">
@@ -46239,7 +46239,7 @@
         <v>5737</v>
       </c>
       <c r="B5737">
-        <v>55.33913887522853</v>
+        <v>55.33913887522852</v>
       </c>
     </row>
     <row r="5738" spans="1:2">
@@ -46247,7 +46247,7 @@
         <v>5738</v>
       </c>
       <c r="B5738">
-        <v>46.57748710340895</v>
+        <v>46.57748710340894</v>
       </c>
     </row>
     <row r="5739" spans="1:2">
@@ -46279,7 +46279,7 @@
         <v>5742</v>
       </c>
       <c r="B5742">
-        <v>34.44053617932666</v>
+        <v>34.44053617932665</v>
       </c>
     </row>
     <row r="5743" spans="1:2">
@@ -46335,7 +46335,7 @@
         <v>5749</v>
       </c>
       <c r="B5749">
-        <v>61.85322885155425</v>
+        <v>61.85322885155424</v>
       </c>
     </row>
     <row r="5750" spans="1:2">
@@ -46415,7 +46415,7 @@
         <v>5759</v>
       </c>
       <c r="B5759">
-        <v>76.07538021571202</v>
+        <v>76.075380215712</v>
       </c>
     </row>
     <row r="5760" spans="1:2">
@@ -46431,7 +46431,7 @@
         <v>5761</v>
       </c>
       <c r="B5761">
-        <v>64.20102094227029</v>
+        <v>64.20102094227028</v>
       </c>
     </row>
     <row r="5762" spans="1:2">
@@ -46447,7 +46447,7 @@
         <v>5763</v>
       </c>
       <c r="B5763">
-        <v>53.87905896061771</v>
+        <v>53.8790589606177</v>
       </c>
     </row>
     <row r="5764" spans="1:2">
@@ -46455,7 +46455,7 @@
         <v>5764</v>
       </c>
       <c r="B5764">
-        <v>48.10614564106653</v>
+        <v>48.10614564106652</v>
       </c>
     </row>
     <row r="5765" spans="1:2">
@@ -46527,7 +46527,7 @@
         <v>5773</v>
       </c>
       <c r="B5773">
-        <v>47.54550074410737</v>
+        <v>47.54550074410736</v>
       </c>
     </row>
     <row r="5774" spans="1:2">
@@ -46599,7 +46599,7 @@
         <v>5782</v>
       </c>
       <c r="B5782">
-        <v>60.71435479531626</v>
+        <v>60.71435479531625</v>
       </c>
     </row>
     <row r="5783" spans="1:2">
@@ -46687,7 +46687,7 @@
         <v>5793</v>
       </c>
       <c r="B5793">
-        <v>34.1627048346757</v>
+        <v>34.16270483467569</v>
       </c>
     </row>
     <row r="5794" spans="1:2">
@@ -46695,7 +46695,7 @@
         <v>5794</v>
       </c>
       <c r="B5794">
-        <v>43.42111201702626</v>
+        <v>43.42111201702625</v>
       </c>
     </row>
     <row r="5795" spans="1:2">
@@ -46783,7 +46783,7 @@
         <v>5805</v>
       </c>
       <c r="B5805">
-        <v>71.75961610038505</v>
+        <v>71.75961610038503</v>
       </c>
     </row>
     <row r="5806" spans="1:2">
@@ -46823,7 +46823,7 @@
         <v>5810</v>
       </c>
       <c r="B5810">
-        <v>30.04915973602506</v>
+        <v>30.04915973602505</v>
       </c>
     </row>
     <row r="5811" spans="1:2">
@@ -46879,7 +46879,7 @@
         <v>5817</v>
       </c>
       <c r="B5817">
-        <v>26.33934930023429</v>
+        <v>26.33934930023428</v>
       </c>
     </row>
     <row r="5818" spans="1:2">
@@ -46911,7 +46911,7 @@
         <v>5821</v>
       </c>
       <c r="B5821">
-        <v>55.63191684285121</v>
+        <v>55.6319168428512</v>
       </c>
     </row>
     <row r="5822" spans="1:2">
@@ -46927,7 +46927,7 @@
         <v>5823</v>
       </c>
       <c r="B5823">
-        <v>66.63175213692749</v>
+        <v>66.63175213692747</v>
       </c>
     </row>
     <row r="5824" spans="1:2">
@@ -46951,7 +46951,7 @@
         <v>5826</v>
       </c>
       <c r="B5826">
-        <v>134.8624998607913</v>
+        <v>134.8624998607912</v>
       </c>
     </row>
     <row r="5827" spans="1:2">
@@ -47007,7 +47007,7 @@
         <v>5833</v>
       </c>
       <c r="B5833">
-        <v>53.68328750679193</v>
+        <v>53.68328750679192</v>
       </c>
     </row>
     <row r="5834" spans="1:2">
@@ -47055,7 +47055,7 @@
         <v>5839</v>
       </c>
       <c r="B5839">
-        <v>3.897610357364964</v>
+        <v>3.897610357364963</v>
       </c>
     </row>
     <row r="5840" spans="1:2">
@@ -47119,7 +47119,7 @@
         <v>5847</v>
       </c>
       <c r="B5847">
-        <v>88.98750403705357</v>
+        <v>88.98750403705355</v>
       </c>
     </row>
     <row r="5848" spans="1:2">
@@ -47127,7 +47127,7 @@
         <v>5848</v>
       </c>
       <c r="B5848">
-        <v>98.60931930734419</v>
+        <v>98.60931930734418</v>
       </c>
     </row>
     <row r="5849" spans="1:2">
@@ -47191,7 +47191,7 @@
         <v>5856</v>
       </c>
       <c r="B5856">
-        <v>59.39201826887627</v>
+        <v>59.39201826887626</v>
       </c>
     </row>
     <row r="5857" spans="1:2">
@@ -47279,7 +47279,7 @@
         <v>5867</v>
       </c>
       <c r="B5867">
-        <v>95.9010498390747</v>
+        <v>95.90104983907467</v>
       </c>
     </row>
     <row r="5868" spans="1:2">
@@ -47319,7 +47319,7 @@
         <v>5872</v>
       </c>
       <c r="B5872">
-        <v>85.0386648621306</v>
+        <v>85.03866486213059</v>
       </c>
     </row>
     <row r="5873" spans="1:2">
@@ -47327,7 +47327,7 @@
         <v>5873</v>
       </c>
       <c r="B5873">
-        <v>69.9024249283881</v>
+        <v>69.90242492838809</v>
       </c>
     </row>
     <row r="5874" spans="1:2">
@@ -47407,7 +47407,7 @@
         <v>5883</v>
       </c>
       <c r="B5883">
-        <v>47.81307460240518</v>
+        <v>47.81307460240517</v>
       </c>
     </row>
     <row r="5884" spans="1:2">
@@ -47487,7 +47487,7 @@
         <v>5893</v>
       </c>
       <c r="B5893">
-        <v>40.81717583852021</v>
+        <v>40.8171758385202</v>
       </c>
     </row>
     <row r="5894" spans="1:2">
@@ -47527,7 +47527,7 @@
         <v>5898</v>
       </c>
       <c r="B5898">
-        <v>97.05018138166584</v>
+        <v>97.05018138166582</v>
       </c>
     </row>
     <row r="5899" spans="1:2">
@@ -47623,7 +47623,7 @@
         <v>5910</v>
       </c>
       <c r="B5910">
-        <v>6.884502462089797</v>
+        <v>6.884502462089796</v>
       </c>
     </row>
     <row r="5911" spans="1:2">
@@ -47663,7 +47663,7 @@
         <v>5915</v>
       </c>
       <c r="B5915">
-        <v>26.50678078462151</v>
+        <v>26.5067807846215</v>
       </c>
     </row>
     <row r="5916" spans="1:2">
@@ -47679,7 +47679,7 @@
         <v>5917</v>
       </c>
       <c r="B5917">
-        <v>25.77688736283543</v>
+        <v>25.77688736283542</v>
       </c>
     </row>
     <row r="5918" spans="1:2">
@@ -47807,7 +47807,7 @@
         <v>5933</v>
       </c>
       <c r="B5933">
-        <v>6.402986745569207</v>
+        <v>6.402986745569206</v>
       </c>
     </row>
     <row r="5934" spans="1:2">
@@ -47887,7 +47887,7 @@
         <v>5943</v>
       </c>
       <c r="B5943">
-        <v>67.51330982122082</v>
+        <v>67.5133098212208</v>
       </c>
     </row>
     <row r="5944" spans="1:2">
@@ -48039,7 +48039,7 @@
         <v>5962</v>
       </c>
       <c r="B5962">
-        <v>7.867052426305823</v>
+        <v>7.867052426305822</v>
       </c>
     </row>
     <row r="5963" spans="1:2">
@@ -48095,7 +48095,7 @@
         <v>5969</v>
       </c>
       <c r="B5969">
-        <v>75.91243271821631</v>
+        <v>75.91243271821629</v>
       </c>
     </row>
     <row r="5970" spans="1:2">
@@ -48167,7 +48167,7 @@
         <v>5978</v>
       </c>
       <c r="B5978">
-        <v>21.94978989737239</v>
+        <v>21.94978989737238</v>
       </c>
     </row>
     <row r="5979" spans="1:2">
@@ -48255,7 +48255,7 @@
         <v>5989</v>
       </c>
       <c r="B5989">
-        <v>59.05117665091313</v>
+        <v>59.05117665091312</v>
       </c>
     </row>
     <row r="5990" spans="1:2">
@@ -48311,7 +48311,7 @@
         <v>5996</v>
       </c>
       <c r="B5996">
-        <v>95.37176354325231</v>
+        <v>95.3717635432523</v>
       </c>
     </row>
     <row r="5997" spans="1:2">
@@ -48319,7 +48319,7 @@
         <v>5997</v>
       </c>
       <c r="B5997">
-        <v>86.13094062322143</v>
+        <v>86.13094062322142</v>
       </c>
     </row>
     <row r="5998" spans="1:2">
@@ -48327,7 +48327,7 @@
         <v>5998</v>
       </c>
       <c r="B5998">
-        <v>75.04142559131479</v>
+        <v>75.04142559131478</v>
       </c>
     </row>
     <row r="5999" spans="1:2">
@@ -48343,7 +48343,7 @@
         <v>6000</v>
       </c>
       <c r="B6000">
-        <v>56.82149218877761</v>
+        <v>56.8214921887776</v>
       </c>
     </row>
     <row r="6001" spans="1:2">
@@ -48375,7 +48375,7 @@
         <v>6004</v>
       </c>
       <c r="B6004">
-        <v>38.01219292749247</v>
+        <v>38.01219292749246</v>
       </c>
     </row>
     <row r="6005" spans="1:2">
@@ -48415,7 +48415,7 @@
         <v>6009</v>
       </c>
       <c r="B6009">
-        <v>34.57827956749749</v>
+        <v>34.57827956749748</v>
       </c>
     </row>
     <row r="6010" spans="1:2">
@@ -48431,7 +48431,7 @@
         <v>6011</v>
       </c>
       <c r="B6011">
-        <v>47.29375272189728</v>
+        <v>47.29375272189727</v>
       </c>
     </row>
     <row r="6012" spans="1:2">
@@ -48495,7 +48495,7 @@
         <v>6019</v>
       </c>
       <c r="B6019">
-        <v>98.74706269551504</v>
+        <v>98.747062695515</v>
       </c>
     </row>
     <row r="6020" spans="1:2">
@@ -48519,7 +48519,7 @@
         <v>6022</v>
       </c>
       <c r="B6022">
-        <v>67.30141946026866</v>
+        <v>67.30141946026865</v>
       </c>
     </row>
     <row r="6023" spans="1:2">
@@ -48671,7 +48671,7 @@
         <v>6041</v>
       </c>
       <c r="B6041">
-        <v>47.01328373789837</v>
+        <v>47.01328373789836</v>
       </c>
     </row>
     <row r="6042" spans="1:2">
@@ -48743,7 +48743,7 @@
         <v>6050</v>
       </c>
       <c r="B6050">
-        <v>35.44928669439901</v>
+        <v>35.449286694399</v>
       </c>
     </row>
     <row r="6051" spans="1:2">
@@ -48911,7 +48911,7 @@
         <v>6071</v>
       </c>
       <c r="B6071">
-        <v>58.38063011445597</v>
+        <v>58.38063011445596</v>
       </c>
     </row>
     <row r="6072" spans="1:2">
@@ -48943,7 +48943,7 @@
         <v>6075</v>
       </c>
       <c r="B6075">
-        <v>27.39077095853573</v>
+        <v>27.39077095853572</v>
       </c>
     </row>
     <row r="6076" spans="1:2">
@@ -48991,7 +48991,7 @@
         <v>6081</v>
       </c>
       <c r="B6081">
-        <v>26.5700548218685</v>
+        <v>26.57005482186849</v>
       </c>
     </row>
     <row r="6082" spans="1:2">
@@ -48999,7 +48999,7 @@
         <v>6082</v>
       </c>
       <c r="B6082">
-        <v>37.28127375707108</v>
+        <v>37.28127375707107</v>
       </c>
     </row>
     <row r="6083" spans="1:2">
@@ -49031,7 +49031,7 @@
         <v>6086</v>
       </c>
       <c r="B6086">
-        <v>62.66357027345287</v>
+        <v>62.66357027345286</v>
       </c>
     </row>
     <row r="6087" spans="1:2">
@@ -49071,7 +49071,7 @@
         <v>6091</v>
       </c>
       <c r="B6091">
-        <v>94.27157486411762</v>
+        <v>94.2715748641176</v>
       </c>
     </row>
     <row r="6092" spans="1:2">
@@ -49095,7 +49095,7 @@
         <v>6094</v>
       </c>
       <c r="B6094">
-        <v>57.45862862682738</v>
+        <v>57.45862862682737</v>
       </c>
     </row>
     <row r="6095" spans="1:2">
@@ -49183,7 +49183,7 @@
         <v>6105</v>
       </c>
       <c r="B6105">
-        <v>25.83301046673908</v>
+        <v>25.83301046673907</v>
       </c>
     </row>
     <row r="6106" spans="1:2">
@@ -49231,7 +49231,7 @@
         <v>6111</v>
       </c>
       <c r="B6111">
-        <v>74.95203892452308</v>
+        <v>74.95203892452307</v>
       </c>
     </row>
     <row r="6112" spans="1:2">
@@ -49327,7 +49327,7 @@
         <v>6123</v>
       </c>
       <c r="B6123">
-        <v>21.41138909224763</v>
+        <v>21.41138909224762</v>
       </c>
     </row>
     <row r="6124" spans="1:2">
@@ -49335,7 +49335,7 @@
         <v>6124</v>
       </c>
       <c r="B6124">
-        <v>17.67625731871652</v>
+        <v>17.67625731871651</v>
       </c>
     </row>
     <row r="6125" spans="1:2">
@@ -49479,7 +49479,7 @@
         <v>6142</v>
       </c>
       <c r="B6142">
-        <v>54.77116720230284</v>
+        <v>54.77116720230283</v>
       </c>
     </row>
     <row r="6143" spans="1:2">
@@ -49487,7 +49487,7 @@
         <v>6143</v>
       </c>
       <c r="B6143">
-        <v>46.1214685672519</v>
+        <v>46.12146856725189</v>
       </c>
     </row>
     <row r="6144" spans="1:2">
@@ -49751,7 +49751,7 @@
         <v>6176</v>
       </c>
       <c r="B6176">
-        <v>4.449609658683608</v>
+        <v>4.449609658683607</v>
       </c>
     </row>
     <row r="6177" spans="1:2">
@@ -49807,7 +49807,7 @@
         <v>6183</v>
       </c>
       <c r="B6183">
-        <v>65.17665442997391</v>
+        <v>65.17665442997389</v>
       </c>
     </row>
     <row r="6184" spans="1:2">
@@ -49815,7 +49815,7 @@
         <v>6184</v>
       </c>
       <c r="B6184">
-        <v>66.78414907703139</v>
+        <v>66.78414907703137</v>
       </c>
     </row>
     <row r="6185" spans="1:2">
@@ -49863,7 +49863,7 @@
         <v>6190</v>
       </c>
       <c r="B6190">
-        <v>50.3786184748466</v>
+        <v>50.37861847484659</v>
       </c>
     </row>
     <row r="6191" spans="1:2">
@@ -49959,7 +49959,7 @@
         <v>6202</v>
       </c>
       <c r="B6202">
-        <v>44.47323704582049</v>
+        <v>44.47323704582048</v>
       </c>
     </row>
     <row r="6203" spans="1:2">
@@ -49983,7 +49983,7 @@
         <v>6205</v>
       </c>
       <c r="B6205">
-        <v>59.7413589469606</v>
+        <v>59.74135894696059</v>
       </c>
     </row>
     <row r="6206" spans="1:2">
@@ -49999,7 +49999,7 @@
         <v>6207</v>
       </c>
       <c r="B6207">
-        <v>77.78544972630097</v>
+        <v>77.78544972630095</v>
       </c>
     </row>
     <row r="6208" spans="1:2">
@@ -50071,7 +50071,7 @@
         <v>6216</v>
       </c>
       <c r="B6216">
-        <v>39.46699756340739</v>
+        <v>39.46699756340738</v>
       </c>
     </row>
     <row r="6217" spans="1:2">
@@ -50095,7 +50095,7 @@
         <v>6219</v>
       </c>
       <c r="B6219">
-        <v>27.59466048013243</v>
+        <v>27.59466048013242</v>
       </c>
     </row>
     <row r="6220" spans="1:2">
@@ -50103,7 +50103,7 @@
         <v>6220</v>
       </c>
       <c r="B6220">
-        <v>26.4925961463503</v>
+        <v>26.49259614635029</v>
       </c>
     </row>
     <row r="6221" spans="1:2">
@@ -50151,7 +50151,7 @@
         <v>6226</v>
       </c>
       <c r="B6226">
-        <v>37.02395738512642</v>
+        <v>37.02395738512641</v>
       </c>
     </row>
     <row r="6227" spans="1:2">
@@ -50263,7 +50263,7 @@
         <v>6240</v>
       </c>
       <c r="B6240">
-        <v>48.45783088746014</v>
+        <v>48.45783088746013</v>
       </c>
     </row>
     <row r="6241" spans="1:2">
@@ -50327,7 +50327,7 @@
         <v>6248</v>
       </c>
       <c r="B6248">
-        <v>9.744670649697465</v>
+        <v>9.74467064969746</v>
       </c>
     </row>
     <row r="6249" spans="1:2">
@@ -50391,7 +50391,7 @@
         <v>6256</v>
       </c>
       <c r="B6256">
-        <v>80.21090564226226</v>
+        <v>80.21090564226225</v>
       </c>
     </row>
     <row r="6257" spans="1:2">
@@ -50663,7 +50663,7 @@
         <v>6290</v>
       </c>
       <c r="B6290">
-        <v>47.07160487459198</v>
+        <v>47.07160487459197</v>
       </c>
     </row>
     <row r="6291" spans="1:2">
@@ -50767,7 +50767,7 @@
         <v>6303</v>
       </c>
       <c r="B6303">
-        <v>86.52101817567969</v>
+        <v>86.52101817567967</v>
       </c>
     </row>
     <row r="6304" spans="1:2">
@@ -50807,7 +50807,7 @@
         <v>6308</v>
       </c>
       <c r="B6308">
-        <v>70.13160648062127</v>
+        <v>70.13160648062126</v>
       </c>
     </row>
     <row r="6309" spans="1:2">
@@ -50823,7 +50823,7 @@
         <v>6310</v>
       </c>
       <c r="B6310">
-        <v>51.47441108840137</v>
+        <v>51.47441108840136</v>
       </c>
     </row>
     <row r="6311" spans="1:2">
@@ -50991,7 +50991,7 @@
         <v>6331</v>
       </c>
       <c r="B6331">
-        <v>60.35563584399478</v>
+        <v>60.35563584399477</v>
       </c>
     </row>
     <row r="6332" spans="1:2">
@@ -51007,7 +51007,7 @@
         <v>6333</v>
       </c>
       <c r="B6333">
-        <v>32.67009403477347</v>
+        <v>32.67009403477346</v>
       </c>
     </row>
     <row r="6334" spans="1:2">
@@ -51039,7 +51039,7 @@
         <v>6337</v>
       </c>
       <c r="B6337">
-        <v>6.297100179300862</v>
+        <v>6.297100179300861</v>
       </c>
     </row>
     <row r="6338" spans="1:2">
@@ -51071,7 +51071,7 @@
         <v>6341</v>
       </c>
       <c r="B6341">
-        <v>2.698750520933772</v>
+        <v>2.698750520933771</v>
       </c>
     </row>
     <row r="6342" spans="1:2">
@@ -51103,7 +51103,7 @@
         <v>6345</v>
       </c>
       <c r="B6345">
-        <v>14.13941740994367</v>
+        <v>14.13941740994366</v>
       </c>
     </row>
     <row r="6346" spans="1:2">
@@ -51175,7 +51175,7 @@
         <v>6354</v>
       </c>
       <c r="B6354">
-        <v>67.04908529598124</v>
+        <v>67.04908529598123</v>
       </c>
     </row>
     <row r="6355" spans="1:2">
@@ -51207,7 +51207,7 @@
         <v>6358</v>
       </c>
       <c r="B6358">
-        <v>30.68864074238412</v>
+        <v>30.68864074238411</v>
       </c>
     </row>
     <row r="6359" spans="1:2">
@@ -51247,7 +51247,7 @@
         <v>6363</v>
       </c>
       <c r="B6363">
-        <v>8.491762652316346</v>
+        <v>8.491762652316345</v>
       </c>
     </row>
     <row r="6364" spans="1:2">
@@ -51351,7 +51351,7 @@
         <v>6376</v>
       </c>
       <c r="B6376">
-        <v>10.39880520798959</v>
+        <v>10.39880520798958</v>
       </c>
     </row>
     <row r="6377" spans="1:2">
@@ -51391,7 +51391,7 @@
         <v>6381</v>
       </c>
       <c r="B6381">
-        <v>32.41277766282881</v>
+        <v>32.4127776628288</v>
       </c>
     </row>
     <row r="6382" spans="1:2">
@@ -51447,7 +51447,7 @@
         <v>6388</v>
       </c>
       <c r="B6388">
-        <v>6.436484765288198</v>
+        <v>6.436484765288197</v>
       </c>
     </row>
     <row r="6389" spans="1:2">
@@ -51559,7 +51559,7 @@
         <v>6402</v>
       </c>
       <c r="B6402">
-        <v>49.60403171966466</v>
+        <v>49.60403171966465</v>
       </c>
     </row>
     <row r="6403" spans="1:2">
@@ -51567,7 +51567,7 @@
         <v>6403</v>
       </c>
       <c r="B6403">
-        <v>38.11916385660386</v>
+        <v>38.11916385660385</v>
       </c>
     </row>
     <row r="6404" spans="1:2">
@@ -51615,7 +51615,7 @@
         <v>6409</v>
       </c>
       <c r="B6409">
-        <v>3.86754126879831</v>
+        <v>3.867541268798309</v>
       </c>
     </row>
     <row r="6410" spans="1:2">
@@ -51703,7 +51703,7 @@
         <v>6420</v>
       </c>
       <c r="B6420">
-        <v>1.863618219874789</v>
+        <v>1.863618219874788</v>
       </c>
     </row>
     <row r="6421" spans="1:2">
@@ -51759,7 +51759,7 @@
         <v>6427</v>
       </c>
       <c r="B6427">
-        <v>48.00151928026443</v>
+        <v>48.00151928026442</v>
       </c>
     </row>
     <row r="6428" spans="1:2">
@@ -51967,7 +51967,7 @@
         <v>6453</v>
       </c>
       <c r="B6453">
-        <v>40.75387249416936</v>
+        <v>40.75387249416935</v>
       </c>
     </row>
     <row r="6454" spans="1:2">
@@ -52031,7 +52031,7 @@
         <v>6461</v>
       </c>
       <c r="B6461">
-        <v>6.631377005997993</v>
+        <v>6.631377005997992</v>
       </c>
     </row>
     <row r="6462" spans="1:2">
@@ -52039,7 +52039,7 @@
         <v>6462</v>
       </c>
       <c r="B6462">
-        <v>6.536421989471717</v>
+        <v>6.536421989471716</v>
       </c>
     </row>
     <row r="6463" spans="1:2">
@@ -52295,7 +52295,7 @@
         <v>6494</v>
       </c>
       <c r="B6494">
-        <v>3.493553316362567</v>
+        <v>3.493553316362566</v>
       </c>
     </row>
     <row r="6495" spans="1:2">
@@ -52319,7 +52319,7 @@
         <v>6497</v>
       </c>
       <c r="B6497">
-        <v>4.840830188192637</v>
+        <v>4.840830188192636</v>
       </c>
     </row>
     <row r="6498" spans="1:2">
@@ -52343,7 +52343,7 @@
         <v>6500</v>
       </c>
       <c r="B6500">
-        <v>43.08232189633375</v>
+        <v>43.08232189633374</v>
       </c>
     </row>
     <row r="6501" spans="1:2">
@@ -52351,7 +52351,7 @@
         <v>6501</v>
       </c>
       <c r="B6501">
-        <v>45.28826760433769</v>
+        <v>45.28826760433768</v>
       </c>
     </row>
     <row r="6502" spans="1:2">
@@ -52471,7 +52471,7 @@
         <v>6516</v>
       </c>
       <c r="B6516">
-        <v>25.46719919628199</v>
+        <v>25.46719919628198</v>
       </c>
     </row>
     <row r="6517" spans="1:2">
@@ -52487,7 +52487,7 @@
         <v>6518</v>
       </c>
       <c r="B6518">
-        <v>47.1586469730744</v>
+        <v>47.15864697307439</v>
       </c>
     </row>
     <row r="6519" spans="1:2">
@@ -52503,7 +52503,7 @@
         <v>6520</v>
       </c>
       <c r="B6520">
-        <v>61.25214015125983</v>
+        <v>61.25214015125982</v>
       </c>
     </row>
     <row r="6521" spans="1:2">
@@ -52543,7 +52543,7 @@
         <v>6525</v>
       </c>
       <c r="B6525">
-        <v>47.92268317086453</v>
+        <v>47.92268317086452</v>
       </c>
     </row>
     <row r="6526" spans="1:2">
@@ -52887,7 +52887,7 @@
         <v>6568</v>
       </c>
       <c r="B6568">
-        <v>8.566935373732981</v>
+        <v>8.56693537373298</v>
       </c>
     </row>
     <row r="6569" spans="1:2">
@@ -52935,7 +52935,7 @@
         <v>6574</v>
       </c>
       <c r="B6574">
-        <v>16.5959974702108</v>
+        <v>16.59599747021079</v>
       </c>
     </row>
     <row r="6575" spans="1:2">
@@ -52967,7 +52967,7 @@
         <v>6578</v>
       </c>
       <c r="B6578">
-        <v>5.142576129598359</v>
+        <v>5.142576129598358</v>
       </c>
     </row>
     <row r="6579" spans="1:2">
@@ -53087,7 +53087,7 @@
         <v>6593</v>
       </c>
       <c r="B6593">
-        <v>76.10849724308075</v>
+        <v>76.10849724308073</v>
       </c>
     </row>
     <row r="6594" spans="1:2">
@@ -53135,7 +53135,7 @@
         <v>6599</v>
       </c>
       <c r="B6599">
-        <v>40.37932770676016</v>
+        <v>40.37932770676015</v>
       </c>
     </row>
     <row r="6600" spans="1:2">
@@ -53231,7 +53231,7 @@
         <v>6611</v>
       </c>
       <c r="B6611">
-        <v>41.26821216702002</v>
+        <v>41.26821216702001</v>
       </c>
     </row>
     <row r="6612" spans="1:2">
@@ -53247,7 +53247,7 @@
         <v>6613</v>
       </c>
       <c r="B6613">
-        <v>49.86896793861452</v>
+        <v>49.86896793861451</v>
       </c>
     </row>
     <row r="6614" spans="1:2">
@@ -53303,7 +53303,7 @@
         <v>6620</v>
       </c>
       <c r="B6620">
-        <v>71.47738869015417</v>
+        <v>71.47738869015416</v>
       </c>
     </row>
     <row r="6621" spans="1:2">
@@ -53351,7 +53351,7 @@
         <v>6626</v>
       </c>
       <c r="B6626">
-        <v>24.85570647411509</v>
+        <v>24.85570647411508</v>
       </c>
     </row>
     <row r="6627" spans="1:2">
@@ -53415,7 +53415,7 @@
         <v>6634</v>
       </c>
       <c r="B6634">
-        <v>43.52046309913246</v>
+        <v>43.52046309913245</v>
       </c>
     </row>
     <row r="6635" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>46.03765025019475</v>
+        <v>46.03765025019474</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -53607,7 +53607,7 @@
         <v>6658</v>
       </c>
       <c r="B6658">
-        <v>34.62399864952866</v>
+        <v>34.62399864952865</v>
       </c>
     </row>
     <row r="6659" spans="1:2">
@@ -53647,7 +53647,7 @@
         <v>6663</v>
       </c>
       <c r="B6663">
-        <v>75.31632622557913</v>
+        <v>75.31632622557912</v>
       </c>
     </row>
     <row r="6664" spans="1:2">
@@ -53655,7 +53655,7 @@
         <v>6664</v>
       </c>
       <c r="B6664">
-        <v>86.84955081001905</v>
+        <v>86.84955081001904</v>
       </c>
     </row>
     <row r="6665" spans="1:2">
@@ -53663,7 +53663,7 @@
         <v>6665</v>
       </c>
       <c r="B6665">
-        <v>77.72185331091146</v>
+        <v>77.72185331091144</v>
       </c>
     </row>
     <row r="6666" spans="1:2">
@@ -53855,7 +53855,7 @@
         <v>6689</v>
       </c>
       <c r="B6689">
-        <v>9.850293452031012</v>
+        <v>9.850293452031011</v>
       </c>
     </row>
     <row r="6690" spans="1:2">
@@ -54039,7 +54039,7 @@
         <v>6712</v>
       </c>
       <c r="B6712">
-        <v>38.20356831573833</v>
+        <v>38.20356831573832</v>
       </c>
     </row>
     <row r="6713" spans="1:2">
@@ -54063,7 +54063,7 @@
         <v>6715</v>
       </c>
       <c r="B6715">
-        <v>30.66285049098192</v>
+        <v>30.66285049098191</v>
       </c>
     </row>
     <row r="6716" spans="1:2">
@@ -54135,7 +54135,7 @@
         <v>6724</v>
       </c>
       <c r="B6724">
-        <v>0.7015651751890749</v>
+        <v>0.7015651751890748</v>
       </c>
     </row>
     <row r="6725" spans="1:2">
@@ -54143,7 +54143,7 @@
         <v>6725</v>
       </c>
       <c r="B6725">
-        <v>0.6598347899940858</v>
+        <v>0.6598347899940857</v>
       </c>
     </row>
     <row r="6726" spans="1:2">
@@ -54151,7 +54151,7 @@
         <v>6726</v>
       </c>
       <c r="B6726">
-        <v>0.7114182235088693</v>
+        <v>0.7114182235088692</v>
       </c>
     </row>
     <row r="6727" spans="1:2">
@@ -54175,7 +54175,7 @@
         <v>6729</v>
       </c>
       <c r="B6729">
-        <v>5.706884414540779</v>
+        <v>5.706884414540778</v>
       </c>
     </row>
     <row r="6730" spans="1:2">
@@ -54255,7 +54255,7 @@
         <v>6739</v>
       </c>
       <c r="B6739">
-        <v>25.3546892245399</v>
+        <v>25.35468922453989</v>
       </c>
     </row>
     <row r="6740" spans="1:2">
@@ -54303,7 +54303,7 @@
         <v>6745</v>
       </c>
       <c r="B6745">
-        <v>0.8035949265886356</v>
+        <v>0.8035949265886355</v>
       </c>
     </row>
     <row r="6746" spans="1:2">
@@ -54415,7 +54415,7 @@
         <v>6759</v>
       </c>
       <c r="B6759">
-        <v>30.77890662229181</v>
+        <v>30.7789066222918</v>
       </c>
     </row>
     <row r="6760" spans="1:2">
@@ -54423,7 +54423,7 @@
         <v>6760</v>
       </c>
       <c r="B6760">
-        <v>42.3358699608633</v>
+        <v>42.33586996086329</v>
       </c>
     </row>
     <row r="6761" spans="1:2">
@@ -54487,7 +54487,7 @@
         <v>6768</v>
       </c>
       <c r="B6768">
-        <v>3.668751183274319</v>
+        <v>3.668751183274318</v>
       </c>
     </row>
     <row r="6769" spans="1:2">
@@ -54519,7 +54519,7 @@
         <v>6772</v>
       </c>
       <c r="B6772">
-        <v>0.7849468163986142</v>
+        <v>0.7849468163986141</v>
       </c>
     </row>
     <row r="6773" spans="1:2">
@@ -54551,7 +54551,7 @@
         <v>6776</v>
       </c>
       <c r="B6776">
-        <v>0.7246533116148156</v>
+        <v>0.7246533116148155</v>
       </c>
     </row>
     <row r="6777" spans="1:2">
@@ -54559,7 +54559,7 @@
         <v>6777</v>
       </c>
       <c r="B6777">
-        <v>3.539887847574926</v>
+        <v>3.539887847574925</v>
       </c>
     </row>
     <row r="6778" spans="1:2">
@@ -54567,7 +54567,7 @@
         <v>6778</v>
       </c>
       <c r="B6778">
-        <v>8.964339702157766</v>
+        <v>8.964339702157764</v>
       </c>
     </row>
     <row r="6779" spans="1:2">
@@ -54607,7 +54607,7 @@
         <v>6783</v>
       </c>
       <c r="B6783">
-        <v>45.76480111320104</v>
+        <v>45.76480111320103</v>
       </c>
     </row>
     <row r="6784" spans="1:2">
@@ -54615,7 +54615,7 @@
         <v>6784</v>
       </c>
       <c r="B6784">
-        <v>56.54659155451327</v>
+        <v>56.54659155451326</v>
       </c>
     </row>
     <row r="6785" spans="1:2">
@@ -54807,7 +54807,7 @@
         <v>6808</v>
       </c>
       <c r="B6808">
-        <v>39.36500884195324</v>
+        <v>39.36500884195323</v>
       </c>
     </row>
     <row r="6809" spans="1:2">
@@ -55015,7 +55015,7 @@
         <v>6834</v>
       </c>
       <c r="B6834">
-        <v>85.31356549639494</v>
+        <v>85.31356549639493</v>
       </c>
     </row>
     <row r="6835" spans="1:2">
@@ -55039,7 +55039,7 @@
         <v>6837</v>
       </c>
       <c r="B6837">
-        <v>57.22710250628492</v>
+        <v>57.22710250628491</v>
       </c>
     </row>
     <row r="6838" spans="1:2">
@@ -55103,7 +55103,7 @@
         <v>6845</v>
       </c>
       <c r="B6845">
-        <v>8.82404659595058</v>
+        <v>8.824046595950579</v>
       </c>
     </row>
     <row r="6846" spans="1:2">
@@ -55111,7 +55111,7 @@
         <v>6846</v>
       </c>
       <c r="B6846">
-        <v>8.036887093210073</v>
+        <v>8.036887093210071</v>
       </c>
     </row>
     <row r="6847" spans="1:2">
@@ -55159,7 +55159,7 @@
         <v>6852</v>
       </c>
       <c r="B6852">
-        <v>42.74060106525462</v>
+        <v>42.74060106525461</v>
       </c>
     </row>
     <row r="6853" spans="1:2">
@@ -55175,7 +55175,7 @@
         <v>6854</v>
       </c>
       <c r="B6854">
-        <v>65.21504673603854</v>
+        <v>65.21504673603853</v>
       </c>
     </row>
     <row r="6855" spans="1:2">
@@ -55231,7 +55231,7 @@
         <v>6861</v>
       </c>
       <c r="B6861">
-        <v>53.23459574660141</v>
+        <v>53.2345957466014</v>
       </c>
     </row>
     <row r="6862" spans="1:2">
@@ -55247,7 +55247,7 @@
         <v>6863</v>
       </c>
       <c r="B6863">
-        <v>32.25217473364239</v>
+        <v>32.25217473364238</v>
       </c>
     </row>
     <row r="6864" spans="1:2">
@@ -55375,7 +55375,7 @@
         <v>6879</v>
       </c>
       <c r="B6879">
-        <v>39.76270624141669</v>
+        <v>39.76270624141668</v>
       </c>
     </row>
     <row r="6880" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>8.54275701304342</v>
+        <v>8.542757013043419</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55495,7 +55495,7 @@
         <v>6894</v>
       </c>
       <c r="B6894">
-        <v>5.144012177687799</v>
+        <v>5.144012177687798</v>
       </c>
     </row>
     <row r="6895" spans="1:2">
@@ -55647,7 +55647,7 @@
         <v>6913</v>
       </c>
       <c r="B6913">
-        <v>8.354048571249381</v>
+        <v>8.354048571249379</v>
       </c>
     </row>
     <row r="6914" spans="1:2">
@@ -55655,7 +55655,7 @@
         <v>6914</v>
       </c>
       <c r="B6914">
-        <v>6.309467777132371</v>
+        <v>6.30946777713237</v>
       </c>
     </row>
     <row r="6915" spans="1:2">
@@ -55703,7 +55703,7 @@
         <v>6920</v>
       </c>
       <c r="B6920">
-        <v>3.743689447860025</v>
+        <v>3.743689447860024</v>
       </c>
     </row>
     <row r="6921" spans="1:2">
@@ -55839,7 +55839,7 @@
         <v>6937</v>
       </c>
       <c r="B6937">
-        <v>4.152523546792602</v>
+        <v>4.152523546792601</v>
       </c>
     </row>
     <row r="6938" spans="1:2">
@@ -55879,7 +55879,7 @@
         <v>6942</v>
       </c>
       <c r="B6942">
-        <v>2.033025003062593</v>
+        <v>2.033025003062592</v>
       </c>
     </row>
     <row r="6943" spans="1:2">
@@ -55911,7 +55911,7 @@
         <v>6946</v>
       </c>
       <c r="B6946">
-        <v>9.930389766897161</v>
+        <v>9.930389766897155</v>
       </c>
     </row>
     <row r="6947" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>8.827944440764776</v>
+        <v>8.827944440764774</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -55951,7 +55951,7 @@
         <v>6951</v>
       </c>
       <c r="B6951">
-        <v>25.044444223013</v>
+        <v>25.04444422301299</v>
       </c>
     </row>
     <row r="6952" spans="1:2">
@@ -55959,7 +55959,7 @@
         <v>6952</v>
       </c>
       <c r="B6952">
-        <v>35.43170243207933</v>
+        <v>35.43170243207932</v>
       </c>
     </row>
     <row r="6953" spans="1:2">
@@ -56255,7 +56255,7 @@
         <v>6989</v>
       </c>
       <c r="B6989">
-        <v>0.8124280876938885</v>
+        <v>0.8124280876938884</v>
       </c>
     </row>
     <row r="6990" spans="1:2">
@@ -56359,7 +56359,7 @@
         <v>7002</v>
       </c>
       <c r="B7002">
-        <v>50.16496968766248</v>
+        <v>50.16496968766247</v>
       </c>
     </row>
     <row r="7003" spans="1:2">
@@ -56423,7 +56423,7 @@
         <v>7010</v>
       </c>
       <c r="B7010">
-        <v>3.45410595455875</v>
+        <v>3.454105954558749</v>
       </c>
     </row>
     <row r="7011" spans="1:2">
@@ -56543,7 +56543,7 @@
         <v>7025</v>
       </c>
       <c r="B7025">
-        <v>44.1828036465071</v>
+        <v>44.18280364650709</v>
       </c>
     </row>
     <row r="7026" spans="1:2">
@@ -56559,7 +56559,7 @@
         <v>7027</v>
       </c>
       <c r="B7027">
-        <v>48.51644509519241</v>
+        <v>48.5164450951924</v>
       </c>
     </row>
     <row r="7028" spans="1:2">
@@ -56615,7 +56615,7 @@
         <v>7034</v>
       </c>
       <c r="B7034">
-        <v>6.172896673116184</v>
+        <v>6.172896673116183</v>
       </c>
     </row>
     <row r="7035" spans="1:2">
@@ -56783,7 +56783,7 @@
         <v>7055</v>
       </c>
       <c r="B7055">
-        <v>30.50136834867952</v>
+        <v>30.50136834867951</v>
       </c>
     </row>
     <row r="7056" spans="1:2">
@@ -56799,7 +56799,7 @@
         <v>7057</v>
       </c>
       <c r="B7057">
-        <v>20.25818386221911</v>
+        <v>20.2581838622191</v>
       </c>
     </row>
     <row r="7058" spans="1:2">
@@ -56823,7 +56823,7 @@
         <v>7060</v>
       </c>
       <c r="B7060">
-        <v>7.938737602362387</v>
+        <v>7.938737602362386</v>
       </c>
     </row>
     <row r="7061" spans="1:2">
@@ -56839,7 +56839,7 @@
         <v>7062</v>
       </c>
       <c r="B7062">
-        <v>8.303054210522307</v>
+        <v>8.303054210522305</v>
       </c>
     </row>
     <row r="7063" spans="1:2">
@@ -56903,7 +56903,7 @@
         <v>7070</v>
       </c>
       <c r="B7070">
-        <v>54.38079657880593</v>
+        <v>54.38079657880592</v>
       </c>
     </row>
     <row r="7071" spans="1:2">
@@ -56919,7 +56919,7 @@
         <v>7072</v>
       </c>
       <c r="B7072">
-        <v>75.73952080540612</v>
+        <v>75.7395208054061</v>
       </c>
     </row>
     <row r="7073" spans="1:2">
@@ -56959,7 +56959,7 @@
         <v>7077</v>
       </c>
       <c r="B7077">
-        <v>52.36065790931328</v>
+        <v>52.36065790931327</v>
       </c>
     </row>
     <row r="7078" spans="1:2">
@@ -56975,7 +56975,7 @@
         <v>7079</v>
       </c>
       <c r="B7079">
-        <v>31.74692026299023</v>
+        <v>31.74692026299022</v>
       </c>
     </row>
     <row r="7080" spans="1:2">
@@ -57007,7 +57007,7 @@
         <v>7083</v>
       </c>
       <c r="B7083">
-        <v>11.90993809753522</v>
+        <v>11.90993809753521</v>
       </c>
     </row>
     <row r="7084" spans="1:2">
@@ -57135,7 +57135,7 @@
         <v>7099</v>
       </c>
       <c r="B7099">
-        <v>83.6398367946</v>
+        <v>83.63983679459999</v>
       </c>
     </row>
     <row r="7100" spans="1:2">
@@ -57167,7 +57167,7 @@
         <v>7103</v>
       </c>
       <c r="B7103">
-        <v>43.43136950337941</v>
+        <v>43.4313695033794</v>
       </c>
     </row>
     <row r="7104" spans="1:2">
@@ -57183,7 +57183,7 @@
         <v>7105</v>
       </c>
       <c r="B7105">
-        <v>33.55663392672404</v>
+        <v>33.55663392672403</v>
       </c>
     </row>
     <row r="7106" spans="1:2">
@@ -57191,7 +57191,7 @@
         <v>7106</v>
       </c>
       <c r="B7106">
-        <v>26.98422281370471</v>
+        <v>26.9842228137047</v>
       </c>
     </row>
     <row r="7107" spans="1:2">
@@ -57199,7 +57199,7 @@
         <v>7107</v>
       </c>
       <c r="B7107">
-        <v>22.6947178634418</v>
+        <v>22.69471786344179</v>
       </c>
     </row>
     <row r="7108" spans="1:2">
@@ -57311,7 +57311,7 @@
         <v>7121</v>
       </c>
       <c r="B7121">
-        <v>66.768909383021</v>
+        <v>66.76890938302098</v>
       </c>
     </row>
     <row r="7122" spans="1:2">
@@ -57351,7 +57351,7 @@
         <v>7126</v>
       </c>
       <c r="B7126">
-        <v>59.34131697918786</v>
+        <v>59.34131697918785</v>
       </c>
     </row>
     <row r="7127" spans="1:2">
@@ -57391,7 +57391,7 @@
         <v>7131</v>
       </c>
       <c r="B7131">
-        <v>38.54734064408809</v>
+        <v>38.54734064408808</v>
       </c>
     </row>
     <row r="7132" spans="1:2">
@@ -57399,7 +57399,7 @@
         <v>7132</v>
       </c>
       <c r="B7132">
-        <v>36.57057648831732</v>
+        <v>36.57057648831731</v>
       </c>
     </row>
     <row r="7133" spans="1:2">
@@ -57479,7 +57479,7 @@
         <v>7142</v>
       </c>
       <c r="B7142">
-        <v>54.82919526795779</v>
+        <v>54.82919526795778</v>
       </c>
     </row>
     <row r="7143" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>81.99394984147789</v>
+        <v>81.99394984147787</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -57623,7 +57623,7 @@
         <v>7160</v>
       </c>
       <c r="B7160">
-        <v>2.181034669717732</v>
+        <v>2.181034669717731</v>
       </c>
     </row>
     <row r="7161" spans="1:2">
@@ -57775,7 +57775,7 @@
         <v>7179</v>
       </c>
       <c r="B7179">
-        <v>1.184798287996221</v>
+        <v>1.18479828799622</v>
       </c>
     </row>
     <row r="7180" spans="1:2">
@@ -57783,7 +57783,7 @@
         <v>7180</v>
       </c>
       <c r="B7180">
-        <v>0.9649305333717062</v>
+        <v>0.964930533371706</v>
       </c>
     </row>
     <row r="7181" spans="1:2">
@@ -57847,7 +57847,7 @@
         <v>7188</v>
       </c>
       <c r="B7188">
-        <v>6.073545591009988</v>
+        <v>6.073545591009987</v>
       </c>
     </row>
     <row r="7189" spans="1:2">
@@ -57919,7 +57919,7 @@
         <v>7197</v>
       </c>
       <c r="B7197">
-        <v>7.441483971065684</v>
+        <v>7.441483971065683</v>
       </c>
     </row>
     <row r="7198" spans="1:2">
@@ -57927,7 +57927,7 @@
         <v>7198</v>
       </c>
       <c r="B7198">
-        <v>5.324719780126385</v>
+        <v>5.324719780126384</v>
       </c>
     </row>
     <row r="7199" spans="1:2">
@@ -57967,7 +57967,7 @@
         <v>7203</v>
       </c>
       <c r="B7203">
-        <v>0.6504213482322835</v>
+        <v>0.6504213482322834</v>
       </c>
     </row>
     <row r="7204" spans="1:2">
@@ -58151,7 +58151,7 @@
         <v>7226</v>
       </c>
       <c r="B7226">
-        <v>0.4860905554340939</v>
+        <v>0.4860905554340938</v>
       </c>
     </row>
     <row r="7227" spans="1:2">
@@ -58383,7 +58383,7 @@
         <v>7255</v>
       </c>
       <c r="B7255">
-        <v>0.6516053552284753</v>
+        <v>0.6516053552284752</v>
       </c>
     </row>
     <row r="7256" spans="1:2">
@@ -58391,7 +58391,7 @@
         <v>7256</v>
       </c>
       <c r="B7256">
-        <v>0.6238104979218334</v>
+        <v>0.6238104979218333</v>
       </c>
     </row>
     <row r="7257" spans="1:2">
@@ -58479,7 +58479,7 @@
         <v>7267</v>
       </c>
       <c r="B7267">
-        <v>35.25820437719181</v>
+        <v>35.2582043771918</v>
       </c>
     </row>
     <row r="7268" spans="1:2">
@@ -58543,7 +58543,7 @@
         <v>7275</v>
       </c>
       <c r="B7275">
-        <v>0.8308769095776203</v>
+        <v>0.8308769095776202</v>
       </c>
     </row>
     <row r="7276" spans="1:2">
@@ -58623,7 +58623,7 @@
         <v>7285</v>
       </c>
       <c r="B7285">
-        <v>7.182555708408385</v>
+        <v>7.182555708408384</v>
       </c>
     </row>
     <row r="7286" spans="1:2">
@@ -58711,7 +58711,7 @@
         <v>7296</v>
       </c>
       <c r="B7296">
-        <v>2.582961084269061</v>
+        <v>2.58296108426906</v>
       </c>
     </row>
     <row r="7297" spans="1:2">
@@ -58735,7 +58735,7 @@
         <v>7299</v>
       </c>
       <c r="B7299">
-        <v>0.6945519852339088</v>
+        <v>0.6945519852339087</v>
       </c>
     </row>
     <row r="7300" spans="1:2">
@@ -58743,7 +58743,7 @@
         <v>7300</v>
       </c>
       <c r="B7300">
-        <v>0.5991749464119607</v>
+        <v>0.5991749464119606</v>
       </c>
     </row>
     <row r="7301" spans="1:2">
@@ -58799,7 +58799,7 @@
         <v>7307</v>
       </c>
       <c r="B7307">
-        <v>5.500972702777317</v>
+        <v>5.500972702777316</v>
       </c>
     </row>
     <row r="7308" spans="1:2">
@@ -58991,7 +58991,7 @@
         <v>7331</v>
       </c>
       <c r="B7331">
-        <v>6.993583502679549</v>
+        <v>6.993583502679548</v>
       </c>
     </row>
     <row r="7332" spans="1:2">
@@ -58999,7 +58999,7 @@
         <v>7332</v>
       </c>
       <c r="B7332">
-        <v>7.599273418280951</v>
+        <v>7.59927341828095</v>
       </c>
     </row>
     <row r="7333" spans="1:2">
@@ -59103,7 +59103,7 @@
         <v>7345</v>
       </c>
       <c r="B7345">
-        <v>1.139307801375207</v>
+        <v>1.139307801375206</v>
       </c>
     </row>
     <row r="7346" spans="1:2">
@@ -59191,7 +59191,7 @@
         <v>7356</v>
       </c>
       <c r="B7356">
-        <v>10.58455363229315</v>
+        <v>10.58455363229314</v>
       </c>
     </row>
     <row r="7357" spans="1:2">
@@ -59215,7 +59215,7 @@
         <v>7359</v>
       </c>
       <c r="B7359">
-        <v>22.77299713786824</v>
+        <v>22.77299713786823</v>
       </c>
     </row>
     <row r="7360" spans="1:2">
@@ -59487,7 +59487,7 @@
         <v>7393</v>
       </c>
       <c r="B7393">
-        <v>2.580267761423763</v>
+        <v>2.580267761423762</v>
       </c>
     </row>
     <row r="7394" spans="1:2">
@@ -59511,7 +59511,7 @@
         <v>7396</v>
       </c>
       <c r="B7396">
-        <v>0.8927705822325098</v>
+        <v>0.8927705822325097</v>
       </c>
     </row>
     <row r="7397" spans="1:2">
@@ -59527,7 +59527,7 @@
         <v>7398</v>
       </c>
       <c r="B7398">
-        <v>0.8980722373218935</v>
+        <v>0.8980722373218933</v>
       </c>
     </row>
     <row r="7399" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>0.926690624247174</v>
+        <v>0.9266906242471736</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59615,7 +59615,7 @@
         <v>7409</v>
       </c>
       <c r="B7409">
-        <v>5.083493008204231</v>
+        <v>5.08349300820423</v>
       </c>
     </row>
     <row r="7410" spans="1:2">
@@ -59623,7 +59623,7 @@
         <v>7410</v>
       </c>
       <c r="B7410">
-        <v>2.471043116025066</v>
+        <v>2.471043116025065</v>
       </c>
     </row>
     <row r="7411" spans="1:2">
@@ -59655,7 +59655,7 @@
         <v>7414</v>
       </c>
       <c r="B7414">
-        <v>6.195345914677644</v>
+        <v>6.195345914677643</v>
       </c>
     </row>
     <row r="7415" spans="1:2">
@@ -59727,7 +59727,7 @@
         <v>7423</v>
       </c>
       <c r="B7423">
-        <v>0.4828667740088191</v>
+        <v>0.482866774008819</v>
       </c>
     </row>
     <row r="7424" spans="1:2">
@@ -59751,7 +59751,7 @@
         <v>7426</v>
       </c>
       <c r="B7426">
-        <v>2.35995746953087</v>
+        <v>2.359957469530869</v>
       </c>
     </row>
     <row r="7427" spans="1:2">
@@ -59855,7 +59855,7 @@
         <v>7439</v>
       </c>
       <c r="B7439">
-        <v>1.805481717935538</v>
+        <v>1.805481717935537</v>
       </c>
     </row>
     <row r="7440" spans="1:2">
@@ -59975,7 +59975,7 @@
         <v>7454</v>
       </c>
       <c r="B7454">
-        <v>8.232424090204923</v>
+        <v>8.232424090204921</v>
       </c>
     </row>
     <row r="7455" spans="1:2">
@@ -59999,7 +59999,7 @@
         <v>7457</v>
       </c>
       <c r="B7457">
-        <v>15.38124732206339</v>
+        <v>15.38124732206338</v>
       </c>
     </row>
     <row r="7458" spans="1:2">
@@ -60047,7 +60047,7 @@
         <v>7463</v>
       </c>
       <c r="B7463">
-        <v>5.358129878533778</v>
+        <v>5.358129878533777</v>
       </c>
     </row>
     <row r="7464" spans="1:2">
@@ -60063,7 +60063,7 @@
         <v>7465</v>
       </c>
       <c r="B7465">
-        <v>1.649538618263836</v>
+        <v>1.649538618263835</v>
       </c>
     </row>
     <row r="7466" spans="1:2">
@@ -60079,7 +60079,7 @@
         <v>7467</v>
       </c>
       <c r="B7467">
-        <v>0.8982304956827706</v>
+        <v>0.8982304956827705</v>
       </c>
     </row>
     <row r="7468" spans="1:2">
@@ -60103,7 +60103,7 @@
         <v>7470</v>
       </c>
       <c r="B7470">
-        <v>0.7036694252466633</v>
+        <v>0.7036694252466632</v>
       </c>
     </row>
     <row r="7471" spans="1:2">
@@ -60527,7 +60527,7 @@
         <v>7523</v>
       </c>
       <c r="B7523">
-        <v>2.57217900075671</v>
+        <v>2.572179000756709</v>
       </c>
     </row>
     <row r="7524" spans="1:2">
@@ -60615,7 +60615,7 @@
         <v>7534</v>
       </c>
       <c r="B7534">
-        <v>7.667412434769714</v>
+        <v>7.667412434769713</v>
       </c>
     </row>
     <row r="7535" spans="1:2">
@@ -60631,7 +60631,7 @@
         <v>7536</v>
       </c>
       <c r="B7536">
-        <v>1.625527308066312</v>
+        <v>1.625527308066311</v>
       </c>
     </row>
     <row r="7537" spans="1:2">
@@ -60639,7 +60639,7 @@
         <v>7537</v>
       </c>
       <c r="B7537">
-        <v>1.139603803124255</v>
+        <v>1.139603803124254</v>
       </c>
     </row>
     <row r="7538" spans="1:2">
@@ -60655,7 +60655,7 @@
         <v>7539</v>
       </c>
       <c r="B7539">
-        <v>0.9102317547159527</v>
+        <v>0.9102317547159526</v>
       </c>
     </row>
     <row r="7540" spans="1:2">
@@ -60735,7 +60735,7 @@
         <v>7549</v>
       </c>
       <c r="B7549">
-        <v>10.44065575231043</v>
+        <v>10.44065575231042</v>
       </c>
     </row>
     <row r="7550" spans="1:2">
@@ -60839,7 +60839,7 @@
         <v>7562</v>
       </c>
       <c r="B7562">
-        <v>0.923475634953059</v>
+        <v>0.9234756349530588</v>
       </c>
     </row>
     <row r="7563" spans="1:2">
@@ -60847,7 +60847,7 @@
         <v>7563</v>
       </c>
       <c r="B7563">
-        <v>0.7487203053096853</v>
+        <v>0.7487203053096851</v>
       </c>
     </row>
     <row r="7564" spans="1:2">
@@ -60959,7 +60959,7 @@
         <v>7577</v>
       </c>
       <c r="B7577">
-        <v>5.289140956032897</v>
+        <v>5.289140956032896</v>
       </c>
     </row>
     <row r="7578" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>0.4801734511635214</v>
+        <v>0.4801734511635213</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61159,7 +61159,7 @@
         <v>7602</v>
       </c>
       <c r="B7602">
-        <v>0.6861408464243283</v>
+        <v>0.6861408464243282</v>
       </c>
     </row>
     <row r="7603" spans="1:2">
@@ -61287,7 +61287,7 @@
         <v>7618</v>
       </c>
       <c r="B7618">
-        <v>0.2614346061799304</v>
+        <v>0.2614346061799303</v>
       </c>
     </row>
     <row r="7619" spans="1:2">
@@ -61431,7 +61431,7 @@
         <v>7636</v>
       </c>
       <c r="B7636">
-        <v>0.4444246458676105</v>
+        <v>0.4444246458676104</v>
       </c>
     </row>
     <row r="7637" spans="1:2">
@@ -61479,7 +61479,7 @@
         <v>7642</v>
       </c>
       <c r="B7642">
-        <v>0.6447181858199337</v>
+        <v>0.6447181858199336</v>
       </c>
     </row>
     <row r="7643" spans="1:2">
@@ -61503,7 +61503,7 @@
         <v>7645</v>
       </c>
       <c r="B7645">
-        <v>1.001001716810145</v>
+        <v>1.001001716810144</v>
       </c>
     </row>
     <row r="7646" spans="1:2">
@@ -61647,7 +61647,7 @@
         <v>7663</v>
       </c>
       <c r="B7663">
-        <v>0.3266481875607756</v>
+        <v>0.3266481875607755</v>
       </c>
     </row>
     <row r="7664" spans="1:2">
@@ -61775,7 +61775,7 @@
         <v>7679</v>
       </c>
       <c r="B7679">
-        <v>1.18908298658145</v>
+        <v>1.189082986581449</v>
       </c>
     </row>
     <row r="7680" spans="1:2">
@@ -61879,7 +61879,7 @@
         <v>7692</v>
       </c>
       <c r="B7692">
-        <v>5.726021953365365</v>
+        <v>5.726021953365364</v>
       </c>
     </row>
     <row r="7693" spans="1:2">
@@ -61895,7 +61895,7 @@
         <v>7694</v>
       </c>
       <c r="B7694">
-        <v>6.335814863508026</v>
+        <v>6.335814863508025</v>
       </c>
     </row>
     <row r="7695" spans="1:2">
@@ -61959,7 +61959,7 @@
         <v>7702</v>
       </c>
       <c r="B7702">
-        <v>1.016930127761389</v>
+        <v>1.016930127761388</v>
       </c>
     </row>
     <row r="7703" spans="1:2">
@@ -62039,7 +62039,7 @@
         <v>7712</v>
       </c>
       <c r="B7712">
-        <v>0.4482990449987135</v>
+        <v>0.4482990449987134</v>
       </c>
     </row>
     <row r="7713" spans="1:2">
@@ -62055,7 +62055,7 @@
         <v>7714</v>
       </c>
       <c r="B7714">
-        <v>1.037749894347891</v>
+        <v>1.03774989434789</v>
       </c>
     </row>
     <row r="7715" spans="1:2">
@@ -62079,7 +62079,7 @@
         <v>7717</v>
       </c>
       <c r="B7717">
-        <v>4.392372884833047</v>
+        <v>4.392372884833046</v>
       </c>
     </row>
     <row r="7718" spans="1:2">
@@ -62175,7 +62175,7 @@
         <v>7729</v>
       </c>
       <c r="B7729">
-        <v>0.4597727761623051</v>
+        <v>0.459772776162305</v>
       </c>
     </row>
     <row r="7730" spans="1:2">
@@ -62199,7 +62199,7 @@
         <v>7732</v>
       </c>
       <c r="B7732">
-        <v>0.3677924306784419</v>
+        <v>0.3677924306784418</v>
       </c>
     </row>
     <row r="7733" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>0.286662161187899</v>
+        <v>0.2866621611878989</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62391,7 +62391,7 @@
         <v>7756</v>
       </c>
       <c r="B7756">
-        <v>0.2200904886138971</v>
+        <v>0.220090488613897</v>
       </c>
     </row>
     <row r="7757" spans="1:2">
@@ -62407,7 +62407,7 @@
         <v>7758</v>
       </c>
       <c r="B7758">
-        <v>0.2520636597187339</v>
+        <v>0.2520636597187338</v>
       </c>
     </row>
     <row r="7759" spans="1:2">
@@ -62415,7 +62415,7 @@
         <v>7759</v>
       </c>
       <c r="B7759">
-        <v>0.2639107633855801</v>
+        <v>0.26391076338558</v>
       </c>
     </row>
     <row r="7760" spans="1:2">
@@ -62423,7 +62423,7 @@
         <v>7760</v>
       </c>
       <c r="B7760">
-        <v>0.2099030462389901</v>
+        <v>0.20990304623899</v>
       </c>
     </row>
     <row r="7761" spans="1:2">
@@ -62719,7 +62719,7 @@
         <v>7797</v>
       </c>
       <c r="B7797">
-        <v>0.4061612910599853</v>
+        <v>0.4061612910599852</v>
       </c>
     </row>
     <row r="7798" spans="1:2">
@@ -63103,7 +63103,7 @@
         <v>7845</v>
       </c>
       <c r="B7845">
-        <v>0.359322677661129</v>
+        <v>0.3593226776611289</v>
       </c>
     </row>
     <row r="7846" spans="1:2">
@@ -63215,7 +63215,7 @@
         <v>7859</v>
       </c>
       <c r="B7859">
-        <v>0.968775625398943</v>
+        <v>0.9687756253989428</v>
       </c>
     </row>
     <row r="7860" spans="1:2">
@@ -63495,7 +63495,7 @@
         <v>7894</v>
       </c>
       <c r="B7894">
-        <v>0.573970837087085</v>
+        <v>0.5739708370870849</v>
       </c>
     </row>
     <row r="7895" spans="1:2">
@@ -63559,7 +63559,7 @@
         <v>7902</v>
       </c>
       <c r="B7902">
-        <v>0.6432352463643073</v>
+        <v>0.6432352463643072</v>
       </c>
     </row>
     <row r="7903" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>0.4673691774844072</v>
+        <v>0.4673691774844071</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63703,7 +63703,7 @@
         <v>7920</v>
       </c>
       <c r="B7920">
-        <v>0.8150569349106809</v>
+        <v>0.8150569349106808</v>
       </c>
     </row>
     <row r="7921" spans="1:2">
@@ -63735,7 +63735,7 @@
         <v>7924</v>
       </c>
       <c r="B7924">
-        <v>0.5641383037399968</v>
+        <v>0.5641383037399967</v>
       </c>
     </row>
     <row r="7925" spans="1:2">
@@ -63751,7 +63751,7 @@
         <v>7926</v>
       </c>
       <c r="B7926">
-        <v>0.6247629787974828</v>
+        <v>0.6247629787974827</v>
       </c>
     </row>
     <row r="7927" spans="1:2">
@@ -63911,7 +63911,7 @@
         <v>7946</v>
       </c>
       <c r="B7946">
-        <v>0.462844160647476</v>
+        <v>0.4628441606474759</v>
       </c>
     </row>
     <row r="7947" spans="1:2">
@@ -64087,7 +64087,7 @@
         <v>7968</v>
       </c>
       <c r="B7968">
-        <v>0.6777619454290004</v>
+        <v>0.6777619454290003</v>
       </c>
     </row>
     <row r="7969" spans="1:2">
@@ -64111,7 +64111,7 @@
         <v>7971</v>
       </c>
       <c r="B7971">
-        <v>0.3912791437167621</v>
+        <v>0.391279143716762</v>
       </c>
     </row>
     <row r="7972" spans="1:2">
@@ -64127,7 +64127,7 @@
         <v>7973</v>
       </c>
       <c r="B7973">
-        <v>0.3103006850242458</v>
+        <v>0.3103006850242457</v>
       </c>
     </row>
     <row r="7974" spans="1:2">
@@ -64311,7 +64311,7 @@
         <v>7996</v>
       </c>
       <c r="B7996">
-        <v>0.4182475406943791</v>
+        <v>0.418247540694379</v>
       </c>
     </row>
     <row r="7997" spans="1:2">
@@ -64319,7 +64319,7 @@
         <v>7997</v>
       </c>
       <c r="B7997">
-        <v>0.4134822056057456</v>
+        <v>0.4134822056057455</v>
       </c>
     </row>
     <row r="7998" spans="1:2">
@@ -64463,7 +64463,7 @@
         <v>8015</v>
       </c>
       <c r="B8015">
-        <v>0.7968982533552239</v>
+        <v>0.7968982533552238</v>
       </c>
     </row>
     <row r="8016" spans="1:2">
@@ -64479,7 +64479,7 @@
         <v>8017</v>
       </c>
       <c r="B8017">
-        <v>0.665520368144116</v>
+        <v>0.6655203681441159</v>
       </c>
     </row>
     <row r="8018" spans="1:2">
@@ -64511,7 +64511,7 @@
         <v>8021</v>
       </c>
       <c r="B8021">
-        <v>0.7284837500901195</v>
+        <v>0.7284837500901193</v>
       </c>
     </row>
     <row r="8022" spans="1:2">
@@ -64519,7 +64519,7 @@
         <v>8022</v>
       </c>
       <c r="B8022">
-        <v>0.7381785400490367</v>
+        <v>0.7381785400490366</v>
       </c>
     </row>
     <row r="8023" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>5.018108859478885</v>
+        <v>5.018108859478884</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64591,7 +64591,7 @@
         <v>8031</v>
       </c>
       <c r="B8031">
-        <v>24.91695832119531</v>
+        <v>24.9169583211953</v>
       </c>
     </row>
     <row r="8032" spans="1:2">
@@ -64647,7 +64647,7 @@
         <v>8038</v>
       </c>
       <c r="B8038">
-        <v>5.847353363371162</v>
+        <v>5.847353363371161</v>
       </c>
     </row>
     <row r="8039" spans="1:2">
@@ -64663,7 +64663,7 @@
         <v>8040</v>
       </c>
       <c r="B8040">
-        <v>0.873715103298749</v>
+        <v>0.8737151032987489</v>
       </c>
     </row>
     <row r="8041" spans="1:2">
@@ -64991,7 +64991,7 @@
         <v>8081</v>
       </c>
       <c r="B8081">
-        <v>9.934228997503622</v>
+        <v>9.93422899750362</v>
       </c>
     </row>
     <row r="8082" spans="1:2">
@@ -65007,7 +65007,7 @@
         <v>8083</v>
       </c>
       <c r="B8083">
-        <v>32.12967103948195</v>
+        <v>32.12967103948194</v>
       </c>
     </row>
     <row r="8084" spans="1:2">
@@ -65055,7 +65055,7 @@
         <v>8089</v>
       </c>
       <c r="B8089">
-        <v>5.214231998551058</v>
+        <v>5.214231998551057</v>
       </c>
     </row>
     <row r="8090" spans="1:2">
@@ -65111,7 +65111,7 @@
         <v>8096</v>
       </c>
       <c r="B8096">
-        <v>1.113409113688704</v>
+        <v>1.113409113688703</v>
       </c>
     </row>
     <row r="8097" spans="1:2">
@@ -65191,7 +65191,7 @@
         <v>8106</v>
       </c>
       <c r="B8106">
-        <v>7.527910620366914</v>
+        <v>7.527910620366913</v>
       </c>
     </row>
     <row r="8107" spans="1:2">
@@ -65271,7 +65271,7 @@
         <v>8116</v>
       </c>
       <c r="B8116">
-        <v>4.036994943352299</v>
+        <v>4.036994943352298</v>
       </c>
     </row>
     <row r="8117" spans="1:2">
@@ -65687,7 +65687,7 @@
         <v>8168</v>
       </c>
       <c r="B8168">
-        <v>2.26485884819565</v>
+        <v>2.264858848195649</v>
       </c>
     </row>
     <row r="8169" spans="1:2">
@@ -65775,7 +65775,7 @@
         <v>8179</v>
       </c>
       <c r="B8179">
-        <v>61.51736944124835</v>
+        <v>61.51736944124834</v>
       </c>
     </row>
     <row r="8180" spans="1:2">
@@ -65903,7 +65903,7 @@
         <v>8195</v>
       </c>
       <c r="B8195">
-        <v>0.9658918063785156</v>
+        <v>0.9658918063785152</v>
       </c>
     </row>
     <row r="8196" spans="1:2">
@@ -65911,7 +65911,7 @@
         <v>8196</v>
       </c>
       <c r="B8196">
-        <v>0.8063703093247585</v>
+        <v>0.8063703093247584</v>
       </c>
     </row>
     <row r="8197" spans="1:2">
@@ -65919,7 +65919,7 @@
         <v>8197</v>
       </c>
       <c r="B8197">
-        <v>0.6762526295798944</v>
+        <v>0.6762526295798943</v>
       </c>
     </row>
     <row r="8198" spans="1:2">
@@ -66079,7 +66079,7 @@
         <v>8217</v>
       </c>
       <c r="B8217">
-        <v>0.5321056392143118</v>
+        <v>0.5321056392143116</v>
       </c>
     </row>
     <row r="8218" spans="1:2">
@@ -66111,7 +66111,7 @@
         <v>8221</v>
       </c>
       <c r="B8221">
-        <v>6.395191055940814</v>
+        <v>6.395191055940813</v>
       </c>
     </row>
     <row r="8222" spans="1:2">
@@ -66151,7 +66151,7 @@
         <v>8226</v>
       </c>
       <c r="B8226">
-        <v>0.7358251796085861</v>
+        <v>0.735825179608586</v>
       </c>
     </row>
     <row r="8227" spans="1:2">
@@ -66175,7 +66175,7 @@
         <v>8229</v>
       </c>
       <c r="B8229">
-        <v>0.8870351820059073</v>
+        <v>0.8870351820059071</v>
       </c>
     </row>
     <row r="8230" spans="1:2">
@@ -66231,7 +66231,7 @@
         <v>8236</v>
       </c>
       <c r="B8236">
-        <v>0.3592728555845566</v>
+        <v>0.3592728555845565</v>
       </c>
     </row>
     <row r="8237" spans="1:2">
@@ -66335,7 +66335,7 @@
         <v>8249</v>
       </c>
       <c r="B8249">
-        <v>0.870963166245719</v>
+        <v>0.8709631662457189</v>
       </c>
     </row>
     <row r="8250" spans="1:2">
@@ -66471,7 +66471,7 @@
         <v>8266</v>
       </c>
       <c r="B8266">
-        <v>0.7413202615834863</v>
+        <v>0.7413202615834862</v>
       </c>
     </row>
     <row r="8267" spans="1:2">
@@ -66575,7 +66575,7 @@
         <v>8279</v>
       </c>
       <c r="B8279">
-        <v>0.8152796689000634</v>
+        <v>0.8152796689000633</v>
       </c>
     </row>
     <row r="8280" spans="1:2">
@@ -66647,7 +66647,7 @@
         <v>8288</v>
       </c>
       <c r="B8288">
-        <v>0.302270538564925</v>
+        <v>0.3022705385649249</v>
       </c>
     </row>
     <row r="8289" spans="1:2">
@@ -66759,7 +66759,7 @@
         <v>8302</v>
       </c>
       <c r="B8302">
-        <v>0.8721002818757251</v>
+        <v>0.872100281875725</v>
       </c>
     </row>
     <row r="8303" spans="1:2">
@@ -66783,7 +66783,7 @@
         <v>8305</v>
       </c>
       <c r="B8305">
-        <v>0.4846369230823337</v>
+        <v>0.4846369230823336</v>
       </c>
     </row>
     <row r="8306" spans="1:2">
@@ -66807,7 +66807,7 @@
         <v>8308</v>
       </c>
       <c r="B8308">
-        <v>0.3878736582475173</v>
+        <v>0.3878736582475172</v>
       </c>
     </row>
     <row r="8309" spans="1:2">
@@ -66959,7 +66959,7 @@
         <v>8327</v>
       </c>
       <c r="B8327">
-        <v>0.7373022576434394</v>
+        <v>0.7373022576434393</v>
       </c>
     </row>
     <row r="8328" spans="1:2">
@@ -67047,7 +67047,7 @@
         <v>8338</v>
       </c>
       <c r="B8338">
-        <v>0.4915768452778343</v>
+        <v>0.4915768452778342</v>
       </c>
     </row>
     <row r="8339" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>5.038858289016108</v>
+        <v>5.038858289016107</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67079,7 +67079,7 @@
         <v>8342</v>
       </c>
       <c r="B8342">
-        <v>5.143543264025941</v>
+        <v>5.14354326402594</v>
       </c>
     </row>
     <row r="8343" spans="1:2">
@@ -67239,7 +67239,7 @@
         <v>8362</v>
       </c>
       <c r="B8362">
-        <v>0.5994064725325031</v>
+        <v>0.599406472532503</v>
       </c>
     </row>
     <row r="8363" spans="1:2">
@@ -67271,7 +67271,7 @@
         <v>8366</v>
       </c>
       <c r="B8366">
-        <v>5.817079125077445</v>
+        <v>5.817079125077444</v>
       </c>
     </row>
     <row r="8367" spans="1:2">
@@ -67335,7 +67335,7 @@
         <v>8374</v>
       </c>
       <c r="B8374">
-        <v>0.7201781168544569</v>
+        <v>0.7201781168544568</v>
       </c>
     </row>
     <row r="8375" spans="1:2">
@@ -67351,7 +67351,7 @@
         <v>8376</v>
       </c>
       <c r="B8376">
-        <v>0.4400901252058092</v>
+        <v>0.4400901252058091</v>
       </c>
     </row>
     <row r="8377" spans="1:2">
@@ -67415,7 +67415,7 @@
         <v>8384</v>
       </c>
       <c r="B8384">
-        <v>0.4235316115214432</v>
+        <v>0.4235316115214431</v>
       </c>
     </row>
     <row r="8385" spans="1:2">
@@ -67743,7 +67743,7 @@
         <v>8425</v>
       </c>
       <c r="B8425">
-        <v>0.41874869217049</v>
+        <v>0.4187486921704899</v>
       </c>
     </row>
     <row r="8426" spans="1:2">
@@ -67767,7 +67767,7 @@
         <v>8428</v>
       </c>
       <c r="B8428">
-        <v>0.3106494395602528</v>
+        <v>0.3106494395602527</v>
       </c>
     </row>
     <row r="8429" spans="1:2">
@@ -67911,7 +67911,7 @@
         <v>8446</v>
       </c>
       <c r="B8446">
-        <v>0.7208170117187387</v>
+        <v>0.7208170117187386</v>
       </c>
     </row>
     <row r="8447" spans="1:2">
@@ -67927,7 +67927,7 @@
         <v>8448</v>
       </c>
       <c r="B8448">
-        <v>0.5152276780978049</v>
+        <v>0.5152276780978048</v>
       </c>
     </row>
     <row r="8449" spans="1:2">
@@ -67967,7 +67967,7 @@
         <v>8453</v>
       </c>
       <c r="B8453">
-        <v>0.3636278912190642</v>
+        <v>0.3636278912190641</v>
       </c>
     </row>
     <row r="8454" spans="1:2">
@@ -67975,7 +67975,7 @@
         <v>8454</v>
       </c>
       <c r="B8454">
-        <v>0.41103799314331</v>
+        <v>0.4110379931433099</v>
       </c>
     </row>
     <row r="8455" spans="1:2">
@@ -68023,7 +68023,7 @@
         <v>8460</v>
       </c>
       <c r="B8460">
-        <v>2.598013212814708</v>
+        <v>2.598013212814707</v>
       </c>
     </row>
     <row r="8461" spans="1:2">
@@ -68159,7 +68159,7 @@
         <v>8477</v>
       </c>
       <c r="B8477">
-        <v>0.5070656496710865</v>
+        <v>0.5070656496710864</v>
       </c>
     </row>
     <row r="8478" spans="1:2">
@@ -68167,7 +68167,7 @@
         <v>8478</v>
       </c>
       <c r="B8478">
-        <v>0.4946775368668714</v>
+        <v>0.4946775368668713</v>
       </c>
     </row>
     <row r="8479" spans="1:2">
@@ -68183,7 +68183,7 @@
         <v>8480</v>
       </c>
       <c r="B8480">
-        <v>0.4418221750442977</v>
+        <v>0.4418221750442976</v>
       </c>
     </row>
     <row r="8481" spans="1:2">
@@ -68207,7 +68207,7 @@
         <v>8483</v>
       </c>
       <c r="B8483">
-        <v>0.3686130295866937</v>
+        <v>0.3686130295866936</v>
       </c>
     </row>
     <row r="8484" spans="1:2">
@@ -68319,7 +68319,7 @@
         <v>8497</v>
       </c>
       <c r="B8497">
-        <v>0.8259210783138569</v>
+        <v>0.8259210783138567</v>
       </c>
     </row>
     <row r="8498" spans="1:2">
@@ -68375,7 +68375,7 @@
         <v>8504</v>
       </c>
       <c r="B8504">
-        <v>0.5032410726165559</v>
+        <v>0.5032410726165558</v>
       </c>
     </row>
     <row r="8505" spans="1:2">
@@ -68503,7 +68503,7 @@
         <v>8520</v>
       </c>
       <c r="B8520">
-        <v>1.267743253358155</v>
+        <v>1.267743253358154</v>
       </c>
     </row>
     <row r="8521" spans="1:2">
@@ -68663,7 +68663,7 @@
         <v>8540</v>
       </c>
       <c r="B8540">
-        <v>0.3125426784700051</v>
+        <v>0.312542678470005</v>
       </c>
     </row>
     <row r="8541" spans="1:2">
@@ -68863,7 +68863,7 @@
         <v>8565</v>
       </c>
       <c r="B8565">
-        <v>0.2206953872376941</v>
+        <v>0.220695387237694</v>
       </c>
     </row>
     <row r="8566" spans="1:2">
@@ -69063,7 +69063,7 @@
         <v>8590</v>
       </c>
       <c r="B8590">
-        <v>0.3994675485369601</v>
+        <v>0.39946754853696</v>
       </c>
     </row>
     <row r="8591" spans="1:2">
@@ -69135,7 +69135,7 @@
         <v>8599</v>
       </c>
       <c r="B8599">
-        <v>0.1102867348428055</v>
+        <v>0.1102867348428054</v>
       </c>
     </row>
     <row r="8600" spans="1:2">
@@ -69271,7 +69271,7 @@
         <v>8616</v>
       </c>
       <c r="B8616">
-        <v>0.1478127229171588</v>
+        <v>0.1478127229171587</v>
       </c>
     </row>
     <row r="8617" spans="1:2">
@@ -69447,7 +69447,7 @@
         <v>8638</v>
       </c>
       <c r="B8638">
-        <v>0.4005460499592339</v>
+        <v>0.4005460499592338</v>
       </c>
     </row>
     <row r="8639" spans="1:2">
@@ -69455,7 +69455,7 @@
         <v>8639</v>
       </c>
       <c r="B8639">
-        <v>0.3850601762763684</v>
+        <v>0.3850601762763683</v>
       </c>
     </row>
     <row r="8640" spans="1:2">
@@ -69687,7 +69687,7 @@
         <v>8668</v>
       </c>
       <c r="B8668">
-        <v>0.2248206551778912</v>
+        <v>0.2248206551778911</v>
       </c>
     </row>
     <row r="8669" spans="1:2">
@@ -69703,7 +69703,7 @@
         <v>8670</v>
       </c>
       <c r="B8670">
-        <v>0.2699626803339369</v>
+        <v>0.2699626803339368</v>
       </c>
     </row>
     <row r="8671" spans="1:2">
@@ -69719,7 +69719,7 @@
         <v>8672</v>
       </c>
       <c r="B8672">
-        <v>0.2042324147119317</v>
+        <v>0.2042324147119316</v>
       </c>
     </row>
     <row r="8673" spans="1:2">
@@ -69823,7 +69823,7 @@
         <v>8685</v>
       </c>
       <c r="B8685">
-        <v>0.5405050551823459</v>
+        <v>0.5405050551823458</v>
       </c>
     </row>
     <row r="8686" spans="1:2">
@@ -69911,7 +69911,7 @@
         <v>8696</v>
       </c>
       <c r="B8696">
-        <v>0.1647973618917384</v>
+        <v>0.1647973618917383</v>
       </c>
     </row>
     <row r="8697" spans="1:2">
